--- a/BackTest/2019-10-31 BackTest WTC.xlsx
+++ b/BackTest/2019-10-31 BackTest WTC.xlsx
@@ -965,7 +965,9 @@
       <c r="J12" t="n">
         <v>27</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-38.46153846153847</v>
+      </c>
       <c r="L12" t="n">
         <v>851.7</v>
       </c>
@@ -1016,7 +1018,9 @@
       <c r="J13" t="n">
         <v>33</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-36</v>
+      </c>
       <c r="L13" t="n">
         <v>850.1</v>
       </c>
@@ -1067,7 +1071,9 @@
       <c r="J14" t="n">
         <v>34</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-30.76923076923077</v>
+      </c>
       <c r="L14" t="n">
         <v>849.3</v>
       </c>
@@ -1118,7 +1124,9 @@
       <c r="J15" t="n">
         <v>35</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L15" t="n">
         <v>848.4</v>
       </c>
@@ -1169,7 +1177,9 @@
       <c r="J16" t="n">
         <v>40</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>16.66666666666666</v>
+      </c>
       <c r="L16" t="n">
         <v>848.6</v>
       </c>
@@ -1220,7 +1230,9 @@
       <c r="J17" t="n">
         <v>46</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>25.92592592592592</v>
+      </c>
       <c r="L17" t="n">
         <v>849.6</v>
       </c>
@@ -1271,7 +1283,9 @@
       <c r="J18" t="n">
         <v>46</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>41.66666666666667</v>
+      </c>
       <c r="L18" t="n">
         <v>850.3</v>
       </c>
@@ -1322,7 +1336,9 @@
       <c r="J19" t="n">
         <v>47</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>39.1304347826087</v>
+      </c>
       <c r="L19" t="n">
         <v>851.4</v>
       </c>
@@ -1373,7 +1389,9 @@
       <c r="J20" t="n">
         <v>50</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>41.66666666666667</v>
+      </c>
       <c r="L20" t="n">
         <v>852.6</v>
       </c>
@@ -1424,7 +1442,9 @@
       <c r="J21" t="n">
         <v>51</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>41.66666666666667</v>
+      </c>
       <c r="L21" t="n">
         <v>853.7</v>
       </c>
@@ -1477,7 +1497,9 @@
       <c r="J22" t="n">
         <v>54</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>61.90476190476191</v>
+      </c>
       <c r="L22" t="n">
         <v>854.4</v>
       </c>
@@ -1531,7 +1553,7 @@
         <v>54</v>
       </c>
       <c r="K23" t="n">
-        <v>-5.660377358490567</v>
+        <v>60</v>
       </c>
       <c r="L23" t="n">
         <v>855.7</v>
@@ -1580,7 +1602,7 @@
         <v>55</v>
       </c>
       <c r="K24" t="n">
-        <v>10.63829787234043</v>
+        <v>70</v>
       </c>
       <c r="L24" t="n">
         <v>857</v>
@@ -1629,7 +1651,7 @@
         <v>63</v>
       </c>
       <c r="K25" t="n">
-        <v>-5.454545454545454</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L25" t="n">
         <v>857.6</v>
@@ -1678,7 +1700,7 @@
         <v>73</v>
       </c>
       <c r="K26" t="n">
-        <v>22.03389830508474</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L26" t="n">
         <v>858.7</v>
@@ -1727,7 +1749,7 @@
         <v>84</v>
       </c>
       <c r="K27" t="n">
-        <v>5.88235294117647</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L27" t="n">
         <v>858.1</v>
@@ -1776,7 +1798,7 @@
         <v>87</v>
       </c>
       <c r="K28" t="n">
-        <v>5.88235294117647</v>
+        <v>-10</v>
       </c>
       <c r="L28" t="n">
         <v>857.8</v>
@@ -1825,7 +1847,7 @@
         <v>90</v>
       </c>
       <c r="K29" t="n">
-        <v>5.88235294117647</v>
+        <v>-25</v>
       </c>
       <c r="L29" t="n">
         <v>857.1</v>
@@ -1874,7 +1896,7 @@
         <v>91</v>
       </c>
       <c r="K30" t="n">
-        <v>4.477611940298507</v>
+        <v>-25</v>
       </c>
       <c r="L30" t="n">
         <v>856.2</v>
@@ -1923,7 +1945,7 @@
         <v>91</v>
       </c>
       <c r="K31" t="n">
-        <v>1.538461538461539</v>
+        <v>-18.91891891891892</v>
       </c>
       <c r="L31" t="n">
         <v>855.2</v>
@@ -1974,7 +1996,7 @@
         <v>91</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-18.91891891891892</v>
       </c>
       <c r="L32" t="n">
         <v>854.5</v>
@@ -2025,7 +2047,7 @@
         <v>91</v>
       </c>
       <c r="K33" t="n">
-        <v>10.3448275862069</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L33" t="n">
         <v>853.8</v>
@@ -2076,7 +2098,7 @@
         <v>92</v>
       </c>
       <c r="K34" t="n">
-        <v>10.3448275862069</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L34" t="n">
         <v>853.1</v>
@@ -2127,7 +2149,7 @@
         <v>93</v>
       </c>
       <c r="K35" t="n">
-        <v>13.79310344827586</v>
+        <v>-40</v>
       </c>
       <c r="L35" t="n">
         <v>853.3</v>
@@ -2178,7 +2200,7 @@
         <v>101</v>
       </c>
       <c r="K36" t="n">
-        <v>-8.196721311475409</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L36" t="n">
         <v>851.7</v>
@@ -2229,7 +2251,7 @@
         <v>108</v>
       </c>
       <c r="K37" t="n">
-        <v>-6.451612903225806</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L37" t="n">
         <v>851.9</v>
@@ -2280,7 +2302,7 @@
         <v>109</v>
       </c>
       <c r="K38" t="n">
-        <v>-7.936507936507936</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L38" t="n">
         <v>851.7</v>
@@ -2331,7 +2353,7 @@
         <v>111</v>
       </c>
       <c r="K39" t="n">
-        <v>-6.25</v>
+        <v>10</v>
       </c>
       <c r="L39" t="n">
         <v>852</v>
@@ -2382,7 +2404,7 @@
         <v>117</v>
       </c>
       <c r="K40" t="n">
-        <v>-1.492537313432836</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L40" t="n">
         <v>852.8</v>
@@ -2433,7 +2455,7 @@
         <v>122</v>
       </c>
       <c r="K41" t="n">
-        <v>-9.859154929577464</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L41" t="n">
         <v>853.1</v>
@@ -2484,7 +2506,7 @@
         <v>127</v>
       </c>
       <c r="K42" t="n">
-        <v>1.36986301369863</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L42" t="n">
         <v>853.9</v>
@@ -2535,7 +2557,7 @@
         <v>130</v>
       </c>
       <c r="K43" t="n">
-        <v>-2.631578947368421</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="L43" t="n">
         <v>854.4</v>
@@ -2586,7 +2608,7 @@
         <v>133</v>
       </c>
       <c r="K44" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>854.5</v>
@@ -2637,7 +2659,7 @@
         <v>137</v>
       </c>
       <c r="K45" t="n">
-        <v>-2.702702702702703</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L45" t="n">
         <v>854.1</v>
@@ -2688,7 +2710,7 @@
         <v>140</v>
       </c>
       <c r="K46" t="n">
-        <v>-13.43283582089552</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>854.8</v>
@@ -2739,7 +2761,7 @@
         <v>141</v>
       </c>
       <c r="K47" t="n">
-        <v>5.263157894736842</v>
+        <v>6.25</v>
       </c>
       <c r="L47" t="n">
         <v>854.9</v>
@@ -2790,7 +2812,7 @@
         <v>145</v>
       </c>
       <c r="K48" t="n">
-        <v>6.896551724137931</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L48" t="n">
         <v>855.5</v>
@@ -2841,7 +2863,7 @@
         <v>145</v>
       </c>
       <c r="K49" t="n">
-        <v>12.72727272727273</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L49" t="n">
         <v>855.9</v>
@@ -2892,7 +2914,7 @@
         <v>151</v>
       </c>
       <c r="K50" t="n">
-        <v>20</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L50" t="n">
         <v>856.3</v>
@@ -2943,7 +2965,7 @@
         <v>154</v>
       </c>
       <c r="K51" t="n">
-        <v>14.28571428571428</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L51" t="n">
         <v>856.9</v>
@@ -2994,7 +3016,7 @@
         <v>156</v>
       </c>
       <c r="K52" t="n">
-        <v>10.76923076923077</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L52" t="n">
         <v>856.8</v>
@@ -3045,7 +3067,7 @@
         <v>162</v>
       </c>
       <c r="K53" t="n">
-        <v>1.408450704225352</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L53" t="n">
         <v>856.4</v>
@@ -3096,7 +3118,7 @@
         <v>165</v>
       </c>
       <c r="K54" t="n">
-        <v>-4.10958904109589</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>856</v>
@@ -3147,7 +3169,7 @@
         <v>166</v>
       </c>
       <c r="K55" t="n">
-        <v>-6.849315068493151</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L55" t="n">
         <v>855.9</v>
@@ -3198,7 +3220,7 @@
         <v>170</v>
       </c>
       <c r="K56" t="n">
-        <v>-1.449275362318841</v>
+        <v>-31.03448275862069</v>
       </c>
       <c r="L56" t="n">
         <v>855.1</v>
@@ -3249,7 +3271,7 @@
         <v>172</v>
       </c>
       <c r="K57" t="n">
-        <v>-15.625</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L57" t="n">
         <v>854</v>
@@ -3300,7 +3322,7 @@
         <v>172</v>
       </c>
       <c r="K58" t="n">
-        <v>-14.28571428571428</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L58" t="n">
         <v>852.5</v>
@@ -3351,7 +3373,7 @@
         <v>178</v>
       </c>
       <c r="K59" t="n">
-        <v>-7.462686567164178</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L59" t="n">
         <v>851.6</v>
@@ -3402,7 +3424,7 @@
         <v>184</v>
       </c>
       <c r="K60" t="n">
-        <v>-25.37313432835821</v>
+        <v>-60</v>
       </c>
       <c r="L60" t="n">
         <v>849.5</v>
@@ -3453,7 +3475,7 @@
         <v>186</v>
       </c>
       <c r="K61" t="n">
-        <v>-21.875</v>
+        <v>-60</v>
       </c>
       <c r="L61" t="n">
         <v>847.5</v>
@@ -3504,7 +3526,7 @@
         <v>187</v>
       </c>
       <c r="K62" t="n">
-        <v>-30</v>
+        <v>-44</v>
       </c>
       <c r="L62" t="n">
         <v>845.8</v>
@@ -3555,7 +3577,7 @@
         <v>188</v>
       </c>
       <c r="K63" t="n">
-        <v>-27.58620689655172</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L63" t="n">
         <v>844.6</v>
@@ -3606,7 +3628,7 @@
         <v>191</v>
       </c>
       <c r="K64" t="n">
-        <v>-17.24137931034483</v>
+        <v>-20</v>
       </c>
       <c r="L64" t="n">
         <v>844</v>
@@ -3657,7 +3679,7 @@
         <v>192</v>
       </c>
       <c r="K65" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>843.6</v>
@@ -3708,7 +3730,7 @@
         <v>193</v>
       </c>
       <c r="K66" t="n">
-        <v>-13.20754716981132</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L66" t="n">
         <v>843.7</v>
@@ -3759,7 +3781,7 @@
         <v>194</v>
       </c>
       <c r="K67" t="n">
-        <v>-16.9811320754717</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L67" t="n">
         <v>843.9</v>
@@ -3810,7 +3832,7 @@
         <v>196</v>
       </c>
       <c r="K68" t="n">
-        <v>-21.56862745098039</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L68" t="n">
         <v>844.3</v>
@@ -3861,7 +3883,7 @@
         <v>200</v>
       </c>
       <c r="K69" t="n">
-        <v>-12.72727272727273</v>
+        <v>50</v>
       </c>
       <c r="L69" t="n">
         <v>844.5</v>
@@ -3912,7 +3934,7 @@
         <v>209</v>
       </c>
       <c r="K70" t="n">
-        <v>-37.93103448275862</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L70" t="n">
         <v>844.4</v>
@@ -3963,7 +3985,7 @@
         <v>213</v>
       </c>
       <c r="K71" t="n">
-        <v>-25.42372881355932</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L71" t="n">
         <v>844.9</v>
@@ -4014,7 +4036,7 @@
         <v>216</v>
       </c>
       <c r="K72" t="n">
-        <v>-16.66666666666666</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L72" t="n">
         <v>845.6</v>
@@ -4065,7 +4087,7 @@
         <v>217</v>
       </c>
       <c r="K73" t="n">
-        <v>-9.090909090909092</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L73" t="n">
         <v>846.3</v>
@@ -4116,7 +4138,7 @@
         <v>219</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L74" t="n">
         <v>846.9</v>
@@ -4167,7 +4189,7 @@
         <v>224</v>
       </c>
       <c r="K75" t="n">
-        <v>10.3448275862069</v>
+        <v>29.03225806451613</v>
       </c>
       <c r="L75" t="n">
         <v>847.9</v>
@@ -4218,7 +4240,7 @@
         <v>225</v>
       </c>
       <c r="K76" t="n">
-        <v>20</v>
+        <v>35.48387096774194</v>
       </c>
       <c r="L76" t="n">
         <v>848.9</v>
@@ -4269,7 +4291,7 @@
         <v>229</v>
       </c>
       <c r="K77" t="n">
-        <v>29.82456140350877</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="L77" t="n">
         <v>850.4</v>
@@ -4320,7 +4342,7 @@
         <v>245</v>
       </c>
       <c r="K78" t="n">
-        <v>1.36986301369863</v>
+        <v>-15.55555555555556</v>
       </c>
       <c r="L78" t="n">
         <v>850.1</v>
@@ -4371,7 +4393,7 @@
         <v>249</v>
       </c>
       <c r="K79" t="n">
-        <v>-1.408450704225352</v>
+        <v>15</v>
       </c>
       <c r="L79" t="n">
         <v>849.8</v>
@@ -4426,7 +4448,7 @@
         <v>253</v>
       </c>
       <c r="K80" t="n">
-        <v>13.04347826086956</v>
+        <v>15</v>
       </c>
       <c r="L80" t="n">
         <v>850.8</v>
@@ -4483,7 +4505,7 @@
         <v>255</v>
       </c>
       <c r="K81" t="n">
-        <v>18.84057971014493</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L81" t="n">
         <v>851.6</v>
@@ -4540,7 +4562,7 @@
         <v>256</v>
       </c>
       <c r="K82" t="n">
-        <v>15.94202898550724</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L82" t="n">
         <v>852</v>
@@ -4597,7 +4619,7 @@
         <v>258</v>
       </c>
       <c r="K83" t="n">
-        <v>14.28571428571428</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="L83" t="n">
         <v>852.3</v>
@@ -4654,7 +4676,7 @@
         <v>262</v>
       </c>
       <c r="K84" t="n">
-        <v>15.49295774647887</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>852.8</v>
@@ -4711,7 +4733,7 @@
         <v>263</v>
       </c>
       <c r="K85" t="n">
-        <v>12.67605633802817</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L85" t="n">
         <v>852.7</v>
@@ -4768,7 +4790,7 @@
         <v>263</v>
       </c>
       <c r="K86" t="n">
-        <v>11.42857142857143</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L86" t="n">
         <v>852.5</v>
@@ -4825,7 +4847,7 @@
         <v>263</v>
       </c>
       <c r="K87" t="n">
-        <v>13.04347826086956</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L87" t="n">
         <v>851.9</v>
@@ -4882,7 +4904,7 @@
         <v>266</v>
       </c>
       <c r="K88" t="n">
-        <v>14.28571428571428</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L88" t="n">
         <v>853.2</v>
@@ -4939,7 +4961,7 @@
         <v>266</v>
       </c>
       <c r="K89" t="n">
-        <v>9.090909090909092</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L89" t="n">
         <v>854.1</v>
@@ -4990,7 +5012,7 @@
         <v>270</v>
       </c>
       <c r="K90" t="n">
-        <v>18.0327868852459</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L90" t="n">
         <v>854.2</v>
@@ -5041,7 +5063,7 @@
         <v>275</v>
       </c>
       <c r="K91" t="n">
-        <v>19.35483870967742</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L91" t="n">
         <v>854.6</v>
@@ -5092,7 +5114,7 @@
         <v>277</v>
       </c>
       <c r="K92" t="n">
-        <v>18.0327868852459</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L92" t="n">
         <v>855.3</v>
@@ -5143,7 +5165,7 @@
         <v>281</v>
       </c>
       <c r="K93" t="n">
-        <v>25</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L93" t="n">
         <v>856.6</v>
@@ -5194,7 +5216,7 @@
         <v>282</v>
       </c>
       <c r="K94" t="n">
-        <v>23.80952380952381</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L94" t="n">
         <v>857.6</v>
@@ -5245,7 +5267,7 @@
         <v>284</v>
       </c>
       <c r="K95" t="n">
-        <v>20</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="L95" t="n">
         <v>858.9</v>
@@ -5296,7 +5318,7 @@
         <v>284</v>
       </c>
       <c r="K96" t="n">
-        <v>18.64406779661017</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="L96" t="n">
         <v>860.2</v>
@@ -5347,7 +5369,7 @@
         <v>291</v>
       </c>
       <c r="K97" t="n">
-        <v>22.58064516129032</v>
+        <v>68</v>
       </c>
       <c r="L97" t="n">
         <v>862.2</v>
@@ -5398,7 +5420,7 @@
         <v>291</v>
       </c>
       <c r="K98" t="n">
-        <v>65.21739130434783</v>
+        <v>68</v>
       </c>
       <c r="L98" t="n">
         <v>863.9</v>
@@ -5449,7 +5471,7 @@
         <v>292</v>
       </c>
       <c r="K99" t="n">
-        <v>62.7906976744186</v>
+        <v>100</v>
       </c>
       <c r="L99" t="n">
         <v>865.7</v>
@@ -5500,7 +5522,7 @@
         <v>295</v>
       </c>
       <c r="K100" t="n">
-        <v>61.90476190476191</v>
+        <v>100</v>
       </c>
       <c r="L100" t="n">
         <v>868.2</v>
@@ -5551,7 +5573,7 @@
         <v>297</v>
       </c>
       <c r="K101" t="n">
-        <v>61.90476190476191</v>
+        <v>100</v>
       </c>
       <c r="L101" t="n">
         <v>870.4</v>
@@ -5602,7 +5624,7 @@
         <v>301</v>
       </c>
       <c r="K102" t="n">
-        <v>68.88888888888889</v>
+        <v>100</v>
       </c>
       <c r="L102" t="n">
         <v>872.8</v>
@@ -5653,7 +5675,7 @@
         <v>303</v>
       </c>
       <c r="K103" t="n">
-        <v>77.77777777777779</v>
+        <v>100</v>
       </c>
       <c r="L103" t="n">
         <v>875</v>
@@ -5704,7 +5726,7 @@
         <v>305</v>
       </c>
       <c r="K104" t="n">
-        <v>67.44186046511628</v>
+        <v>80.95238095238095</v>
       </c>
       <c r="L104" t="n">
         <v>876.9</v>
@@ -5755,7 +5777,7 @@
         <v>320</v>
       </c>
       <c r="K105" t="n">
-        <v>26.31578947368421</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L105" t="n">
         <v>877.1</v>
@@ -5806,7 +5828,7 @@
         <v>323</v>
       </c>
       <c r="K106" t="n">
-        <v>30</v>
+        <v>-6.25</v>
       </c>
       <c r="L106" t="n">
         <v>877.6</v>
@@ -5857,7 +5879,7 @@
         <v>325</v>
       </c>
       <c r="K107" t="n">
-        <v>32.25806451612903</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
         <v>877.6</v>
@@ -5908,7 +5930,7 @@
         <v>328</v>
       </c>
       <c r="K108" t="n">
-        <v>22.58064516129032</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L108" t="n">
         <v>877.3</v>
@@ -5959,7 +5981,7 @@
         <v>330</v>
       </c>
       <c r="K109" t="n">
-        <v>25</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L109" t="n">
         <v>877.1</v>
@@ -6010,7 +6032,7 @@
         <v>333</v>
       </c>
       <c r="K110" t="n">
-        <v>36.50793650793651</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L110" t="n">
         <v>876.9</v>
@@ -6061,7 +6083,7 @@
         <v>340</v>
       </c>
       <c r="K111" t="n">
-        <v>38.46153846153847</v>
+        <v>-2.564102564102564</v>
       </c>
       <c r="L111" t="n">
         <v>877.2</v>
@@ -6112,7 +6134,7 @@
         <v>344</v>
       </c>
       <c r="K112" t="n">
-        <v>28.35820895522388</v>
+        <v>-17.07317073170732</v>
       </c>
       <c r="L112" t="n">
         <v>876.7</v>
@@ -6163,7 +6185,7 @@
         <v>345</v>
       </c>
       <c r="K113" t="n">
-        <v>25</v>
+        <v>-10</v>
       </c>
       <c r="L113" t="n">
         <v>876.1</v>
@@ -6214,7 +6236,7 @@
         <v>349</v>
       </c>
       <c r="K114" t="n">
-        <v>16.41791044776119</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L114" t="n">
         <v>875.3</v>
@@ -6265,7 +6287,7 @@
         <v>350</v>
       </c>
       <c r="K115" t="n">
-        <v>12.12121212121212</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L115" t="n">
         <v>875.9</v>
@@ -6316,7 +6338,7 @@
         <v>350</v>
       </c>
       <c r="K116" t="n">
-        <v>12.12121212121212</v>
+        <v>4</v>
       </c>
       <c r="L116" t="n">
         <v>876.2</v>
@@ -6367,7 +6389,7 @@
         <v>351</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L117" t="n">
         <v>876.2</v>
@@ -6418,7 +6440,7 @@
         <v>356</v>
       </c>
       <c r="K118" t="n">
-        <v>7.692307692307693</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L118" t="n">
         <v>877</v>
@@ -6469,7 +6491,7 @@
         <v>371</v>
       </c>
       <c r="K119" t="n">
-        <v>24.05063291139241</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L119" t="n">
         <v>879.1</v>
@@ -6520,7 +6542,7 @@
         <v>371</v>
       </c>
       <c r="K120" t="n">
-        <v>21.05263157894737</v>
+        <v>35.48387096774194</v>
       </c>
       <c r="L120" t="n">
         <v>880.9</v>
@@ -6571,7 +6593,7 @@
         <v>376</v>
       </c>
       <c r="K121" t="n">
-        <v>11.39240506329114</v>
+        <v>31.25</v>
       </c>
       <c r="L121" t="n">
         <v>881.5</v>
@@ -6622,7 +6644,7 @@
         <v>383</v>
       </c>
       <c r="K122" t="n">
-        <v>-2.439024390243902</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L122" t="n">
         <v>881.8</v>
@@ -6673,7 +6695,7 @@
         <v>384</v>
       </c>
       <c r="K123" t="n">
-        <v>-3.703703703703703</v>
+        <v>20</v>
       </c>
       <c r="L123" t="n">
         <v>882.1</v>
@@ -6724,7 +6746,7 @@
         <v>385</v>
       </c>
       <c r="K124" t="n">
-        <v>-2.5</v>
+        <v>20</v>
       </c>
       <c r="L124" t="n">
         <v>882.7</v>
@@ -6775,7 +6797,7 @@
         <v>389</v>
       </c>
       <c r="K125" t="n">
-        <v>13.04347826086956</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L125" t="n">
         <v>883</v>
@@ -6826,7 +6848,7 @@
         <v>394</v>
       </c>
       <c r="K126" t="n">
-        <v>1.408450704225352</v>
+        <v>-2.325581395348837</v>
       </c>
       <c r="L126" t="n">
         <v>882.8</v>
@@ -6877,7 +6899,7 @@
         <v>395</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>-12.82051282051282</v>
       </c>
       <c r="L127" t="n">
         <v>882.8</v>
@@ -6928,7 +6950,7 @@
         <v>399</v>
       </c>
       <c r="K128" t="n">
-        <v>-1.408450704225352</v>
+        <v>-85.71428571428571</v>
       </c>
       <c r="L128" t="n">
         <v>881.9</v>
@@ -6979,7 +7001,7 @@
         <v>400</v>
       </c>
       <c r="K129" t="n">
-        <v>-5.714285714285714</v>
+        <v>-86.20689655172413</v>
       </c>
       <c r="L129" t="n">
         <v>879.4</v>
@@ -7030,7 +7052,7 @@
         <v>400</v>
       </c>
       <c r="K130" t="n">
-        <v>-10.44776119402985</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L130" t="n">
         <v>876.9</v>
@@ -7081,7 +7103,7 @@
         <v>405</v>
       </c>
       <c r="K131" t="n">
-        <v>-13.84615384615385</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L131" t="n">
         <v>875.4</v>
@@ -7132,7 +7154,7 @@
         <v>406</v>
       </c>
       <c r="K132" t="n">
-        <v>-6.451612903225806</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L132" t="n">
         <v>874.7</v>
@@ -7183,7 +7205,7 @@
         <v>408</v>
       </c>
       <c r="K133" t="n">
-        <v>-11.11111111111111</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L133" t="n">
         <v>873.7</v>
@@ -7234,7 +7256,7 @@
         <v>409</v>
       </c>
       <c r="K134" t="n">
-        <v>-3.333333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L134" t="n">
         <v>872.9</v>
@@ -7285,7 +7307,7 @@
         <v>417</v>
       </c>
       <c r="K135" t="n">
-        <v>10.44776119402985</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L135" t="n">
         <v>873.3</v>
@@ -7336,7 +7358,7 @@
         <v>418</v>
       </c>
       <c r="K136" t="n">
-        <v>8.823529411764707</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L136" t="n">
         <v>874.1</v>
@@ -7387,7 +7409,7 @@
         <v>426</v>
       </c>
       <c r="K137" t="n">
-        <v>20</v>
+        <v>70.37037037037037</v>
       </c>
       <c r="L137" t="n">
         <v>875.6</v>
@@ -7438,7 +7460,7 @@
         <v>447</v>
       </c>
       <c r="K138" t="n">
-        <v>34.06593406593407</v>
+        <v>87.2340425531915</v>
       </c>
       <c r="L138" t="n">
         <v>879.6</v>
@@ -7489,7 +7511,7 @@
         <v>469</v>
       </c>
       <c r="K139" t="n">
-        <v>-6.122448979591836</v>
+        <v>27.53623188405797</v>
       </c>
       <c r="L139" t="n">
         <v>881.5</v>
@@ -7540,7 +7562,7 @@
         <v>477</v>
       </c>
       <c r="K140" t="n">
-        <v>1.886792452830189</v>
+        <v>30.55555555555556</v>
       </c>
       <c r="L140" t="n">
         <v>884.2</v>
@@ -7591,7 +7613,7 @@
         <v>478</v>
       </c>
       <c r="K141" t="n">
-        <v>7.84313725490196</v>
+        <v>30.55555555555556</v>
       </c>
       <c r="L141" t="n">
         <v>886.5</v>
@@ -7642,7 +7664,7 @@
         <v>478</v>
       </c>
       <c r="K142" t="n">
-        <v>15.78947368421053</v>
+        <v>34.28571428571428</v>
       </c>
       <c r="L142" t="n">
         <v>888.7</v>
@@ -7693,7 +7715,7 @@
         <v>479</v>
       </c>
       <c r="K143" t="n">
-        <v>13.68421052631579</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L143" t="n">
         <v>891</v>
@@ -7744,7 +7766,7 @@
         <v>479</v>
       </c>
       <c r="K144" t="n">
-        <v>14.8936170212766</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="L144" t="n">
         <v>893.2</v>
@@ -7795,7 +7817,7 @@
         <v>480</v>
       </c>
       <c r="K145" t="n">
-        <v>18.68131868131868</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="L145" t="n">
         <v>894.5</v>
@@ -7846,7 +7868,7 @@
         <v>483</v>
       </c>
       <c r="K146" t="n">
-        <v>21.34831460674157</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L146" t="n">
         <v>895.6</v>
@@ -7897,7 +7919,7 @@
         <v>490</v>
       </c>
       <c r="K147" t="n">
-        <v>11.57894736842105</v>
+        <v>-58.13953488372093</v>
       </c>
       <c r="L147" t="n">
         <v>895.2</v>
@@ -7948,7 +7970,7 @@
         <v>498</v>
       </c>
       <c r="K148" t="n">
-        <v>7.07070707070707</v>
+        <v>-37.93103448275862</v>
       </c>
       <c r="L148" t="n">
         <v>891.9</v>
@@ -7999,7 +8021,7 @@
         <v>503</v>
       </c>
       <c r="K149" t="n">
-        <v>12.62135922330097</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L149" t="n">
         <v>891.3</v>
@@ -8050,7 +8072,7 @@
         <v>503</v>
       </c>
       <c r="K150" t="n">
-        <v>12.62135922330097</v>
+        <v>-60</v>
       </c>
       <c r="L150" t="n">
         <v>889.9</v>
@@ -8101,7 +8123,7 @@
         <v>514</v>
       </c>
       <c r="K151" t="n">
-        <v>-2.752293577981652</v>
+        <v>-72.22222222222221</v>
       </c>
       <c r="L151" t="n">
         <v>887.3</v>
@@ -8152,7 +8174,7 @@
         <v>518</v>
       </c>
       <c r="K152" t="n">
-        <v>-7.142857142857142</v>
+        <v>-74.35897435897436</v>
       </c>
       <c r="L152" t="n">
         <v>884.3</v>
@@ -8203,7 +8225,7 @@
         <v>519</v>
       </c>
       <c r="K153" t="n">
-        <v>-6.306306306306306</v>
+        <v>-75</v>
       </c>
       <c r="L153" t="n">
         <v>881.3</v>
@@ -8254,7 +8276,7 @@
         <v>521</v>
       </c>
       <c r="K154" t="n">
-        <v>-8.928571428571429</v>
+        <v>-75.60975609756098</v>
       </c>
       <c r="L154" t="n">
         <v>878.1</v>
@@ -8305,7 +8327,7 @@
         <v>536</v>
       </c>
       <c r="K155" t="n">
-        <v>-27.73109243697479</v>
+        <v>-81.13207547169812</v>
       </c>
       <c r="L155" t="n">
         <v>873.5</v>
@@ -8356,7 +8378,7 @@
         <v>541</v>
       </c>
       <c r="K156" t="n">
-        <v>-30.08130081300813</v>
+        <v>-80.3921568627451</v>
       </c>
       <c r="L156" t="n">
         <v>868.7</v>
@@ -8407,7 +8429,7 @@
         <v>545</v>
       </c>
       <c r="K157" t="n">
-        <v>-34.45378151260504</v>
+        <v>-61.70212765957447</v>
       </c>
       <c r="L157" t="n">
         <v>865</v>
@@ -8458,7 +8480,7 @@
         <v>584</v>
       </c>
       <c r="K158" t="n">
-        <v>-16.78832116788321</v>
+        <v>6.172839506172839</v>
       </c>
       <c r="L158" t="n">
         <v>866</v>
@@ -8509,7 +8531,7 @@
         <v>613</v>
       </c>
       <c r="K159" t="n">
-        <v>-20.83333333333334</v>
+        <v>-21.81818181818182</v>
       </c>
       <c r="L159" t="n">
         <v>863.6</v>
@@ -8560,7 +8582,7 @@
         <v>617</v>
       </c>
       <c r="K160" t="n">
-        <v>-24.28571428571428</v>
+        <v>-8.737864077669903</v>
       </c>
       <c r="L160" t="n">
         <v>861.6</v>
@@ -8611,7 +8633,7 @@
         <v>619</v>
       </c>
       <c r="K161" t="n">
-        <v>-26.24113475177305</v>
+        <v>-6.930693069306932</v>
       </c>
       <c r="L161" t="n">
         <v>860.5</v>
@@ -8662,7 +8684,7 @@
         <v>623</v>
       </c>
       <c r="K162" t="n">
-        <v>-22.75862068965517</v>
+        <v>-1.923076923076923</v>
       </c>
       <c r="L162" t="n">
         <v>860.2</v>
@@ -8713,7 +8735,7 @@
         <v>626</v>
       </c>
       <c r="K163" t="n">
-        <v>-23.80952380952381</v>
+        <v>-2.857142857142857</v>
       </c>
       <c r="L163" t="n">
         <v>859.7</v>
@@ -8764,7 +8786,7 @@
         <v>627</v>
       </c>
       <c r="K164" t="n">
-        <v>-24.32432432432433</v>
+        <v>12.08791208791209</v>
       </c>
       <c r="L164" t="n">
         <v>859.3</v>
@@ -8815,7 +8837,7 @@
         <v>630</v>
       </c>
       <c r="K165" t="n">
-        <v>-21.33333333333334</v>
+        <v>21.34831460674157</v>
       </c>
       <c r="L165" t="n">
         <v>860.7</v>
@@ -8866,7 +8888,7 @@
         <v>631</v>
       </c>
       <c r="K166" t="n">
-        <v>-20.27027027027027</v>
+        <v>16.27906976744186</v>
       </c>
       <c r="L166" t="n">
         <v>862.5</v>
@@ -8917,7 +8939,7 @@
         <v>631</v>
       </c>
       <c r="K167" t="n">
-        <v>-16.31205673758866</v>
+        <v>-53.19148936170212</v>
       </c>
       <c r="L167" t="n">
         <v>863.9</v>
@@ -8968,7 +8990,7 @@
         <v>633</v>
       </c>
       <c r="K168" t="n">
-        <v>-9.62962962962963</v>
+        <v>30</v>
       </c>
       <c r="L168" t="n">
         <v>861.6</v>
@@ -9019,7 +9041,7 @@
         <v>635</v>
       </c>
       <c r="K169" t="n">
-        <v>-15.15151515151515</v>
+        <v>0</v>
       </c>
       <c r="L169" t="n">
         <v>862</v>
@@ -9070,7 +9092,7 @@
         <v>636</v>
       </c>
       <c r="K170" t="n">
-        <v>-14.28571428571428</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L170" t="n">
         <v>862.1</v>
@@ -9121,7 +9143,7 @@
         <v>639</v>
       </c>
       <c r="K171" t="n">
-        <v>-8.799999999999999</v>
+        <v>-25</v>
       </c>
       <c r="L171" t="n">
         <v>862.1</v>
@@ -9172,7 +9194,7 @@
         <v>648</v>
       </c>
       <c r="K172" t="n">
-        <v>-12.30769230769231</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L172" t="n">
         <v>860.8</v>
@@ -9223,7 +9245,7 @@
         <v>655</v>
       </c>
       <c r="K173" t="n">
-        <v>-5.88235294117647</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L173" t="n">
         <v>860.5</v>
@@ -9274,7 +9296,7 @@
         <v>656</v>
       </c>
       <c r="K174" t="n">
-        <v>-5.185185185185185</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L174" t="n">
         <v>860.2</v>
@@ -9325,7 +9347,7 @@
         <v>656</v>
       </c>
       <c r="K175" t="n">
-        <v>6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L175" t="n">
         <v>859.6</v>
@@ -9376,7 +9398,7 @@
         <v>656</v>
       </c>
       <c r="K176" t="n">
-        <v>11.30434782608696</v>
+        <v>-20</v>
       </c>
       <c r="L176" t="n">
         <v>859.1</v>
@@ -9427,7 +9449,7 @@
         <v>660</v>
       </c>
       <c r="K177" t="n">
-        <v>11.30434782608696</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L177" t="n">
         <v>859</v>
@@ -9478,7 +9500,7 @@
         <v>664</v>
       </c>
       <c r="K178" t="n">
-        <v>-37.5</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L178" t="n">
         <v>858.3</v>
@@ -9529,7 +9551,7 @@
         <v>667</v>
       </c>
       <c r="K179" t="n">
-        <v>3.703703703703703</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L179" t="n">
         <v>858.1</v>
@@ -9580,7 +9602,7 @@
         <v>669</v>
       </c>
       <c r="K180" t="n">
-        <v>-7.692307692307693</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L180" t="n">
         <v>857.6</v>
@@ -9631,7 +9653,7 @@
         <v>670</v>
       </c>
       <c r="K181" t="n">
-        <v>-5.88235294117647</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L181" t="n">
         <v>857.3</v>
@@ -9682,7 +9704,7 @@
         <v>672</v>
       </c>
       <c r="K182" t="n">
-        <v>-18.36734693877551</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L182" t="n">
         <v>857.7</v>
@@ -9733,7 +9755,7 @@
         <v>677</v>
       </c>
       <c r="K183" t="n">
-        <v>-21.56862745098039</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L183" t="n">
         <v>856.9</v>
@@ -9784,7 +9806,7 @@
         <v>681</v>
       </c>
       <c r="K184" t="n">
-        <v>-25.92592592592592</v>
+        <v>-44</v>
       </c>
       <c r="L184" t="n">
         <v>855.8</v>
@@ -9835,7 +9857,7 @@
         <v>696</v>
       </c>
       <c r="K185" t="n">
-        <v>-48.48484848484848</v>
+        <v>-65</v>
       </c>
       <c r="L185" t="n">
         <v>853.2</v>
@@ -9886,7 +9908,7 @@
         <v>699</v>
       </c>
       <c r="K186" t="n">
-        <v>-50</v>
+        <v>-84.61538461538461</v>
       </c>
       <c r="L186" t="n">
         <v>850.3</v>
@@ -9937,7 +9959,7 @@
         <v>706</v>
       </c>
       <c r="K187" t="n">
-        <v>-36</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L187" t="n">
         <v>847.7</v>
@@ -9988,7 +10010,7 @@
         <v>713</v>
       </c>
       <c r="K188" t="n">
-        <v>-45</v>
+        <v>-69.56521739130434</v>
       </c>
       <c r="L188" t="n">
         <v>844.8</v>
@@ -10039,7 +10061,7 @@
         <v>714</v>
       </c>
       <c r="K189" t="n">
-        <v>-44.30379746835442</v>
+        <v>-68.88888888888889</v>
       </c>
       <c r="L189" t="n">
         <v>841.5</v>
@@ -10090,7 +10112,7 @@
         <v>718</v>
       </c>
       <c r="K190" t="n">
-        <v>-39.02439024390244</v>
+        <v>-54.16666666666666</v>
       </c>
       <c r="L190" t="n">
         <v>838.8</v>
@@ -10141,7 +10163,7 @@
         <v>721</v>
       </c>
       <c r="K191" t="n">
-        <v>-39.02439024390244</v>
+        <v>-55.10204081632652</v>
       </c>
       <c r="L191" t="n">
         <v>835.9</v>
@@ -10192,7 +10214,7 @@
         <v>721</v>
       </c>
       <c r="K192" t="n">
-        <v>-31.50684931506849</v>
+        <v>-50</v>
       </c>
       <c r="L192" t="n">
         <v>833.2</v>
@@ -10243,7 +10265,7 @@
         <v>733</v>
       </c>
       <c r="K193" t="n">
-        <v>-23.07692307692308</v>
+        <v>-11.53846153846154</v>
       </c>
       <c r="L193" t="n">
         <v>832.2</v>
@@ -10294,7 +10316,7 @@
         <v>739</v>
       </c>
       <c r="K194" t="n">
-        <v>-27.71084337349398</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="L194" t="n">
         <v>831</v>
@@ -10345,7 +10367,7 @@
         <v>741</v>
       </c>
       <c r="K195" t="n">
-        <v>-29.41176470588236</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L195" t="n">
         <v>831.1</v>
@@ -10396,7 +10418,7 @@
         <v>747</v>
       </c>
       <c r="K196" t="n">
-        <v>-34.06593406593407</v>
+        <v>-21.95121951219512</v>
       </c>
       <c r="L196" t="n">
         <v>830.9</v>
@@ -10447,7 +10469,7 @@
         <v>763</v>
       </c>
       <c r="K197" t="n">
-        <v>-18.44660194174757</v>
+        <v>28</v>
       </c>
       <c r="L197" t="n">
         <v>831.6</v>
@@ -10498,7 +10520,7 @@
         <v>779</v>
       </c>
       <c r="K198" t="n">
-        <v>-26.95652173913043</v>
+        <v>-1.538461538461539</v>
       </c>
       <c r="L198" t="n">
         <v>831.4</v>
@@ -10549,7 +10571,7 @@
         <v>786</v>
       </c>
       <c r="K199" t="n">
-        <v>-34.45378151260504</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L199" t="n">
         <v>830.6</v>
@@ -10600,7 +10622,7 @@
         <v>807</v>
       </c>
       <c r="K200" t="n">
-        <v>-13.04347826086956</v>
+        <v>13.95348837209302</v>
       </c>
       <c r="L200" t="n">
         <v>831.5</v>
@@ -10651,7 +10673,7 @@
         <v>829</v>
       </c>
       <c r="K201" t="n">
-        <v>-24.52830188679245</v>
+        <v>-9.25925925925926</v>
       </c>
       <c r="L201" t="n">
         <v>830.5</v>
@@ -10702,7 +10724,7 @@
         <v>832</v>
       </c>
       <c r="K202" t="n">
-        <v>-21.25</v>
+        <v>-19.19191919191919</v>
       </c>
       <c r="L202" t="n">
         <v>829.8</v>
@@ -10753,7 +10775,7 @@
         <v>835</v>
       </c>
       <c r="K203" t="n">
-        <v>-16.45569620253164</v>
+        <v>-10.41666666666667</v>
       </c>
       <c r="L203" t="n">
         <v>828.2</v>
@@ -10804,7 +10826,7 @@
         <v>850</v>
       </c>
       <c r="K204" t="n">
-        <v>-4.142011834319527</v>
+        <v>6.422018348623854</v>
       </c>
       <c r="L204" t="n">
         <v>828.7</v>
@@ -10855,7 +10877,7 @@
         <v>861</v>
       </c>
       <c r="K205" t="n">
-        <v>-1.818181818181818</v>
+        <v>1.754385964912281</v>
       </c>
       <c r="L205" t="n">
         <v>828.3</v>
@@ -10906,7 +10928,7 @@
         <v>864</v>
       </c>
       <c r="K206" t="n">
-        <v>1.818181818181818</v>
+        <v>-10.89108910891089</v>
       </c>
       <c r="L206" t="n">
         <v>828.8</v>
@@ -10957,7 +10979,7 @@
         <v>865</v>
       </c>
       <c r="K207" t="n">
-        <v>-1.886792452830189</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="L207" t="n">
         <v>827.8</v>
@@ -11008,7 +11030,7 @@
         <v>866</v>
       </c>
       <c r="K208" t="n">
-        <v>1.96078431372549</v>
+        <v>15</v>
       </c>
       <c r="L208" t="n">
         <v>828.3</v>
@@ -11059,7 +11081,7 @@
         <v>866</v>
       </c>
       <c r="K209" t="n">
-        <v>2.631578947368421</v>
+        <v>-15.25423728813559</v>
       </c>
       <c r="L209" t="n">
         <v>829.5</v>
@@ -11110,7 +11132,7 @@
         <v>874</v>
       </c>
       <c r="K210" t="n">
-        <v>5.128205128205128</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L210" t="n">
         <v>829.4</v>
@@ -11161,7 +11183,7 @@
         <v>875</v>
       </c>
       <c r="K211" t="n">
-        <v>6.493506493506493</v>
+        <v>39.53488372093023</v>
       </c>
       <c r="L211" t="n">
         <v>831.4</v>
@@ -11212,7 +11234,7 @@
         <v>879</v>
       </c>
       <c r="K212" t="n">
-        <v>8.860759493670885</v>
+        <v>40.90909090909091</v>
       </c>
       <c r="L212" t="n">
         <v>833.5</v>
@@ -11263,7 +11285,7 @@
         <v>880</v>
       </c>
       <c r="K213" t="n">
-        <v>0.6802721088435374</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L213" t="n">
         <v>835.2</v>
@@ -11314,7 +11336,7 @@
         <v>890</v>
       </c>
       <c r="K214" t="n">
-        <v>11.25827814569536</v>
+        <v>79.31034482758621</v>
       </c>
       <c r="L214" t="n">
         <v>836.4</v>
@@ -11365,7 +11387,7 @@
         <v>895</v>
       </c>
       <c r="K215" t="n">
-        <v>9.090909090909092</v>
+        <v>48.38709677419355</v>
       </c>
       <c r="L215" t="n">
         <v>838.2</v>
@@ -11416,7 +11438,7 @@
         <v>903</v>
       </c>
       <c r="K216" t="n">
-        <v>17.94871794871795</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L216" t="n">
         <v>840.5</v>
@@ -11467,7 +11489,7 @@
         <v>907</v>
       </c>
       <c r="K217" t="n">
-        <v>5.555555555555555</v>
+        <v>46.34146341463415</v>
       </c>
       <c r="L217" t="n">
         <v>842.3</v>
@@ -11518,7 +11540,7 @@
         <v>911</v>
       </c>
       <c r="K218" t="n">
-        <v>15.15151515151515</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L218" t="n">
         <v>843.8</v>
@@ -11569,7 +11591,7 @@
         <v>911</v>
       </c>
       <c r="K219" t="n">
-        <v>21.6</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="L219" t="n">
         <v>845.3</v>
@@ -11620,7 +11642,7 @@
         <v>917</v>
       </c>
       <c r="K220" t="n">
-        <v>0</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L220" t="n">
         <v>845.4</v>
@@ -11671,7 +11693,7 @@
         <v>926</v>
       </c>
       <c r="K221" t="n">
-        <v>31.95876288659793</v>
+        <v>14.8936170212766</v>
       </c>
       <c r="L221" t="n">
         <v>846.5</v>
@@ -11722,7 +11744,7 @@
         <v>926</v>
       </c>
       <c r="K222" t="n">
-        <v>29.78723404255319</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="L222" t="n">
         <v>847.2</v>
@@ -11773,7 +11795,7 @@
         <v>927</v>
       </c>
       <c r="K223" t="n">
-        <v>26.08695652173913</v>
+        <v>-8.108108108108109</v>
       </c>
       <c r="L223" t="n">
         <v>847.9</v>
@@ -11824,7 +11846,7 @@
         <v>927</v>
       </c>
       <c r="K224" t="n">
-        <v>11.68831168831169</v>
+        <v>6.25</v>
       </c>
       <c r="L224" t="n">
         <v>847.6</v>
@@ -11875,7 +11897,7 @@
         <v>928</v>
       </c>
       <c r="K225" t="n">
-        <v>28.35820895522388</v>
+        <v>-28</v>
       </c>
       <c r="L225" t="n">
         <v>847.7</v>
@@ -11926,7 +11948,7 @@
         <v>932</v>
       </c>
       <c r="K226" t="n">
-        <v>17.64705882352941</v>
+        <v>-28</v>
       </c>
       <c r="L226" t="n">
         <v>846.6</v>
@@ -11977,7 +11999,7 @@
         <v>932</v>
       </c>
       <c r="K227" t="n">
-        <v>16.41791044776119</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L227" t="n">
         <v>845.9</v>
@@ -12028,7 +12050,7 @@
         <v>933</v>
       </c>
       <c r="K228" t="n">
-        <v>19.40298507462687</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L228" t="n">
         <v>845.7</v>
@@ -12079,7 +12101,7 @@
         <v>933</v>
       </c>
       <c r="K229" t="n">
-        <v>19.40298507462687</v>
+        <v>25</v>
       </c>
       <c r="L229" t="n">
         <v>845.5</v>
@@ -12130,7 +12152,7 @@
         <v>936</v>
       </c>
       <c r="K230" t="n">
-        <v>12.90322580645161</v>
+        <v>-20</v>
       </c>
       <c r="L230" t="n">
         <v>846.2</v>
@@ -12181,7 +12203,7 @@
         <v>943</v>
       </c>
       <c r="K231" t="n">
-        <v>23.52941176470588</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L231" t="n">
         <v>846.7</v>
@@ -12232,7 +12254,7 @@
         <v>944</v>
       </c>
       <c r="K232" t="n">
-        <v>20</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L232" t="n">
         <v>847.3</v>
@@ -12283,7 +12305,7 @@
         <v>951</v>
       </c>
       <c r="K233" t="n">
-        <v>9.859154929577464</v>
+        <v>0</v>
       </c>
       <c r="L233" t="n">
         <v>847.3</v>

--- a/BackTest/2019-10-31 BackTest WTC.xlsx
+++ b/BackTest/2019-10-31 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S233"/>
+  <dimension ref="A1:M212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -481,19 +451,15 @@
         <v>874.7166666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -563,29 +521,15 @@
         <v>873.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
-        <v>862</v>
-      </c>
-      <c r="P4" t="n">
-        <v>892.1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>862</v>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -615,26 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="n">
-        <v>862</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -664,26 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J6" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>862</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -713,26 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-14</v>
-      </c>
-      <c r="J7" t="n">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="n">
-        <v>862</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -762,26 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J8" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="n">
-        <v>862</v>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -811,26 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-14</v>
-      </c>
-      <c r="J9" t="n">
-        <v>22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="n">
-        <v>862</v>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -860,26 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J10" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="n">
-        <v>862</v>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -909,28 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J11" t="n">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>852.6</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="n">
-        <v>862</v>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -960,30 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J12" t="n">
-        <v>27</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-38.46153846153847</v>
-      </c>
-      <c r="L12" t="n">
-        <v>851.7</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="n">
-        <v>862</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1013,30 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J13" t="n">
-        <v>33</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-36</v>
-      </c>
-      <c r="L13" t="n">
-        <v>850.1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="n">
-        <v>862</v>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1066,30 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-14</v>
-      </c>
-      <c r="J14" t="n">
-        <v>34</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-30.76923076923077</v>
-      </c>
-      <c r="L14" t="n">
-        <v>849.3</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="n">
-        <v>862</v>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1119,30 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J15" t="n">
-        <v>35</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L15" t="n">
-        <v>848.4</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>862</v>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1172,30 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J16" t="n">
-        <v>40</v>
-      </c>
-      <c r="K16" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L16" t="n">
-        <v>848.6</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="n">
-        <v>862</v>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1225,30 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J17" t="n">
-        <v>46</v>
-      </c>
-      <c r="K17" t="n">
-        <v>25.92592592592592</v>
-      </c>
-      <c r="L17" t="n">
-        <v>849.6</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="n">
-        <v>862</v>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1278,30 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>46</v>
-      </c>
-      <c r="K18" t="n">
-        <v>41.66666666666667</v>
-      </c>
-      <c r="L18" t="n">
-        <v>850.3</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="n">
-        <v>862</v>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1331,30 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J19" t="n">
-        <v>47</v>
-      </c>
-      <c r="K19" t="n">
-        <v>39.1304347826087</v>
-      </c>
-      <c r="L19" t="n">
-        <v>851.4</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="n">
-        <v>862</v>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1386,28 +1086,10 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>50</v>
-      </c>
-      <c r="K20" t="n">
-        <v>41.66666666666667</v>
-      </c>
-      <c r="L20" t="n">
-        <v>852.6</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="n">
-        <v>862</v>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S20" t="n">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1437,32 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>51</v>
-      </c>
-      <c r="K21" t="n">
-        <v>41.66666666666667</v>
-      </c>
-      <c r="L21" t="n">
-        <v>853.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>853.15</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="n">
-        <v>862</v>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1492,33 +1154,13 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>54</v>
-      </c>
-      <c r="K22" t="n">
-        <v>61.90476190476191</v>
-      </c>
-      <c r="L22" t="n">
-        <v>854.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>853.05</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="n">
-        <v>862</v>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>이탈 완료</t>
-        </is>
-      </c>
-      <c r="S22" t="n">
-        <v>0.9915197215777262</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1547,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>54</v>
-      </c>
-      <c r="K23" t="n">
-        <v>60</v>
-      </c>
-      <c r="L23" t="n">
-        <v>855.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>852.9</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1596,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>55</v>
-      </c>
-      <c r="K24" t="n">
-        <v>70</v>
-      </c>
-      <c r="L24" t="n">
-        <v>857</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>853.15</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1645,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J25" t="n">
-        <v>63</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="L25" t="n">
-        <v>857.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>853</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1694,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>73</v>
-      </c>
-      <c r="K26" t="n">
-        <v>18.51851851851852</v>
-      </c>
-      <c r="L26" t="n">
-        <v>858.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>853.65</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J27" t="n">
-        <v>84</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-15.78947368421053</v>
-      </c>
-      <c r="L27" t="n">
-        <v>858.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>853.85</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1792,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>87</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-10</v>
-      </c>
-      <c r="L28" t="n">
-        <v>857.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>854.05</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1841,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J29" t="n">
-        <v>90</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L29" t="n">
-        <v>857.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>854.25</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1890,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J30" t="n">
-        <v>91</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L30" t="n">
-        <v>856.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>854.4</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1939,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J31" t="n">
-        <v>91</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-18.91891891891892</v>
-      </c>
-      <c r="L31" t="n">
-        <v>855.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>854.45</v>
-      </c>
-      <c r="N31" t="n">
-        <v>853.8333333333334</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1990,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J32" t="n">
-        <v>91</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-18.91891891891892</v>
-      </c>
-      <c r="L32" t="n">
-        <v>854.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>854.45</v>
-      </c>
-      <c r="N32" t="n">
-        <v>853.5333333333333</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2041,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J33" t="n">
-        <v>91</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L33" t="n">
-        <v>853.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>854.75</v>
-      </c>
-      <c r="N33" t="n">
-        <v>853.2</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2092,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J34" t="n">
-        <v>92</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.448275862068965</v>
-      </c>
-      <c r="L34" t="n">
-        <v>853.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>855.05</v>
-      </c>
-      <c r="N34" t="n">
-        <v>853.1333333333333</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2143,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J35" t="n">
-        <v>93</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L35" t="n">
-        <v>853.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>855.45</v>
-      </c>
-      <c r="N35" t="n">
-        <v>853.1</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2194,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J36" t="n">
-        <v>101</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-29.41176470588236</v>
-      </c>
-      <c r="L36" t="n">
-        <v>851.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>855.2</v>
-      </c>
-      <c r="N36" t="n">
-        <v>853</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2245,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J37" t="n">
-        <v>108</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-4.761904761904762</v>
-      </c>
-      <c r="L37" t="n">
-        <v>851.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>855</v>
-      </c>
-      <c r="N37" t="n">
-        <v>853.2</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2296,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J38" t="n">
-        <v>109</v>
-      </c>
-      <c r="K38" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L38" t="n">
-        <v>851.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>854.75</v>
-      </c>
-      <c r="N38" t="n">
-        <v>853.2666666666667</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2347,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J39" t="n">
-        <v>111</v>
-      </c>
-      <c r="K39" t="n">
-        <v>10</v>
-      </c>
-      <c r="L39" t="n">
-        <v>852</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>854.55</v>
-      </c>
-      <c r="N39" t="n">
-        <v>853.5</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2398,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>117</v>
-      </c>
-      <c r="K40" t="n">
-        <v>30.76923076923077</v>
-      </c>
-      <c r="L40" t="n">
-        <v>852.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>854.5</v>
-      </c>
-      <c r="N40" t="n">
-        <v>853.8666666666667</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2449,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J41" t="n">
-        <v>122</v>
-      </c>
-      <c r="K41" t="n">
-        <v>9.67741935483871</v>
-      </c>
-      <c r="L41" t="n">
-        <v>853.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>854.15</v>
-      </c>
-      <c r="N41" t="n">
-        <v>854</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2500,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>127</v>
-      </c>
-      <c r="K42" t="n">
-        <v>22.22222222222222</v>
-      </c>
-      <c r="L42" t="n">
-        <v>853.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>854.2</v>
-      </c>
-      <c r="N42" t="n">
-        <v>854.2666666666667</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2551,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J43" t="n">
-        <v>130</v>
-      </c>
-      <c r="K43" t="n">
-        <v>10.52631578947368</v>
-      </c>
-      <c r="L43" t="n">
-        <v>854.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>854.1</v>
-      </c>
-      <c r="N43" t="n">
-        <v>854.6333333333333</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2602,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J44" t="n">
-        <v>133</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>854.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>853.8</v>
-      </c>
-      <c r="N44" t="n">
-        <v>854.8666666666667</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J45" t="n">
-        <v>137</v>
-      </c>
-      <c r="K45" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L45" t="n">
-        <v>854.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>853.7</v>
-      </c>
-      <c r="N45" t="n">
-        <v>855</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2704,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J46" t="n">
-        <v>140</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>854.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>853.25</v>
-      </c>
-      <c r="N46" t="n">
-        <v>855.0666666666667</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2755,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J47" t="n">
-        <v>141</v>
-      </c>
-      <c r="K47" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="L47" t="n">
-        <v>854.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>853.4</v>
-      </c>
-      <c r="N47" t="n">
-        <v>854.9666666666667</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2806,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J48" t="n">
-        <v>145</v>
-      </c>
-      <c r="K48" t="n">
-        <v>11.76470588235294</v>
-      </c>
-      <c r="L48" t="n">
-        <v>855.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>853.6</v>
-      </c>
-      <c r="N48" t="n">
-        <v>855</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2857,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J49" t="n">
-        <v>145</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-7.142857142857142</v>
-      </c>
-      <c r="L49" t="n">
-        <v>855.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>853.95</v>
-      </c>
-      <c r="N49" t="n">
-        <v>855</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>151</v>
-      </c>
-      <c r="K50" t="n">
-        <v>31.03448275862069</v>
-      </c>
-      <c r="L50" t="n">
-        <v>856.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>854.55</v>
-      </c>
-      <c r="N50" t="n">
-        <v>855.1</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2961,26 +2171,10 @@
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>154</v>
-      </c>
-      <c r="K51" t="n">
-        <v>3.703703703703703</v>
-      </c>
-      <c r="L51" t="n">
-        <v>856.9</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>855</v>
-      </c>
-      <c r="N51" t="n">
-        <v>855.0666666666667</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3010,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J52" t="n">
-        <v>156</v>
-      </c>
-      <c r="K52" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L52" t="n">
-        <v>856.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>855.35</v>
-      </c>
-      <c r="N52" t="n">
-        <v>855.0666666666667</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3061,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J53" t="n">
-        <v>162</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-3.448275862068965</v>
-      </c>
-      <c r="L53" t="n">
-        <v>856.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>855.4</v>
-      </c>
-      <c r="N53" t="n">
-        <v>854.8666666666667</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3112,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J54" t="n">
-        <v>165</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>856</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>855.25</v>
-      </c>
-      <c r="N54" t="n">
-        <v>854.5333333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3163,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J55" t="n">
-        <v>166</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-15.38461538461539</v>
-      </c>
-      <c r="L55" t="n">
-        <v>855.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>855</v>
-      </c>
-      <c r="N55" t="n">
-        <v>854.4333333333333</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3214,28 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J56" t="n">
-        <v>170</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-31.03448275862069</v>
-      </c>
-      <c r="L56" t="n">
-        <v>855.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>854.95</v>
-      </c>
-      <c r="N56" t="n">
-        <v>853.8666666666667</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3265,28 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-18</v>
-      </c>
-      <c r="J57" t="n">
-        <v>172</v>
-      </c>
-      <c r="K57" t="n">
-        <v>-55.55555555555556</v>
-      </c>
-      <c r="L57" t="n">
-        <v>854</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>854.45</v>
-      </c>
-      <c r="N57" t="n">
-        <v>853.6</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3316,28 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-18</v>
-      </c>
-      <c r="J58" t="n">
-        <v>172</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-55.55555555555556</v>
-      </c>
-      <c r="L58" t="n">
-        <v>852.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>854</v>
-      </c>
-      <c r="N58" t="n">
-        <v>853.2333333333333</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3367,28 +2449,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J59" t="n">
-        <v>178</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-55.55555555555556</v>
-      </c>
-      <c r="L59" t="n">
-        <v>851.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>853.75</v>
-      </c>
-      <c r="N59" t="n">
-        <v>853.1666666666666</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3418,28 +2484,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-18</v>
-      </c>
-      <c r="J60" t="n">
-        <v>184</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L60" t="n">
-        <v>849.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>852.9</v>
-      </c>
-      <c r="N60" t="n">
-        <v>852.8666666666667</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3469,28 +2519,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J61" t="n">
-        <v>186</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L61" t="n">
-        <v>847.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>852.2</v>
-      </c>
-      <c r="N61" t="n">
-        <v>852.5</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3520,28 +2554,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-19</v>
-      </c>
-      <c r="J62" t="n">
-        <v>187</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-44</v>
-      </c>
-      <c r="L62" t="n">
-        <v>845.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>851.3</v>
-      </c>
-      <c r="N62" t="n">
-        <v>852.1666666666666</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3571,28 +2589,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J63" t="n">
-        <v>188</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-39.1304347826087</v>
-      </c>
-      <c r="L63" t="n">
-        <v>844.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>850.5</v>
-      </c>
-      <c r="N63" t="n">
-        <v>851.8</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3622,28 +2624,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-17</v>
-      </c>
-      <c r="J64" t="n">
-        <v>191</v>
-      </c>
-      <c r="K64" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L64" t="n">
-        <v>844</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>850</v>
-      </c>
-      <c r="N64" t="n">
-        <v>851.5</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3673,28 +2659,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J65" t="n">
-        <v>192</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>843.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>849.75</v>
-      </c>
-      <c r="N65" t="n">
-        <v>851.2</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3724,28 +2694,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J66" t="n">
-        <v>193</v>
-      </c>
-      <c r="K66" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L66" t="n">
-        <v>843.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>849.4</v>
-      </c>
-      <c r="N66" t="n">
-        <v>851.2</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3775,28 +2729,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J67" t="n">
-        <v>194</v>
-      </c>
-      <c r="K67" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L67" t="n">
-        <v>843.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>848.95</v>
-      </c>
-      <c r="N67" t="n">
-        <v>850.9333333333333</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3826,28 +2764,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>-14</v>
-      </c>
-      <c r="J68" t="n">
-        <v>196</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L68" t="n">
-        <v>844.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>848.4</v>
-      </c>
-      <c r="N68" t="n">
-        <v>850.7666666666667</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3877,28 +2799,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J69" t="n">
-        <v>200</v>
-      </c>
-      <c r="K69" t="n">
-        <v>50</v>
-      </c>
-      <c r="L69" t="n">
-        <v>844.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>848.05</v>
-      </c>
-      <c r="N69" t="n">
-        <v>850.6666666666666</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3928,28 +2834,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>-19</v>
-      </c>
-      <c r="J70" t="n">
-        <v>209</v>
-      </c>
-      <c r="K70" t="n">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="L70" t="n">
-        <v>844.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>846.95</v>
-      </c>
-      <c r="N70" t="n">
-        <v>850.0666666666667</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3979,28 +2869,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J71" t="n">
-        <v>213</v>
-      </c>
-      <c r="K71" t="n">
-        <v>15.38461538461539</v>
-      </c>
-      <c r="L71" t="n">
-        <v>844.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>846.2</v>
-      </c>
-      <c r="N71" t="n">
-        <v>849.7666666666667</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4030,28 +2904,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J72" t="n">
-        <v>216</v>
-      </c>
-      <c r="K72" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L72" t="n">
-        <v>845.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>845.7</v>
-      </c>
-      <c r="N72" t="n">
-        <v>849.4</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4081,28 +2939,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-13</v>
-      </c>
-      <c r="J73" t="n">
-        <v>217</v>
-      </c>
-      <c r="K73" t="n">
-        <v>15.38461538461539</v>
-      </c>
-      <c r="L73" t="n">
-        <v>846.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>845.45</v>
-      </c>
-      <c r="N73" t="n">
-        <v>849.1</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4132,28 +2974,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J74" t="n">
-        <v>219</v>
-      </c>
-      <c r="K74" t="n">
-        <v>18.51851851851852</v>
-      </c>
-      <c r="L74" t="n">
-        <v>846.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>845.45</v>
-      </c>
-      <c r="N74" t="n">
-        <v>848.9666666666667</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4183,28 +3009,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J75" t="n">
-        <v>224</v>
-      </c>
-      <c r="K75" t="n">
-        <v>29.03225806451613</v>
-      </c>
-      <c r="L75" t="n">
-        <v>847.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>845.75</v>
-      </c>
-      <c r="N75" t="n">
-        <v>849.1333333333333</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4234,28 +3044,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J76" t="n">
-        <v>225</v>
-      </c>
-      <c r="K76" t="n">
-        <v>35.48387096774194</v>
-      </c>
-      <c r="L76" t="n">
-        <v>848.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>846.3</v>
-      </c>
-      <c r="N76" t="n">
-        <v>849.2333333333333</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4285,28 +3079,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>229</v>
-      </c>
-      <c r="K77" t="n">
-        <v>39.39393939393939</v>
-      </c>
-      <c r="L77" t="n">
-        <v>850.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>847.15</v>
-      </c>
-      <c r="N77" t="n">
-        <v>849.4333333333333</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4336,28 +3114,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-17</v>
-      </c>
-      <c r="J78" t="n">
-        <v>245</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-15.55555555555556</v>
-      </c>
-      <c r="L78" t="n">
-        <v>850.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>847.2</v>
-      </c>
-      <c r="N78" t="n">
-        <v>848.9666666666667</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4384,35 +3146,15 @@
         <v>851.8166666666667</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-13</v>
-      </c>
-      <c r="J79" t="n">
-        <v>249</v>
-      </c>
-      <c r="K79" t="n">
-        <v>15</v>
-      </c>
-      <c r="L79" t="n">
-        <v>849.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>847.15</v>
-      </c>
-      <c r="N79" t="n">
-        <v>848.6333333333333</v>
-      </c>
-      <c r="O79" t="n">
-        <v>844</v>
-      </c>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="n">
-        <v>844</v>
-      </c>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4442,34 +3184,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J80" t="n">
-        <v>253</v>
-      </c>
-      <c r="K80" t="n">
-        <v>15</v>
-      </c>
-      <c r="L80" t="n">
-        <v>850.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>847.6</v>
-      </c>
-      <c r="N80" t="n">
-        <v>848.2333333333333</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q80" t="n">
-        <v>844</v>
-      </c>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4499,34 +3219,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J81" t="n">
-        <v>255</v>
-      </c>
-      <c r="K81" t="n">
-        <v>12.82051282051282</v>
-      </c>
-      <c r="L81" t="n">
-        <v>851.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>848.25</v>
-      </c>
-      <c r="N81" t="n">
-        <v>848</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q81" t="n">
-        <v>844</v>
-      </c>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4556,34 +3254,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J82" t="n">
-        <v>256</v>
-      </c>
-      <c r="K82" t="n">
-        <v>12.82051282051282</v>
-      </c>
-      <c r="L82" t="n">
-        <v>852</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>848.8</v>
-      </c>
-      <c r="N82" t="n">
-        <v>847.8</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q82" t="n">
-        <v>844</v>
-      </c>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,34 +3289,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J83" t="n">
-        <v>258</v>
-      </c>
-      <c r="K83" t="n">
-        <v>2.564102564102564</v>
-      </c>
-      <c r="L83" t="n">
-        <v>852.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>849.3</v>
-      </c>
-      <c r="N83" t="n">
-        <v>847.7333333333333</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q83" t="n">
-        <v>844</v>
-      </c>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4670,34 +3324,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>262</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>852.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>849.85</v>
-      </c>
-      <c r="N84" t="n">
-        <v>847.9</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q84" t="n">
-        <v>844</v>
-      </c>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4727,34 +3359,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J85" t="n">
-        <v>263</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-5.263157894736842</v>
-      </c>
-      <c r="L85" t="n">
-        <v>852.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>850.3</v>
-      </c>
-      <c r="N85" t="n">
-        <v>848.0666666666667</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q85" t="n">
-        <v>844</v>
-      </c>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4784,34 +3394,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J86" t="n">
-        <v>263</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-17.64705882352941</v>
-      </c>
-      <c r="L86" t="n">
-        <v>852.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>850.7</v>
-      </c>
-      <c r="N86" t="n">
-        <v>848.3666666666667</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q86" t="n">
-        <v>844</v>
-      </c>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4841,34 +3429,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J87" t="n">
-        <v>263</v>
-      </c>
-      <c r="K87" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="L87" t="n">
-        <v>851.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>851.15</v>
-      </c>
-      <c r="N87" t="n">
-        <v>848.7333333333333</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q87" t="n">
-        <v>844</v>
-      </c>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4898,34 +3464,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J88" t="n">
-        <v>266</v>
-      </c>
-      <c r="K88" t="n">
-        <v>52.94117647058824</v>
-      </c>
-      <c r="L88" t="n">
-        <v>853.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>851.65</v>
-      </c>
-      <c r="N88" t="n">
-        <v>849.2</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q88" t="n">
-        <v>844</v>
-      </c>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4955,28 +3499,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J89" t="n">
-        <v>266</v>
-      </c>
-      <c r="K89" t="n">
-        <v>38.46153846153847</v>
-      </c>
-      <c r="L89" t="n">
-        <v>854.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>851.95</v>
-      </c>
-      <c r="N89" t="n">
-        <v>849.4666666666667</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5006,28 +3534,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J90" t="n">
-        <v>270</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L90" t="n">
-        <v>854.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>852.5</v>
-      </c>
-      <c r="N90" t="n">
-        <v>849.8</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5057,28 +3569,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J91" t="n">
-        <v>275</v>
-      </c>
-      <c r="K91" t="n">
-        <v>26.31578947368421</v>
-      </c>
-      <c r="L91" t="n">
-        <v>854.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>853.1</v>
-      </c>
-      <c r="N91" t="n">
-        <v>850.3666666666667</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5108,28 +3604,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>277</v>
-      </c>
-      <c r="K92" t="n">
-        <v>47.36842105263158</v>
-      </c>
-      <c r="L92" t="n">
-        <v>855.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>853.65</v>
-      </c>
-      <c r="N92" t="n">
-        <v>850.9666666666667</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5159,28 +3639,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
-      </c>
-      <c r="J93" t="n">
-        <v>281</v>
-      </c>
-      <c r="K93" t="n">
-        <v>47.36842105263158</v>
-      </c>
-      <c r="L93" t="n">
-        <v>856.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>854.45</v>
-      </c>
-      <c r="N93" t="n">
-        <v>851.7333333333333</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5210,28 +3674,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>4</v>
-      </c>
-      <c r="J94" t="n">
-        <v>282</v>
-      </c>
-      <c r="K94" t="n">
-        <v>57.89473684210527</v>
-      </c>
-      <c r="L94" t="n">
-        <v>857.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>855.2</v>
-      </c>
-      <c r="N94" t="n">
-        <v>852.4333333333333</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5261,28 +3709,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>6</v>
-      </c>
-      <c r="J95" t="n">
-        <v>284</v>
-      </c>
-      <c r="K95" t="n">
-        <v>61.90476190476191</v>
-      </c>
-      <c r="L95" t="n">
-        <v>858.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>855.8</v>
-      </c>
-      <c r="N95" t="n">
-        <v>853.1666666666666</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5312,28 +3744,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>6</v>
-      </c>
-      <c r="J96" t="n">
-        <v>284</v>
-      </c>
-      <c r="K96" t="n">
-        <v>61.90476190476191</v>
-      </c>
-      <c r="L96" t="n">
-        <v>860.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>856.35</v>
-      </c>
-      <c r="N96" t="n">
-        <v>853.8666666666667</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5363,28 +3779,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>13</v>
-      </c>
-      <c r="J97" t="n">
-        <v>291</v>
-      </c>
-      <c r="K97" t="n">
-        <v>68</v>
-      </c>
-      <c r="L97" t="n">
-        <v>862.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>857.05</v>
-      </c>
-      <c r="N97" t="n">
-        <v>854.8333333333334</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5414,28 +3814,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>13</v>
-      </c>
-      <c r="J98" t="n">
-        <v>291</v>
-      </c>
-      <c r="K98" t="n">
-        <v>68</v>
-      </c>
-      <c r="L98" t="n">
-        <v>863.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>858.55</v>
-      </c>
-      <c r="N98" t="n">
-        <v>855.7333333333333</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5465,28 +3849,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>14</v>
-      </c>
-      <c r="J99" t="n">
-        <v>292</v>
-      </c>
-      <c r="K99" t="n">
-        <v>100</v>
-      </c>
-      <c r="L99" t="n">
-        <v>865.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>859.9</v>
-      </c>
-      <c r="N99" t="n">
-        <v>856.5333333333333</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5516,28 +3884,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>17</v>
-      </c>
-      <c r="J100" t="n">
-        <v>295</v>
-      </c>
-      <c r="K100" t="n">
-        <v>100</v>
-      </c>
-      <c r="L100" t="n">
-        <v>868.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>861.2</v>
-      </c>
-      <c r="N100" t="n">
-        <v>857.7333333333333</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5567,28 +3919,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>19</v>
-      </c>
-      <c r="J101" t="n">
-        <v>297</v>
-      </c>
-      <c r="K101" t="n">
-        <v>100</v>
-      </c>
-      <c r="L101" t="n">
-        <v>870.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>862.5</v>
-      </c>
-      <c r="N101" t="n">
-        <v>858.8666666666667</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5618,28 +3954,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>23</v>
-      </c>
-      <c r="J102" t="n">
-        <v>301</v>
-      </c>
-      <c r="K102" t="n">
-        <v>100</v>
-      </c>
-      <c r="L102" t="n">
-        <v>872.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>864.05</v>
-      </c>
-      <c r="N102" t="n">
-        <v>860.0333333333333</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5669,28 +3989,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>25</v>
-      </c>
-      <c r="J103" t="n">
-        <v>303</v>
-      </c>
-      <c r="K103" t="n">
-        <v>100</v>
-      </c>
-      <c r="L103" t="n">
-        <v>875</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>865.8</v>
-      </c>
-      <c r="N103" t="n">
-        <v>861.3</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5720,28 +4024,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>23</v>
-      </c>
-      <c r="J104" t="n">
-        <v>305</v>
-      </c>
-      <c r="K104" t="n">
-        <v>80.95238095238095</v>
-      </c>
-      <c r="L104" t="n">
-        <v>876.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>867.25</v>
-      </c>
-      <c r="N104" t="n">
-        <v>862.4333333333333</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5771,28 +4059,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>8</v>
-      </c>
-      <c r="J105" t="n">
-        <v>320</v>
-      </c>
-      <c r="K105" t="n">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="L105" t="n">
-        <v>877.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>868</v>
-      </c>
-      <c r="N105" t="n">
-        <v>862.9</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5822,28 +4094,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>11</v>
-      </c>
-      <c r="J106" t="n">
-        <v>323</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-6.25</v>
-      </c>
-      <c r="L106" t="n">
-        <v>877.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>868.9</v>
-      </c>
-      <c r="N106" t="n">
-        <v>863.4333333333333</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,28 +4129,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>13</v>
-      </c>
-      <c r="J107" t="n">
-        <v>325</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0</v>
-      </c>
-      <c r="L107" t="n">
-        <v>877.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>869.9</v>
-      </c>
-      <c r="N107" t="n">
-        <v>863.9</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5924,28 +4164,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>10</v>
-      </c>
-      <c r="J108" t="n">
-        <v>328</v>
-      </c>
-      <c r="K108" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L108" t="n">
-        <v>877.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>870.6</v>
-      </c>
-      <c r="N108" t="n">
-        <v>864.8</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5975,28 +4199,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>12</v>
-      </c>
-      <c r="J109" t="n">
-        <v>330</v>
-      </c>
-      <c r="K109" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L109" t="n">
-        <v>877.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>871.4</v>
-      </c>
-      <c r="N109" t="n">
-        <v>865.6333333333333</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6026,28 +4234,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>15</v>
-      </c>
-      <c r="J110" t="n">
-        <v>333</v>
-      </c>
-      <c r="K110" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L110" t="n">
-        <v>876.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>872.55</v>
-      </c>
-      <c r="N110" t="n">
-        <v>866.4333333333333</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6077,28 +4269,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>22</v>
-      </c>
-      <c r="J111" t="n">
-        <v>340</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-2.564102564102564</v>
-      </c>
-      <c r="L111" t="n">
-        <v>877.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>873.8</v>
-      </c>
-      <c r="N111" t="n">
-        <v>867.4</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6128,28 +4304,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>18</v>
-      </c>
-      <c r="J112" t="n">
-        <v>344</v>
-      </c>
-      <c r="K112" t="n">
-        <v>-17.07317073170732</v>
-      </c>
-      <c r="L112" t="n">
-        <v>876.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>874.75</v>
-      </c>
-      <c r="N112" t="n">
-        <v>868.2666666666667</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6179,28 +4339,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>19</v>
-      </c>
-      <c r="J113" t="n">
-        <v>345</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-10</v>
-      </c>
-      <c r="L113" t="n">
-        <v>876.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>875.55</v>
-      </c>
-      <c r="N113" t="n">
-        <v>869.2333333333333</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6230,28 +4374,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>15</v>
-      </c>
-      <c r="J114" t="n">
-        <v>349</v>
-      </c>
-      <c r="K114" t="n">
-        <v>24.13793103448276</v>
-      </c>
-      <c r="L114" t="n">
-        <v>875.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>876.1</v>
-      </c>
-      <c r="N114" t="n">
-        <v>869.9333333333333</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6281,28 +4409,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>14</v>
-      </c>
-      <c r="J115" t="n">
-        <v>350</v>
-      </c>
-      <c r="K115" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L115" t="n">
-        <v>875.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>876.5</v>
-      </c>
-      <c r="N115" t="n">
-        <v>870.6333333333333</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6332,28 +4444,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>14</v>
-      </c>
-      <c r="J116" t="n">
-        <v>350</v>
-      </c>
-      <c r="K116" t="n">
-        <v>4</v>
-      </c>
-      <c r="L116" t="n">
-        <v>876.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>876.9</v>
-      </c>
-      <c r="N116" t="n">
-        <v>871.3333333333334</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6383,28 +4479,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>13</v>
-      </c>
-      <c r="J117" t="n">
-        <v>351</v>
-      </c>
-      <c r="K117" t="n">
-        <v>13.04347826086956</v>
-      </c>
-      <c r="L117" t="n">
-        <v>876.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>876.9</v>
-      </c>
-      <c r="N117" t="n">
-        <v>872</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6434,28 +4514,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>18</v>
-      </c>
-      <c r="J118" t="n">
-        <v>356</v>
-      </c>
-      <c r="K118" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L118" t="n">
-        <v>877</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>877.15</v>
-      </c>
-      <c r="N118" t="n">
-        <v>872.7333333333333</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6485,28 +4549,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>33</v>
-      </c>
-      <c r="J119" t="n">
-        <v>371</v>
-      </c>
-      <c r="K119" t="n">
-        <v>47.36842105263158</v>
-      </c>
-      <c r="L119" t="n">
-        <v>879.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>878.1</v>
-      </c>
-      <c r="N119" t="n">
-        <v>873.9666666666667</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6536,28 +4584,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>33</v>
-      </c>
-      <c r="J120" t="n">
-        <v>371</v>
-      </c>
-      <c r="K120" t="n">
-        <v>35.48387096774194</v>
-      </c>
-      <c r="L120" t="n">
-        <v>880.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>878.9</v>
-      </c>
-      <c r="N120" t="n">
-        <v>875.3333333333334</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6587,28 +4619,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>28</v>
-      </c>
-      <c r="J121" t="n">
-        <v>376</v>
-      </c>
-      <c r="K121" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="L121" t="n">
-        <v>881.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>879.35</v>
-      </c>
-      <c r="N121" t="n">
-        <v>876.3666666666667</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6638,28 +4654,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>21</v>
-      </c>
-      <c r="J122" t="n">
-        <v>383</v>
-      </c>
-      <c r="K122" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L122" t="n">
-        <v>881.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>879.25</v>
-      </c>
-      <c r="N122" t="n">
-        <v>877.1</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6689,28 +4689,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>22</v>
-      </c>
-      <c r="J123" t="n">
-        <v>384</v>
-      </c>
-      <c r="K123" t="n">
-        <v>20</v>
-      </c>
-      <c r="L123" t="n">
-        <v>882.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>879.1</v>
-      </c>
-      <c r="N123" t="n">
-        <v>877.7333333333333</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6740,28 +4724,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>21</v>
-      </c>
-      <c r="J124" t="n">
-        <v>385</v>
-      </c>
-      <c r="K124" t="n">
-        <v>20</v>
-      </c>
-      <c r="L124" t="n">
-        <v>882.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>879</v>
-      </c>
-      <c r="N124" t="n">
-        <v>878.3</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6791,28 +4759,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>17</v>
-      </c>
-      <c r="J125" t="n">
-        <v>389</v>
-      </c>
-      <c r="K125" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L125" t="n">
-        <v>883</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>879.45</v>
-      </c>
-      <c r="N125" t="n">
-        <v>878.6666666666666</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6842,28 +4794,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>12</v>
-      </c>
-      <c r="J126" t="n">
-        <v>394</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-2.325581395348837</v>
-      </c>
-      <c r="L126" t="n">
-        <v>882.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>879.5</v>
-      </c>
-      <c r="N126" t="n">
-        <v>878.8666666666667</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6893,28 +4829,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>13</v>
-      </c>
-      <c r="J127" t="n">
-        <v>395</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-12.82051282051282</v>
-      </c>
-      <c r="L127" t="n">
-        <v>882.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>879.5</v>
-      </c>
-      <c r="N127" t="n">
-        <v>878.8666666666667</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6944,28 +4864,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>9</v>
-      </c>
-      <c r="J128" t="n">
-        <v>399</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-85.71428571428571</v>
-      </c>
-      <c r="L128" t="n">
-        <v>881.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>879.45</v>
-      </c>
-      <c r="N128" t="n">
-        <v>878.7333333333333</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6995,28 +4899,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>8</v>
-      </c>
-      <c r="J129" t="n">
-        <v>400</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-86.20689655172413</v>
-      </c>
-      <c r="L129" t="n">
-        <v>879.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>879.25</v>
-      </c>
-      <c r="N129" t="n">
-        <v>878.5333333333333</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7046,28 +4934,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>8</v>
-      </c>
-      <c r="J130" t="n">
-        <v>400</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-83.33333333333334</v>
-      </c>
-      <c r="L130" t="n">
-        <v>876.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
-        <v>878.9</v>
-      </c>
-      <c r="N130" t="n">
-        <v>878.2333333333333</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7097,28 +4969,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>13</v>
-      </c>
-      <c r="J131" t="n">
-        <v>405</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-36.36363636363637</v>
-      </c>
-      <c r="L131" t="n">
-        <v>875.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>878.45</v>
-      </c>
-      <c r="N131" t="n">
-        <v>878.0333333333333</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7148,28 +5004,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>14</v>
-      </c>
-      <c r="J132" t="n">
-        <v>406</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-36.36363636363637</v>
-      </c>
-      <c r="L132" t="n">
-        <v>874.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>878.25</v>
-      </c>
-      <c r="N132" t="n">
-        <v>877.7333333333333</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7199,28 +5039,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>12</v>
-      </c>
-      <c r="J133" t="n">
-        <v>408</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-39.1304347826087</v>
-      </c>
-      <c r="L133" t="n">
-        <v>873.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>877.9</v>
-      </c>
-      <c r="N133" t="n">
-        <v>877.3</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7250,28 +5074,12 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>13</v>
-      </c>
-      <c r="J134" t="n">
-        <v>409</v>
-      </c>
-      <c r="K134" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L134" t="n">
-        <v>872.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
-        <v>877.8</v>
-      </c>
-      <c r="N134" t="n">
-        <v>876.9666666666667</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7301,28 +5109,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>21</v>
-      </c>
-      <c r="J135" t="n">
-        <v>417</v>
-      </c>
-      <c r="K135" t="n">
-        <v>39.1304347826087</v>
-      </c>
-      <c r="L135" t="n">
-        <v>873.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
-        <v>878.15</v>
-      </c>
-      <c r="N135" t="n">
-        <v>877.4</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7352,28 +5144,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>20</v>
-      </c>
-      <c r="J136" t="n">
-        <v>418</v>
-      </c>
-      <c r="K136" t="n">
-        <v>30.43478260869566</v>
-      </c>
-      <c r="L136" t="n">
-        <v>874.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>878.45</v>
-      </c>
-      <c r="N136" t="n">
-        <v>877.7</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7403,28 +5179,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>28</v>
-      </c>
-      <c r="J137" t="n">
-        <v>426</v>
-      </c>
-      <c r="K137" t="n">
-        <v>70.37037037037037</v>
-      </c>
-      <c r="L137" t="n">
-        <v>875.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
-        <v>879.2</v>
-      </c>
-      <c r="N137" t="n">
-        <v>878.2</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7454,28 +5214,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>49</v>
-      </c>
-      <c r="J138" t="n">
-        <v>447</v>
-      </c>
-      <c r="K138" t="n">
-        <v>87.2340425531915</v>
-      </c>
-      <c r="L138" t="n">
-        <v>879.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
-        <v>880.75</v>
-      </c>
-      <c r="N138" t="n">
-        <v>879.5</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7505,28 +5249,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>27</v>
-      </c>
-      <c r="J139" t="n">
-        <v>469</v>
-      </c>
-      <c r="K139" t="n">
-        <v>27.53623188405797</v>
-      </c>
-      <c r="L139" t="n">
-        <v>881.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
-        <v>880.45</v>
-      </c>
-      <c r="N139" t="n">
-        <v>880</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7556,28 +5284,12 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>35</v>
-      </c>
-      <c r="J140" t="n">
-        <v>477</v>
-      </c>
-      <c r="K140" t="n">
-        <v>30.55555555555556</v>
-      </c>
-      <c r="L140" t="n">
-        <v>884.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>880.55</v>
-      </c>
-      <c r="N140" t="n">
-        <v>880.6666666666666</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7607,28 +5319,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>36</v>
-      </c>
-      <c r="J141" t="n">
-        <v>478</v>
-      </c>
-      <c r="K141" t="n">
-        <v>30.55555555555556</v>
-      </c>
-      <c r="L141" t="n">
-        <v>886.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>880.95</v>
-      </c>
-      <c r="N141" t="n">
-        <v>881.1333333333333</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7658,28 +5354,12 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>36</v>
-      </c>
-      <c r="J142" t="n">
-        <v>478</v>
-      </c>
-      <c r="K142" t="n">
-        <v>34.28571428571428</v>
-      </c>
-      <c r="L142" t="n">
-        <v>888.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>881.7</v>
-      </c>
-      <c r="N142" t="n">
-        <v>881.7333333333333</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7709,28 +5389,12 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>35</v>
-      </c>
-      <c r="J143" t="n">
-        <v>479</v>
-      </c>
-      <c r="K143" t="n">
-        <v>31.42857142857143</v>
-      </c>
-      <c r="L143" t="n">
-        <v>891</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>882.35</v>
-      </c>
-      <c r="N143" t="n">
-        <v>882.2666666666667</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7760,28 +5424,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>35</v>
-      </c>
-      <c r="J144" t="n">
-        <v>479</v>
-      </c>
-      <c r="K144" t="n">
-        <v>22.58064516129032</v>
-      </c>
-      <c r="L144" t="n">
-        <v>893.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
-        <v>883.05</v>
-      </c>
-      <c r="N144" t="n">
-        <v>882.9333333333333</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7811,28 +5459,12 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>34</v>
-      </c>
-      <c r="J145" t="n">
-        <v>480</v>
-      </c>
-      <c r="K145" t="n">
-        <v>22.58064516129032</v>
-      </c>
-      <c r="L145" t="n">
-        <v>894.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>883.9</v>
-      </c>
-      <c r="N145" t="n">
-        <v>883.6</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7862,28 +5494,12 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>31</v>
-      </c>
-      <c r="J146" t="n">
-        <v>483</v>
-      </c>
-      <c r="K146" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L146" t="n">
-        <v>895.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
-        <v>884.85</v>
-      </c>
-      <c r="N146" t="n">
-        <v>884.1666666666666</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7913,28 +5529,12 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>24</v>
-      </c>
-      <c r="J147" t="n">
-        <v>490</v>
-      </c>
-      <c r="K147" t="n">
-        <v>-58.13953488372093</v>
-      </c>
-      <c r="L147" t="n">
-        <v>895.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
-        <v>885.4</v>
-      </c>
-      <c r="N147" t="n">
-        <v>884.5333333333333</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7964,28 +5564,12 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>16</v>
-      </c>
-      <c r="J148" t="n">
-        <v>498</v>
-      </c>
-      <c r="K148" t="n">
-        <v>-37.93103448275862</v>
-      </c>
-      <c r="L148" t="n">
-        <v>891.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
-        <v>885.75</v>
-      </c>
-      <c r="N148" t="n">
-        <v>884.4666666666667</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8015,28 +5599,12 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>21</v>
-      </c>
-      <c r="J149" t="n">
-        <v>503</v>
-      </c>
-      <c r="K149" t="n">
-        <v>-53.84615384615385</v>
-      </c>
-      <c r="L149" t="n">
-        <v>891.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
-        <v>886.4</v>
-      </c>
-      <c r="N149" t="n">
-        <v>884.0666666666667</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8066,28 +5634,12 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>21</v>
-      </c>
-      <c r="J150" t="n">
-        <v>503</v>
-      </c>
-      <c r="K150" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L150" t="n">
-        <v>889.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
-        <v>887.05</v>
-      </c>
-      <c r="N150" t="n">
-        <v>883.6666666666666</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8117,28 +5669,12 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>10</v>
-      </c>
-      <c r="J151" t="n">
-        <v>514</v>
-      </c>
-      <c r="K151" t="n">
-        <v>-72.22222222222221</v>
-      </c>
-      <c r="L151" t="n">
-        <v>887.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
-        <v>886.9</v>
-      </c>
-      <c r="N151" t="n">
-        <v>883.0666666666667</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8168,28 +5704,12 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>6</v>
-      </c>
-      <c r="J152" t="n">
-        <v>518</v>
-      </c>
-      <c r="K152" t="n">
-        <v>-74.35897435897436</v>
-      </c>
-      <c r="L152" t="n">
-        <v>884.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
-        <v>886.5</v>
-      </c>
-      <c r="N152" t="n">
-        <v>882.5666666666667</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8219,28 +5739,12 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>5</v>
-      </c>
-      <c r="J153" t="n">
-        <v>519</v>
-      </c>
-      <c r="K153" t="n">
-        <v>-75</v>
-      </c>
-      <c r="L153" t="n">
-        <v>881.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
-        <v>886.15</v>
-      </c>
-      <c r="N153" t="n">
-        <v>882</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8270,28 +5774,12 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>3</v>
-      </c>
-      <c r="J154" t="n">
-        <v>521</v>
-      </c>
-      <c r="K154" t="n">
-        <v>-75.60975609756098</v>
-      </c>
-      <c r="L154" t="n">
-        <v>878.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
-        <v>885.65</v>
-      </c>
-      <c r="N154" t="n">
-        <v>881.4</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8321,28 +5809,12 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J155" t="n">
-        <v>536</v>
-      </c>
-      <c r="K155" t="n">
-        <v>-81.13207547169812</v>
-      </c>
-      <c r="L155" t="n">
-        <v>873.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
-        <v>884</v>
-      </c>
-      <c r="N155" t="n">
-        <v>880.4333333333333</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8372,28 +5844,12 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>-17</v>
-      </c>
-      <c r="J156" t="n">
-        <v>541</v>
-      </c>
-      <c r="K156" t="n">
-        <v>-80.3921568627451</v>
-      </c>
-      <c r="L156" t="n">
-        <v>868.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
-        <v>882.15</v>
-      </c>
-      <c r="N156" t="n">
-        <v>879.4666666666667</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8423,28 +5879,12 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>-13</v>
-      </c>
-      <c r="J157" t="n">
-        <v>545</v>
-      </c>
-      <c r="K157" t="n">
-        <v>-61.70212765957447</v>
-      </c>
-      <c r="L157" t="n">
-        <v>865</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
-        <v>880.1</v>
-      </c>
-      <c r="N157" t="n">
-        <v>878.6</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8474,28 +5914,12 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>26</v>
-      </c>
-      <c r="J158" t="n">
-        <v>584</v>
-      </c>
-      <c r="K158" t="n">
-        <v>6.172839506172839</v>
-      </c>
-      <c r="L158" t="n">
-        <v>866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
-        <v>878.95</v>
-      </c>
-      <c r="N158" t="n">
-        <v>879.1666666666666</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8525,28 +5949,12 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J159" t="n">
-        <v>613</v>
-      </c>
-      <c r="K159" t="n">
-        <v>-21.81818181818182</v>
-      </c>
-      <c r="L159" t="n">
-        <v>863.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
-        <v>877.45</v>
-      </c>
-      <c r="N159" t="n">
-        <v>878.8</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8576,28 +5984,12 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
-      </c>
-      <c r="J160" t="n">
-        <v>617</v>
-      </c>
-      <c r="K160" t="n">
-        <v>-8.737864077669903</v>
-      </c>
-      <c r="L160" t="n">
-        <v>861.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
-        <v>875.75</v>
-      </c>
-      <c r="N160" t="n">
-        <v>878.5666666666667</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8627,28 +6019,12 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J161" t="n">
-        <v>619</v>
-      </c>
-      <c r="K161" t="n">
-        <v>-6.930693069306932</v>
-      </c>
-      <c r="L161" t="n">
-        <v>860.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
-        <v>873.9</v>
-      </c>
-      <c r="N161" t="n">
-        <v>878.1</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8678,28 +6054,12 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>3</v>
-      </c>
-      <c r="J162" t="n">
-        <v>623</v>
-      </c>
-      <c r="K162" t="n">
-        <v>-1.923076923076923</v>
-      </c>
-      <c r="L162" t="n">
-        <v>860.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
-        <v>872.25</v>
-      </c>
-      <c r="N162" t="n">
-        <v>877.7333333333333</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8731,26 +6091,10 @@
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>626</v>
-      </c>
-      <c r="K163" t="n">
-        <v>-2.857142857142857</v>
-      </c>
-      <c r="L163" t="n">
-        <v>859.7</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
-        <v>870.5</v>
-      </c>
-      <c r="N163" t="n">
-        <v>877.3333333333334</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8780,28 +6124,12 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J164" t="n">
-        <v>627</v>
-      </c>
-      <c r="K164" t="n">
-        <v>12.08791208791209</v>
-      </c>
-      <c r="L164" t="n">
-        <v>859.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
-        <v>868.7</v>
-      </c>
-      <c r="N164" t="n">
-        <v>876.8666666666667</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8831,28 +6159,12 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>2</v>
-      </c>
-      <c r="J165" t="n">
-        <v>630</v>
-      </c>
-      <c r="K165" t="n">
-        <v>21.34831460674157</v>
-      </c>
-      <c r="L165" t="n">
-        <v>860.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
-        <v>867.1</v>
-      </c>
-      <c r="N165" t="n">
-        <v>876.2333333333333</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8882,28 +6194,12 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
-      </c>
-      <c r="J166" t="n">
-        <v>631</v>
-      </c>
-      <c r="K166" t="n">
-        <v>16.27906976744186</v>
-      </c>
-      <c r="L166" t="n">
-        <v>862.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
-        <v>865.6</v>
-      </c>
-      <c r="N166" t="n">
-        <v>875.6</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8933,28 +6229,12 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
-      </c>
-      <c r="J167" t="n">
-        <v>631</v>
-      </c>
-      <c r="K167" t="n">
-        <v>-53.19148936170212</v>
-      </c>
-      <c r="L167" t="n">
-        <v>863.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
-        <v>864.45</v>
-      </c>
-      <c r="N167" t="n">
-        <v>874.7</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8984,28 +6264,12 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>3</v>
-      </c>
-      <c r="J168" t="n">
-        <v>633</v>
-      </c>
-      <c r="K168" t="n">
-        <v>30</v>
-      </c>
-      <c r="L168" t="n">
-        <v>861.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
-        <v>863.8</v>
-      </c>
-      <c r="N168" t="n">
-        <v>873.1666666666666</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9035,28 +6299,12 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
-      </c>
-      <c r="J169" t="n">
-        <v>635</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0</v>
-      </c>
-      <c r="L169" t="n">
-        <v>862</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
-        <v>862.8</v>
-      </c>
-      <c r="N169" t="n">
-        <v>872.3</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9086,28 +6334,12 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>2</v>
-      </c>
-      <c r="J170" t="n">
-        <v>636</v>
-      </c>
-      <c r="K170" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L170" t="n">
-        <v>862.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
-        <v>861.85</v>
-      </c>
-      <c r="N170" t="n">
-        <v>871.2</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9137,28 +6369,12 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J171" t="n">
-        <v>639</v>
-      </c>
-      <c r="K171" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L171" t="n">
-        <v>862.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
-        <v>861.3</v>
-      </c>
-      <c r="N171" t="n">
-        <v>869.9666666666667</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9188,28 +6404,12 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J172" t="n">
-        <v>648</v>
-      </c>
-      <c r="K172" t="n">
-        <v>-45.45454545454545</v>
-      </c>
-      <c r="L172" t="n">
-        <v>860.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
-        <v>860.5</v>
-      </c>
-      <c r="N172" t="n">
-        <v>868.4333333333333</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9239,28 +6439,12 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J173" t="n">
-        <v>655</v>
-      </c>
-      <c r="K173" t="n">
-        <v>-7.142857142857142</v>
-      </c>
-      <c r="L173" t="n">
-        <v>860.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
-        <v>860.1</v>
-      </c>
-      <c r="N173" t="n">
-        <v>867.1666666666666</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9290,28 +6474,12 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J174" t="n">
-        <v>656</v>
-      </c>
-      <c r="K174" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L174" t="n">
-        <v>860.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
-        <v>859.75</v>
-      </c>
-      <c r="N174" t="n">
-        <v>865.8666666666667</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9341,28 +6509,12 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J175" t="n">
-        <v>656</v>
-      </c>
-      <c r="K175" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L175" t="n">
-        <v>859.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
-        <v>860.15</v>
-      </c>
-      <c r="N175" t="n">
-        <v>864.6</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9392,28 +6544,12 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J176" t="n">
-        <v>656</v>
-      </c>
-      <c r="K176" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L176" t="n">
-        <v>859.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
-        <v>860.8</v>
-      </c>
-      <c r="N176" t="n">
-        <v>863.4333333333333</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9445,26 +6581,10 @@
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>660</v>
-      </c>
-      <c r="K177" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L177" t="n">
-        <v>859</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
-        <v>861.45</v>
-      </c>
-      <c r="N177" t="n">
-        <v>862.6333333333333</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9494,28 +6614,12 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J178" t="n">
-        <v>664</v>
-      </c>
-      <c r="K178" t="n">
-        <v>-17.24137931034483</v>
-      </c>
-      <c r="L178" t="n">
-        <v>858.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
-        <v>859.95</v>
-      </c>
-      <c r="N178" t="n">
-        <v>861.9666666666667</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9545,28 +6649,12 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J179" t="n">
-        <v>667</v>
-      </c>
-      <c r="K179" t="n">
-        <v>-9.67741935483871</v>
-      </c>
-      <c r="L179" t="n">
-        <v>858.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
-        <v>860.05</v>
-      </c>
-      <c r="N179" t="n">
-        <v>861.2333333333333</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9596,28 +6684,12 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J180" t="n">
-        <v>669</v>
-      </c>
-      <c r="K180" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L180" t="n">
-        <v>857.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
-        <v>859.85</v>
-      </c>
-      <c r="N180" t="n">
-        <v>860.4333333333333</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9647,28 +6719,12 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J181" t="n">
-        <v>670</v>
-      </c>
-      <c r="K181" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L181" t="n">
-        <v>857.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
-        <v>859.7</v>
-      </c>
-      <c r="N181" t="n">
-        <v>859.9666666666667</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9698,28 +6754,12 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J182" t="n">
-        <v>672</v>
-      </c>
-      <c r="K182" t="n">
-        <v>-17.64705882352941</v>
-      </c>
-      <c r="L182" t="n">
-        <v>857.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
-        <v>859.25</v>
-      </c>
-      <c r="N182" t="n">
-        <v>859.5666666666667</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9749,28 +6789,12 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J183" t="n">
-        <v>677</v>
-      </c>
-      <c r="K183" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L183" t="n">
-        <v>856.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
-        <v>858.7</v>
-      </c>
-      <c r="N183" t="n">
-        <v>859.0333333333333</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9800,28 +6824,12 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J184" t="n">
-        <v>681</v>
-      </c>
-      <c r="K184" t="n">
-        <v>-44</v>
-      </c>
-      <c r="L184" t="n">
-        <v>855.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
-        <v>858</v>
-      </c>
-      <c r="N184" t="n">
-        <v>858.4333333333333</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9851,28 +6859,12 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J185" t="n">
-        <v>696</v>
-      </c>
-      <c r="K185" t="n">
-        <v>-65</v>
-      </c>
-      <c r="L185" t="n">
-        <v>853.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
-        <v>856.4</v>
-      </c>
-      <c r="N185" t="n">
-        <v>857.8333333333334</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9902,28 +6894,12 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>-33</v>
-      </c>
-      <c r="J186" t="n">
-        <v>699</v>
-      </c>
-      <c r="K186" t="n">
-        <v>-84.61538461538461</v>
-      </c>
-      <c r="L186" t="n">
-        <v>850.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
-        <v>854.7</v>
-      </c>
-      <c r="N186" t="n">
-        <v>857.3</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9953,28 +6929,12 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>-26</v>
-      </c>
-      <c r="J187" t="n">
-        <v>706</v>
-      </c>
-      <c r="K187" t="n">
-        <v>-52.38095238095239</v>
-      </c>
-      <c r="L187" t="n">
-        <v>847.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
-        <v>853.35</v>
-      </c>
-      <c r="N187" t="n">
-        <v>856.8666666666667</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10004,28 +6964,12 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>-33</v>
-      </c>
-      <c r="J188" t="n">
-        <v>713</v>
-      </c>
-      <c r="K188" t="n">
-        <v>-69.56521739130434</v>
-      </c>
-      <c r="L188" t="n">
-        <v>844.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
-        <v>851.55</v>
-      </c>
-      <c r="N188" t="n">
-        <v>854.9</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10055,28 +6999,12 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>-34</v>
-      </c>
-      <c r="J189" t="n">
-        <v>714</v>
-      </c>
-      <c r="K189" t="n">
-        <v>-68.88888888888889</v>
-      </c>
-      <c r="L189" t="n">
-        <v>841.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
-        <v>849.8</v>
-      </c>
-      <c r="N189" t="n">
-        <v>853.8666666666667</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10106,28 +7034,12 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J190" t="n">
-        <v>718</v>
-      </c>
-      <c r="K190" t="n">
-        <v>-54.16666666666666</v>
-      </c>
-      <c r="L190" t="n">
-        <v>838.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
-        <v>848.2</v>
-      </c>
-      <c r="N190" t="n">
-        <v>852.8333333333334</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10157,28 +7069,12 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>-33</v>
-      </c>
-      <c r="J191" t="n">
-        <v>721</v>
-      </c>
-      <c r="K191" t="n">
-        <v>-55.10204081632652</v>
-      </c>
-      <c r="L191" t="n">
-        <v>835.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
-        <v>846.6</v>
-      </c>
-      <c r="N191" t="n">
-        <v>851.7666666666667</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10208,28 +7104,12 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>-33</v>
-      </c>
-      <c r="J192" t="n">
-        <v>721</v>
-      </c>
-      <c r="K192" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L192" t="n">
-        <v>833.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
-        <v>845.45</v>
-      </c>
-      <c r="N192" t="n">
-        <v>850.5666666666667</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10259,28 +7139,12 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>-21</v>
-      </c>
-      <c r="J193" t="n">
-        <v>733</v>
-      </c>
-      <c r="K193" t="n">
-        <v>-11.53846153846154</v>
-      </c>
-      <c r="L193" t="n">
-        <v>832.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
-        <v>844.55</v>
-      </c>
-      <c r="N193" t="n">
-        <v>849.8666666666667</v>
-      </c>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10310,28 +7174,12 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>-27</v>
-      </c>
-      <c r="J194" t="n">
-        <v>739</v>
-      </c>
-      <c r="K194" t="n">
-        <v>6.976744186046512</v>
-      </c>
-      <c r="L194" t="n">
-        <v>831</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
-        <v>843.4</v>
-      </c>
-      <c r="N194" t="n">
-        <v>849</v>
-      </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10361,28 +7209,12 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>-29</v>
-      </c>
-      <c r="J195" t="n">
-        <v>741</v>
-      </c>
-      <c r="K195" t="n">
-        <v>9.523809523809524</v>
-      </c>
-      <c r="L195" t="n">
-        <v>831.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
-        <v>842.15</v>
-      </c>
-      <c r="N195" t="n">
-        <v>847.9666666666667</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10412,28 +7244,12 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J196" t="n">
-        <v>747</v>
-      </c>
-      <c r="K196" t="n">
-        <v>-21.95121951219512</v>
-      </c>
-      <c r="L196" t="n">
-        <v>830.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
-        <v>840.6</v>
-      </c>
-      <c r="N196" t="n">
-        <v>846.7666666666667</v>
-      </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10463,28 +7279,12 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>-19</v>
-      </c>
-      <c r="J197" t="n">
-        <v>763</v>
-      </c>
-      <c r="K197" t="n">
-        <v>28</v>
-      </c>
-      <c r="L197" t="n">
-        <v>831.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
-        <v>839.65</v>
-      </c>
-      <c r="N197" t="n">
-        <v>846.1</v>
-      </c>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10511,31 +7311,19 @@
         <v>859</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="J198" t="n">
-        <v>779</v>
+        <v>826</v>
       </c>
       <c r="K198" t="n">
-        <v>-1.538461538461539</v>
-      </c>
-      <c r="L198" t="n">
-        <v>831.4</v>
-      </c>
+        <v>826</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
-        <v>838.1</v>
-      </c>
-      <c r="N198" t="n">
-        <v>844.8333333333334</v>
-      </c>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10562,31 +7350,23 @@
         <v>857.85</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
-        <v>-42</v>
+        <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>786</v>
+        <v>825</v>
       </c>
       <c r="K199" t="n">
-        <v>-17.64705882352941</v>
-      </c>
-      <c r="L199" t="n">
-        <v>830.6</v>
+        <v>826</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M199" t="n">
-        <v>836.05</v>
-      </c>
-      <c r="N199" t="n">
-        <v>843.4</v>
-      </c>
-      <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10613,31 +7393,23 @@
         <v>856.9166666666666</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>807</v>
+        <v>840</v>
       </c>
       <c r="K200" t="n">
-        <v>13.95348837209302</v>
-      </c>
-      <c r="L200" t="n">
-        <v>831.5</v>
+        <v>826</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M200" t="n">
-        <v>835.15</v>
-      </c>
-      <c r="N200" t="n">
-        <v>842.6333333333333</v>
-      </c>
-      <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
-      <c r="S200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10664,31 +7436,23 @@
         <v>855.6</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
-        <v>-43</v>
+        <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="K201" t="n">
-        <v>-9.25925925925926</v>
-      </c>
-      <c r="L201" t="n">
-        <v>830.5</v>
+        <v>826</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M201" t="n">
-        <v>833.2</v>
-      </c>
-      <c r="N201" t="n">
-        <v>841.2333333333333</v>
-      </c>
-      <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10715,31 +7479,23 @@
         <v>854.3333333333334</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="J202" t="n">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="K202" t="n">
-        <v>-19.19191919191919</v>
-      </c>
-      <c r="L202" t="n">
-        <v>829.8</v>
+        <v>826</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M202" t="n">
-        <v>831.5</v>
-      </c>
-      <c r="N202" t="n">
-        <v>840.2333333333333</v>
-      </c>
-      <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10766,31 +7522,23 @@
         <v>853.1333333333333</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
-        <v>-37</v>
+        <v>0</v>
       </c>
       <c r="J203" t="n">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="K203" t="n">
-        <v>-10.41666666666667</v>
-      </c>
-      <c r="L203" t="n">
-        <v>828.2</v>
+        <v>826</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M203" t="n">
-        <v>830.2</v>
-      </c>
-      <c r="N203" t="n">
-        <v>839.1</v>
-      </c>
-      <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr"/>
-      <c r="S203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10817,31 +7565,23 @@
         <v>852.1833333333333</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="J204" t="n">
-        <v>850</v>
+        <v>824</v>
       </c>
       <c r="K204" t="n">
-        <v>6.422018348623854</v>
-      </c>
-      <c r="L204" t="n">
-        <v>828.7</v>
+        <v>826</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M204" t="n">
-        <v>829.85</v>
-      </c>
-      <c r="N204" t="n">
-        <v>838.5</v>
-      </c>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr"/>
-      <c r="R204" t="inlineStr"/>
-      <c r="S204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10868,31 +7608,23 @@
         <v>851.0666666666667</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
-        <v>-33</v>
+        <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>861</v>
+        <v>828</v>
       </c>
       <c r="K205" t="n">
-        <v>1.754385964912281</v>
-      </c>
-      <c r="L205" t="n">
-        <v>828.3</v>
+        <v>826</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M205" t="n">
-        <v>829.7</v>
-      </c>
-      <c r="N205" t="n">
-        <v>837.5333333333333</v>
-      </c>
-      <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
-      <c r="R205" t="inlineStr"/>
-      <c r="S205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10919,31 +7651,23 @@
         <v>850.05</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>864</v>
+        <v>831</v>
       </c>
       <c r="K206" t="n">
-        <v>-10.89108910891089</v>
-      </c>
-      <c r="L206" t="n">
-        <v>828.8</v>
+        <v>826</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M206" t="n">
-        <v>829.85</v>
-      </c>
-      <c r="N206" t="n">
-        <v>836.6666666666666</v>
-      </c>
-      <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr"/>
-      <c r="S206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10970,31 +7694,23 @@
         <v>849.1666666666666</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>865</v>
+        <v>832</v>
       </c>
       <c r="K207" t="n">
-        <v>6.976744186046512</v>
-      </c>
-      <c r="L207" t="n">
-        <v>827.8</v>
+        <v>826</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M207" t="n">
-        <v>829.7</v>
-      </c>
-      <c r="N207" t="n">
-        <v>835.7</v>
-      </c>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
-      <c r="Q207" t="inlineStr"/>
-      <c r="R207" t="inlineStr"/>
-      <c r="S207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11021,31 +7737,23 @@
         <v>848.4</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>866</v>
+        <v>831</v>
       </c>
       <c r="K208" t="n">
-        <v>15</v>
-      </c>
-      <c r="L208" t="n">
-        <v>828.3</v>
+        <v>826</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M208" t="n">
-        <v>829.85</v>
-      </c>
-      <c r="N208" t="n">
-        <v>834.8333333333334</v>
-      </c>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr"/>
-      <c r="S208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11072,31 +7780,23 @@
         <v>847.55</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>866</v>
+        <v>836</v>
       </c>
       <c r="K209" t="n">
-        <v>-15.25423728813559</v>
-      </c>
-      <c r="L209" t="n">
-        <v>829.5</v>
+        <v>826</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M209" t="n">
-        <v>830.05</v>
-      </c>
-      <c r="N209" t="n">
-        <v>833.8666666666667</v>
-      </c>
-      <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="inlineStr"/>
-      <c r="S209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11123,31 +7823,23 @@
         <v>846.8333333333334</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="J210" t="n">
-        <v>874</v>
+        <v>834</v>
       </c>
       <c r="K210" t="n">
-        <v>46.66666666666666</v>
-      </c>
-      <c r="L210" t="n">
-        <v>829.4</v>
+        <v>826</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M210" t="n">
-        <v>830.45</v>
-      </c>
-      <c r="N210" t="n">
-        <v>833.2333333333333</v>
-      </c>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="inlineStr"/>
-      <c r="S210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11174,31 +7866,23 @@
         <v>846.2833333333333</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="J211" t="n">
-        <v>875</v>
+        <v>838</v>
       </c>
       <c r="K211" t="n">
-        <v>39.53488372093023</v>
-      </c>
-      <c r="L211" t="n">
-        <v>831.4</v>
+        <v>826</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M211" t="n">
-        <v>830.95</v>
-      </c>
-      <c r="N211" t="n">
-        <v>832.6</v>
-      </c>
-      <c r="O211" t="inlineStr"/>
-      <c r="P211" t="inlineStr"/>
-      <c r="Q211" t="inlineStr"/>
-      <c r="R211" t="inlineStr"/>
-      <c r="S211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11225,1102 +7909,23 @@
         <v>845.8666666666667</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>879</v>
+        <v>842</v>
       </c>
       <c r="K212" t="n">
-        <v>40.90909090909091</v>
-      </c>
-      <c r="L212" t="n">
-        <v>833.5</v>
+        <v>826</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M212" t="n">
-        <v>831.65</v>
-      </c>
-      <c r="N212" t="n">
-        <v>832.1666666666666</v>
-      </c>
-      <c r="O212" t="inlineStr"/>
-      <c r="P212" t="inlineStr"/>
-      <c r="Q212" t="inlineStr"/>
-      <c r="R212" t="inlineStr"/>
-      <c r="S212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>841</v>
-      </c>
-      <c r="C213" t="n">
-        <v>841</v>
-      </c>
-      <c r="D213" t="n">
-        <v>841</v>
-      </c>
-      <c r="E213" t="n">
-        <v>841</v>
-      </c>
-      <c r="F213" t="n">
-        <v>11.9104</v>
-      </c>
-      <c r="G213" t="n">
-        <v>845.45</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J213" t="n">
-        <v>880</v>
-      </c>
-      <c r="K213" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L213" t="n">
-        <v>835.2</v>
-      </c>
-      <c r="M213" t="n">
-        <v>831.7</v>
-      </c>
-      <c r="N213" t="n">
-        <v>831.8666666666667</v>
-      </c>
-      <c r="O213" t="inlineStr"/>
-      <c r="P213" t="inlineStr"/>
-      <c r="Q213" t="inlineStr"/>
-      <c r="R213" t="inlineStr"/>
-      <c r="S213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>851</v>
-      </c>
-      <c r="C214" t="n">
-        <v>851</v>
-      </c>
-      <c r="D214" t="n">
-        <v>851</v>
-      </c>
-      <c r="E214" t="n">
-        <v>851</v>
-      </c>
-      <c r="F214" t="n">
-        <v>16.9313</v>
-      </c>
-      <c r="G214" t="n">
-        <v>845.2333333333333</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J214" t="n">
-        <v>890</v>
-      </c>
-      <c r="K214" t="n">
-        <v>79.31034482758621</v>
-      </c>
-      <c r="L214" t="n">
-        <v>836.4</v>
-      </c>
-      <c r="M214" t="n">
-        <v>832.55</v>
-      </c>
-      <c r="N214" t="n">
-        <v>832.0333333333333</v>
-      </c>
-      <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="inlineStr"/>
-      <c r="R214" t="inlineStr"/>
-      <c r="S214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>852</v>
-      </c>
-      <c r="C215" t="n">
-        <v>846</v>
-      </c>
-      <c r="D215" t="n">
-        <v>852</v>
-      </c>
-      <c r="E215" t="n">
-        <v>846</v>
-      </c>
-      <c r="F215" t="n">
-        <v>813.9915</v>
-      </c>
-      <c r="G215" t="n">
-        <v>845.1833333333333</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J215" t="n">
-        <v>895</v>
-      </c>
-      <c r="K215" t="n">
-        <v>48.38709677419355</v>
-      </c>
-      <c r="L215" t="n">
-        <v>838.2</v>
-      </c>
-      <c r="M215" t="n">
-        <v>833.25</v>
-      </c>
-      <c r="N215" t="n">
-        <v>832.5333333333333</v>
-      </c>
-      <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr"/>
-      <c r="Q215" t="inlineStr"/>
-      <c r="R215" t="inlineStr"/>
-      <c r="S215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>854</v>
-      </c>
-      <c r="C216" t="n">
-        <v>854</v>
-      </c>
-      <c r="D216" t="n">
-        <v>854</v>
-      </c>
-      <c r="E216" t="n">
-        <v>854</v>
-      </c>
-      <c r="F216" t="n">
-        <v>5</v>
-      </c>
-      <c r="G216" t="n">
-        <v>845.35</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J216" t="n">
-        <v>903</v>
-      </c>
-      <c r="K216" t="n">
-        <v>57.89473684210527</v>
-      </c>
-      <c r="L216" t="n">
-        <v>840.5</v>
-      </c>
-      <c r="M216" t="n">
-        <v>834.65</v>
-      </c>
-      <c r="N216" t="n">
-        <v>833.4</v>
-      </c>
-      <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr"/>
-      <c r="Q216" t="inlineStr"/>
-      <c r="R216" t="inlineStr"/>
-      <c r="S216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>851</v>
-      </c>
-      <c r="C217" t="n">
-        <v>850</v>
-      </c>
-      <c r="D217" t="n">
-        <v>851</v>
-      </c>
-      <c r="E217" t="n">
-        <v>850</v>
-      </c>
-      <c r="F217" t="n">
-        <v>707.95</v>
-      </c>
-      <c r="G217" t="n">
-        <v>845.3833333333333</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J217" t="n">
-        <v>907</v>
-      </c>
-      <c r="K217" t="n">
-        <v>46.34146341463415</v>
-      </c>
-      <c r="L217" t="n">
-        <v>842.3</v>
-      </c>
-      <c r="M217" t="n">
-        <v>835.05</v>
-      </c>
-      <c r="N217" t="n">
-        <v>833.9</v>
-      </c>
-      <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr"/>
-      <c r="Q217" t="inlineStr"/>
-      <c r="R217" t="inlineStr"/>
-      <c r="S217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>847</v>
-      </c>
-      <c r="C218" t="n">
-        <v>846</v>
-      </c>
-      <c r="D218" t="n">
-        <v>847</v>
-      </c>
-      <c r="E218" t="n">
-        <v>846</v>
-      </c>
-      <c r="F218" t="n">
-        <v>278.8037</v>
-      </c>
-      <c r="G218" t="n">
-        <v>844.7</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J218" t="n">
-        <v>911</v>
-      </c>
-      <c r="K218" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L218" t="n">
-        <v>843.8</v>
-      </c>
-      <c r="M218" t="n">
-        <v>836.05</v>
-      </c>
-      <c r="N218" t="n">
-        <v>834.5</v>
-      </c>
-      <c r="O218" t="inlineStr"/>
-      <c r="P218" t="inlineStr"/>
-      <c r="Q218" t="inlineStr"/>
-      <c r="R218" t="inlineStr"/>
-      <c r="S218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>846</v>
-      </c>
-      <c r="C219" t="n">
-        <v>846</v>
-      </c>
-      <c r="D219" t="n">
-        <v>846</v>
-      </c>
-      <c r="E219" t="n">
-        <v>846</v>
-      </c>
-      <c r="F219" t="n">
-        <v>422.0906</v>
-      </c>
-      <c r="G219" t="n">
-        <v>844.5</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J219" t="n">
-        <v>911</v>
-      </c>
-      <c r="K219" t="n">
-        <v>18.91891891891892</v>
-      </c>
-      <c r="L219" t="n">
-        <v>845.3</v>
-      </c>
-      <c r="M219" t="n">
-        <v>837.4</v>
-      </c>
-      <c r="N219" t="n">
-        <v>835.1333333333333</v>
-      </c>
-      <c r="O219" t="inlineStr"/>
-      <c r="P219" t="inlineStr"/>
-      <c r="Q219" t="inlineStr"/>
-      <c r="R219" t="inlineStr"/>
-      <c r="S219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>840</v>
-      </c>
-      <c r="C220" t="n">
-        <v>840</v>
-      </c>
-      <c r="D220" t="n">
-        <v>840</v>
-      </c>
-      <c r="E220" t="n">
-        <v>840</v>
-      </c>
-      <c r="F220" t="n">
-        <v>37.5395</v>
-      </c>
-      <c r="G220" t="n">
-        <v>844.1333333333333</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>-21</v>
-      </c>
-      <c r="J220" t="n">
-        <v>917</v>
-      </c>
-      <c r="K220" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L220" t="n">
-        <v>845.4</v>
-      </c>
-      <c r="M220" t="n">
-        <v>837.4</v>
-      </c>
-      <c r="N220" t="n">
-        <v>835.4333333333333</v>
-      </c>
-      <c r="O220" t="inlineStr"/>
-      <c r="P220" t="inlineStr"/>
-      <c r="Q220" t="inlineStr"/>
-      <c r="R220" t="inlineStr"/>
-      <c r="S220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>849</v>
-      </c>
-      <c r="C221" t="n">
-        <v>849</v>
-      </c>
-      <c r="D221" t="n">
-        <v>849</v>
-      </c>
-      <c r="E221" t="n">
-        <v>849</v>
-      </c>
-      <c r="F221" t="n">
-        <v>143.54</v>
-      </c>
-      <c r="G221" t="n">
-        <v>843.95</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J221" t="n">
-        <v>926</v>
-      </c>
-      <c r="K221" t="n">
-        <v>14.8936170212766</v>
-      </c>
-      <c r="L221" t="n">
-        <v>846.5</v>
-      </c>
-      <c r="M221" t="n">
-        <v>838.95</v>
-      </c>
-      <c r="N221" t="n">
-        <v>836.1333333333333</v>
-      </c>
-      <c r="O221" t="inlineStr"/>
-      <c r="P221" t="inlineStr"/>
-      <c r="Q221" t="inlineStr"/>
-      <c r="R221" t="inlineStr"/>
-      <c r="S221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>849</v>
-      </c>
-      <c r="C222" t="n">
-        <v>849</v>
-      </c>
-      <c r="D222" t="n">
-        <v>849</v>
-      </c>
-      <c r="E222" t="n">
-        <v>849</v>
-      </c>
-      <c r="F222" t="n">
-        <v>113.2244</v>
-      </c>
-      <c r="G222" t="n">
-        <v>843.7</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J222" t="n">
-        <v>926</v>
-      </c>
-      <c r="K222" t="n">
-        <v>17.39130434782609</v>
-      </c>
-      <c r="L222" t="n">
-        <v>847.2</v>
-      </c>
-      <c r="M222" t="n">
-        <v>840.35</v>
-      </c>
-      <c r="N222" t="n">
-        <v>836.8333333333334</v>
-      </c>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
-      <c r="Q222" t="inlineStr"/>
-      <c r="R222" t="inlineStr"/>
-      <c r="S222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>848</v>
-      </c>
-      <c r="C223" t="n">
-        <v>848</v>
-      </c>
-      <c r="D223" t="n">
-        <v>848</v>
-      </c>
-      <c r="E223" t="n">
-        <v>848</v>
-      </c>
-      <c r="F223" t="n">
-        <v>352.6155</v>
-      </c>
-      <c r="G223" t="n">
-        <v>843.4833333333333</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>-13</v>
-      </c>
-      <c r="J223" t="n">
-        <v>927</v>
-      </c>
-      <c r="K223" t="n">
-        <v>-8.108108108108109</v>
-      </c>
-      <c r="L223" t="n">
-        <v>847.9</v>
-      </c>
-      <c r="M223" t="n">
-        <v>841.55</v>
-      </c>
-      <c r="N223" t="n">
-        <v>837.1</v>
-      </c>
-      <c r="O223" t="inlineStr"/>
-      <c r="P223" t="inlineStr"/>
-      <c r="Q223" t="inlineStr"/>
-      <c r="R223" t="inlineStr"/>
-      <c r="S223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>848</v>
-      </c>
-      <c r="C224" t="n">
-        <v>848</v>
-      </c>
-      <c r="D224" t="n">
-        <v>848</v>
-      </c>
-      <c r="E224" t="n">
-        <v>848</v>
-      </c>
-      <c r="F224" t="n">
-        <v>362.2804</v>
-      </c>
-      <c r="G224" t="n">
-        <v>843.2833333333333</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>-13</v>
-      </c>
-      <c r="J224" t="n">
-        <v>927</v>
-      </c>
-      <c r="K224" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="L224" t="n">
-        <v>847.6</v>
-      </c>
-      <c r="M224" t="n">
-        <v>842</v>
-      </c>
-      <c r="N224" t="n">
-        <v>837.5666666666667</v>
-      </c>
-      <c r="O224" t="inlineStr"/>
-      <c r="P224" t="inlineStr"/>
-      <c r="Q224" t="inlineStr"/>
-      <c r="R224" t="inlineStr"/>
-      <c r="S224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>847</v>
-      </c>
-      <c r="C225" t="n">
-        <v>847</v>
-      </c>
-      <c r="D225" t="n">
-        <v>847</v>
-      </c>
-      <c r="E225" t="n">
-        <v>847</v>
-      </c>
-      <c r="F225" t="n">
-        <v>100</v>
-      </c>
-      <c r="G225" t="n">
-        <v>843.0166666666667</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>-14</v>
-      </c>
-      <c r="J225" t="n">
-        <v>928</v>
-      </c>
-      <c r="K225" t="n">
-        <v>-28</v>
-      </c>
-      <c r="L225" t="n">
-        <v>847.7</v>
-      </c>
-      <c r="M225" t="n">
-        <v>842.95</v>
-      </c>
-      <c r="N225" t="n">
-        <v>838.0666666666667</v>
-      </c>
-      <c r="O225" t="inlineStr"/>
-      <c r="P225" t="inlineStr"/>
-      <c r="Q225" t="inlineStr"/>
-      <c r="R225" t="inlineStr"/>
-      <c r="S225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>843</v>
-      </c>
-      <c r="C226" t="n">
-        <v>843</v>
-      </c>
-      <c r="D226" t="n">
-        <v>843</v>
-      </c>
-      <c r="E226" t="n">
-        <v>843</v>
-      </c>
-      <c r="F226" t="n">
-        <v>425.5556</v>
-      </c>
-      <c r="G226" t="n">
-        <v>842.7</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>-18</v>
-      </c>
-      <c r="J226" t="n">
-        <v>932</v>
-      </c>
-      <c r="K226" t="n">
-        <v>-28</v>
-      </c>
-      <c r="L226" t="n">
-        <v>846.6</v>
-      </c>
-      <c r="M226" t="n">
-        <v>843.55</v>
-      </c>
-      <c r="N226" t="n">
-        <v>838.6333333333333</v>
-      </c>
-      <c r="O226" t="inlineStr"/>
-      <c r="P226" t="inlineStr"/>
-      <c r="Q226" t="inlineStr"/>
-      <c r="R226" t="inlineStr"/>
-      <c r="S226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>843</v>
-      </c>
-      <c r="C227" t="n">
-        <v>843</v>
-      </c>
-      <c r="D227" t="n">
-        <v>843</v>
-      </c>
-      <c r="E227" t="n">
-        <v>843</v>
-      </c>
-      <c r="F227" t="n">
-        <v>1.5476</v>
-      </c>
-      <c r="G227" t="n">
-        <v>842.3833333333333</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>-18</v>
-      </c>
-      <c r="J227" t="n">
-        <v>932</v>
-      </c>
-      <c r="K227" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L227" t="n">
-        <v>845.9</v>
-      </c>
-      <c r="M227" t="n">
-        <v>844.1</v>
-      </c>
-      <c r="N227" t="n">
-        <v>838.6666666666666</v>
-      </c>
-      <c r="O227" t="inlineStr"/>
-      <c r="P227" t="inlineStr"/>
-      <c r="Q227" t="inlineStr"/>
-      <c r="R227" t="inlineStr"/>
-      <c r="S227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>844</v>
-      </c>
-      <c r="C228" t="n">
-        <v>844</v>
-      </c>
-      <c r="D228" t="n">
-        <v>844</v>
-      </c>
-      <c r="E228" t="n">
-        <v>844</v>
-      </c>
-      <c r="F228" t="n">
-        <v>48.12</v>
-      </c>
-      <c r="G228" t="n">
-        <v>842.05</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>-17</v>
-      </c>
-      <c r="J228" t="n">
-        <v>933</v>
-      </c>
-      <c r="K228" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L228" t="n">
-        <v>845.7</v>
-      </c>
-      <c r="M228" t="n">
-        <v>844.75</v>
-      </c>
-      <c r="N228" t="n">
-        <v>839.2666666666667</v>
-      </c>
-      <c r="O228" t="inlineStr"/>
-      <c r="P228" t="inlineStr"/>
-      <c r="Q228" t="inlineStr"/>
-      <c r="R228" t="inlineStr"/>
-      <c r="S228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>844</v>
-      </c>
-      <c r="C229" t="n">
-        <v>844</v>
-      </c>
-      <c r="D229" t="n">
-        <v>844</v>
-      </c>
-      <c r="E229" t="n">
-        <v>844</v>
-      </c>
-      <c r="F229" t="n">
-        <v>50</v>
-      </c>
-      <c r="G229" t="n">
-        <v>841.75</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>-17</v>
-      </c>
-      <c r="J229" t="n">
-        <v>933</v>
-      </c>
-      <c r="K229" t="n">
-        <v>25</v>
-      </c>
-      <c r="L229" t="n">
-        <v>845.5</v>
-      </c>
-      <c r="M229" t="n">
-        <v>845.4</v>
-      </c>
-      <c r="N229" t="n">
-        <v>840.1</v>
-      </c>
-      <c r="O229" t="inlineStr"/>
-      <c r="P229" t="inlineStr"/>
-      <c r="Q229" t="inlineStr"/>
-      <c r="R229" t="inlineStr"/>
-      <c r="S229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>847</v>
-      </c>
-      <c r="C230" t="n">
-        <v>847</v>
-      </c>
-      <c r="D230" t="n">
-        <v>847</v>
-      </c>
-      <c r="E230" t="n">
-        <v>847</v>
-      </c>
-      <c r="F230" t="n">
-        <v>400.4292</v>
-      </c>
-      <c r="G230" t="n">
-        <v>841.4833333333333</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>-14</v>
-      </c>
-      <c r="J230" t="n">
-        <v>936</v>
-      </c>
-      <c r="K230" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L230" t="n">
-        <v>846.2</v>
-      </c>
-      <c r="M230" t="n">
-        <v>845.8</v>
-      </c>
-      <c r="N230" t="n">
-        <v>840.3333333333334</v>
-      </c>
-      <c r="O230" t="inlineStr"/>
-      <c r="P230" t="inlineStr"/>
-      <c r="Q230" t="inlineStr"/>
-      <c r="R230" t="inlineStr"/>
-      <c r="S230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>848</v>
-      </c>
-      <c r="C231" t="n">
-        <v>854</v>
-      </c>
-      <c r="D231" t="n">
-        <v>854</v>
-      </c>
-      <c r="E231" t="n">
-        <v>848</v>
-      </c>
-      <c r="F231" t="n">
-        <v>270</v>
-      </c>
-      <c r="G231" t="n">
-        <v>841.3833333333333</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J231" t="n">
-        <v>943</v>
-      </c>
-      <c r="K231" t="n">
-        <v>29.41176470588236</v>
-      </c>
-      <c r="L231" t="n">
-        <v>846.7</v>
-      </c>
-      <c r="M231" t="n">
-        <v>846.6</v>
-      </c>
-      <c r="N231" t="n">
-        <v>841.5333333333333</v>
-      </c>
-      <c r="O231" t="inlineStr"/>
-      <c r="P231" t="inlineStr"/>
-      <c r="Q231" t="inlineStr"/>
-      <c r="R231" t="inlineStr"/>
-      <c r="S231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>854</v>
-      </c>
-      <c r="C232" t="n">
-        <v>855</v>
-      </c>
-      <c r="D232" t="n">
-        <v>855</v>
-      </c>
-      <c r="E232" t="n">
-        <v>854</v>
-      </c>
-      <c r="F232" t="n">
-        <v>500</v>
-      </c>
-      <c r="G232" t="n">
-        <v>841.45</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J232" t="n">
-        <v>944</v>
-      </c>
-      <c r="K232" t="n">
-        <v>41.17647058823529</v>
-      </c>
-      <c r="L232" t="n">
-        <v>847.3</v>
-      </c>
-      <c r="M232" t="n">
-        <v>847.25</v>
-      </c>
-      <c r="N232" t="n">
-        <v>842.6666666666666</v>
-      </c>
-      <c r="O232" t="inlineStr"/>
-      <c r="P232" t="inlineStr"/>
-      <c r="Q232" t="inlineStr"/>
-      <c r="R232" t="inlineStr"/>
-      <c r="S232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>848</v>
-      </c>
-      <c r="C233" t="n">
-        <v>848</v>
-      </c>
-      <c r="D233" t="n">
-        <v>848</v>
-      </c>
-      <c r="E233" t="n">
-        <v>848</v>
-      </c>
-      <c r="F233" t="n">
-        <v>60</v>
-      </c>
-      <c r="G233" t="n">
-        <v>841.2833333333333</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>-13</v>
-      </c>
-      <c r="J233" t="n">
-        <v>951</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0</v>
-      </c>
-      <c r="L233" t="n">
-        <v>847.3</v>
-      </c>
-      <c r="M233" t="n">
-        <v>847.6</v>
-      </c>
-      <c r="N233" t="n">
-        <v>843.4666666666667</v>
-      </c>
-      <c r="O233" t="inlineStr"/>
-      <c r="P233" t="inlineStr"/>
-      <c r="Q233" t="inlineStr"/>
-      <c r="R233" t="inlineStr"/>
-      <c r="S233" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-31 BackTest WTC.xlsx
+++ b/BackTest/2019-10-31 BackTest WTC.xlsx
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4199,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4654,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -5284,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -7136,13 +7136,17 @@
         <v>863.6</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>828</v>
+      </c>
+      <c r="K193" t="n">
+        <v>828</v>
+      </c>
       <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
@@ -7171,14 +7175,22 @@
         <v>862.9333333333333</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>840</v>
+      </c>
+      <c r="K194" t="n">
+        <v>828</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7206,14 +7218,22 @@
         <v>862.1</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>834</v>
+      </c>
+      <c r="K195" t="n">
+        <v>828</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7311,17 +7331,13 @@
         <v>859</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>826</v>
-      </c>
-      <c r="K198" t="n">
-        <v>826</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
@@ -7350,108 +7366,90 @@
         <v>857.85</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>825</v>
-      </c>
-      <c r="K199" t="n">
-        <v>826</v>
-      </c>
-      <c r="L199" t="inlineStr">
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>840</v>
+      </c>
+      <c r="C200" t="n">
+        <v>840</v>
+      </c>
+      <c r="D200" t="n">
+        <v>840</v>
+      </c>
+      <c r="E200" t="n">
+        <v>840</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G200" t="n">
+        <v>856.9166666666666</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>821</v>
+      </c>
+      <c r="C201" t="n">
+        <v>818</v>
+      </c>
+      <c r="D201" t="n">
+        <v>821</v>
+      </c>
+      <c r="E201" t="n">
+        <v>818</v>
+      </c>
+      <c r="F201" t="n">
+        <v>70.93000000000001</v>
+      </c>
+      <c r="G201" t="n">
+        <v>855.6</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>840</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>840</v>
-      </c>
-      <c r="C200" t="n">
-        <v>840</v>
-      </c>
-      <c r="D200" t="n">
-        <v>840</v>
-      </c>
-      <c r="E200" t="n">
-        <v>840</v>
-      </c>
-      <c r="F200" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G200" t="n">
-        <v>856.9166666666666</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="n">
-        <v>840</v>
-      </c>
-      <c r="K200" t="n">
-        <v>826</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>821</v>
-      </c>
-      <c r="C201" t="n">
-        <v>818</v>
-      </c>
-      <c r="D201" t="n">
-        <v>821</v>
-      </c>
-      <c r="E201" t="n">
-        <v>818</v>
-      </c>
-      <c r="F201" t="n">
-        <v>70.93000000000001</v>
-      </c>
-      <c r="G201" t="n">
-        <v>855.6</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="n">
-        <v>821</v>
-      </c>
-      <c r="K201" t="n">
-        <v>826</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7479,17 +7477,13 @@
         <v>854.3333333333334</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>821</v>
-      </c>
-      <c r="K202" t="n">
-        <v>826</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7522,17 +7516,13 @@
         <v>853.1333333333333</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>824</v>
-      </c>
-      <c r="K203" t="n">
-        <v>826</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7565,17 +7555,13 @@
         <v>852.1833333333333</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>824</v>
-      </c>
-      <c r="K204" t="n">
-        <v>826</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7608,17 +7594,13 @@
         <v>851.0666666666667</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>828</v>
-      </c>
-      <c r="K205" t="n">
-        <v>826</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7651,17 +7633,13 @@
         <v>850.05</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>831</v>
-      </c>
-      <c r="K206" t="n">
-        <v>826</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7694,17 +7672,13 @@
         <v>849.1666666666666</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>832</v>
-      </c>
-      <c r="K207" t="n">
-        <v>826</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7737,17 +7711,13 @@
         <v>848.4</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>831</v>
-      </c>
-      <c r="K208" t="n">
-        <v>826</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7780,17 +7750,13 @@
         <v>847.55</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>836</v>
-      </c>
-      <c r="K209" t="n">
-        <v>826</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7823,17 +7789,13 @@
         <v>846.8333333333334</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>834</v>
-      </c>
-      <c r="K210" t="n">
-        <v>826</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7866,17 +7828,13 @@
         <v>846.2833333333333</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>838</v>
-      </c>
-      <c r="K211" t="n">
-        <v>826</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7909,17 +7867,13 @@
         <v>845.8666666666667</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>842</v>
-      </c>
-      <c r="K212" t="n">
-        <v>826</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-31 BackTest WTC.xlsx
+++ b/BackTest/2019-10-31 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M212"/>
+  <dimension ref="A1:M213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C2" t="n">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="D2" t="n">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="E2" t="n">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F2" t="n">
-        <v>160</v>
+        <v>48.5367</v>
       </c>
       <c r="G2" t="n">
-        <v>874.7166666666667</v>
+        <v>875.6</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C3" t="n">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D3" t="n">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E3" t="n">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G3" t="n">
-        <v>874.1333333333333</v>
+        <v>874.7166666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="C4" t="n">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="D4" t="n">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="E4" t="n">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="F4" t="n">
-        <v>85.1799</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>873.5</v>
+        <v>874.1333333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C5" t="n">
         <v>855</v>
       </c>
       <c r="D5" t="n">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E5" t="n">
         <v>855</v>
       </c>
       <c r="F5" t="n">
-        <v>368.9</v>
+        <v>85.1799</v>
       </c>
       <c r="G5" t="n">
-        <v>872.8833333333333</v>
+        <v>873.5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="C6" t="n">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="D6" t="n">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="E6" t="n">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="F6" t="n">
-        <v>944.8141000000001</v>
+        <v>368.9</v>
       </c>
       <c r="G6" t="n">
-        <v>872.15</v>
+        <v>872.8833333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C7" t="n">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="D7" t="n">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="E7" t="n">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="F7" t="n">
-        <v>897.2236</v>
+        <v>944.8141000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>871.3666666666667</v>
+        <v>872.15</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C8" t="n">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="D8" t="n">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="E8" t="n">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="F8" t="n">
-        <v>325.3</v>
+        <v>897.2236</v>
       </c>
       <c r="G8" t="n">
-        <v>870.8166666666667</v>
+        <v>871.3666666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="C9" t="n">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="D9" t="n">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="E9" t="n">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="F9" t="n">
-        <v>83.1234</v>
+        <v>325.3</v>
       </c>
       <c r="G9" t="n">
-        <v>870.2666666666667</v>
+        <v>870.8166666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C10" t="n">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D10" t="n">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E10" t="n">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F10" t="n">
-        <v>34.4986</v>
+        <v>83.1234</v>
       </c>
       <c r="G10" t="n">
-        <v>869.75</v>
+        <v>870.2666666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C11" t="n">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D11" t="n">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E11" t="n">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F11" t="n">
-        <v>44.56</v>
+        <v>34.4986</v>
       </c>
       <c r="G11" t="n">
-        <v>869.0833333333334</v>
+        <v>869.75</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C12" t="n">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D12" t="n">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E12" t="n">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F12" t="n">
-        <v>460.7957</v>
+        <v>44.56</v>
       </c>
       <c r="G12" t="n">
-        <v>868.4666666666667</v>
+        <v>869.0833333333334</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="C13" t="n">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="D13" t="n">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="E13" t="n">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="F13" t="n">
-        <v>112.5162</v>
+        <v>460.7957</v>
       </c>
       <c r="G13" t="n">
-        <v>867.8666666666667</v>
+        <v>868.4666666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>846</v>
       </c>
       <c r="C14" t="n">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D14" t="n">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E14" t="n">
         <v>846</v>
       </c>
       <c r="F14" t="n">
-        <v>398.35</v>
+        <v>112.5162</v>
       </c>
       <c r="G14" t="n">
-        <v>867.3166666666667</v>
+        <v>867.8666666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>846</v>
       </c>
       <c r="C15" t="n">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D15" t="n">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E15" t="n">
         <v>846</v>
       </c>
       <c r="F15" t="n">
-        <v>551.4419</v>
+        <v>398.35</v>
       </c>
       <c r="G15" t="n">
-        <v>866.75</v>
+        <v>867.3166666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C16" t="n">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="D16" t="n">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="E16" t="n">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F16" t="n">
-        <v>5268.4242</v>
+        <v>551.4419</v>
       </c>
       <c r="G16" t="n">
-        <v>866.1</v>
+        <v>866.75</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="C17" t="n">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="D17" t="n">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="E17" t="n">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="F17" t="n">
-        <v>39.1584</v>
+        <v>5268.4242</v>
       </c>
       <c r="G17" t="n">
-        <v>865.55</v>
+        <v>866.1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>857</v>
       </c>
       <c r="F18" t="n">
-        <v>264.2124</v>
+        <v>39.1584</v>
       </c>
       <c r="G18" t="n">
-        <v>865.1</v>
+        <v>865.55</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>857</v>
       </c>
       <c r="C19" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D19" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E19" t="n">
         <v>857</v>
       </c>
       <c r="F19" t="n">
-        <v>1025</v>
+        <v>264.2124</v>
       </c>
       <c r="G19" t="n">
-        <v>864.85</v>
+        <v>865.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C20" t="n">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D20" t="n">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E20" t="n">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F20" t="n">
-        <v>270</v>
+        <v>1025</v>
       </c>
       <c r="G20" t="n">
-        <v>864.5</v>
+        <v>864.85</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>861</v>
       </c>
       <c r="C21" t="n">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D21" t="n">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E21" t="n">
         <v>861</v>
       </c>
       <c r="F21" t="n">
-        <v>590</v>
+        <v>270</v>
       </c>
       <c r="G21" t="n">
-        <v>864.2</v>
+        <v>864.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C22" t="n">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D22" t="n">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="E22" t="n">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="F22" t="n">
-        <v>36.34</v>
+        <v>590</v>
       </c>
       <c r="G22" t="n">
-        <v>863.9166666666666</v>
+        <v>864.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>859</v>
       </c>
       <c r="F23" t="n">
-        <v>245.1399</v>
+        <v>36.34</v>
       </c>
       <c r="G23" t="n">
-        <v>863.5666666666667</v>
+        <v>863.9166666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>859</v>
       </c>
       <c r="C24" t="n">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D24" t="n">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E24" t="n">
         <v>859</v>
       </c>
       <c r="F24" t="n">
-        <v>255.78</v>
+        <v>245.1399</v>
       </c>
       <c r="G24" t="n">
-        <v>863.2333333333333</v>
+        <v>863.5666666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C25" t="n">
-        <v>852</v>
+        <v>860</v>
       </c>
       <c r="D25" t="n">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="E25" t="n">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="F25" t="n">
-        <v>1980.7132</v>
+        <v>255.78</v>
       </c>
       <c r="G25" t="n">
-        <v>862.7666666666667</v>
+        <v>863.2333333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C26" t="n">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="D26" t="n">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="E26" t="n">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="F26" t="n">
-        <v>46.1548</v>
+        <v>1980.7132</v>
       </c>
       <c r="G26" t="n">
-        <v>862.5</v>
+        <v>862.7666666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="C27" t="n">
-        <v>851</v>
+        <v>862</v>
       </c>
       <c r="D27" t="n">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="E27" t="n">
-        <v>851</v>
+        <v>862</v>
       </c>
       <c r="F27" t="n">
-        <v>4912.879</v>
+        <v>46.1548</v>
       </c>
       <c r="G27" t="n">
-        <v>861.9</v>
+        <v>862.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C28" t="n">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D28" t="n">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E28" t="n">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="F28" t="n">
-        <v>338.1522</v>
+        <v>4912.879</v>
       </c>
       <c r="G28" t="n">
-        <v>861.25</v>
+        <v>861.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C29" t="n">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="D29" t="n">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E29" t="n">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="F29" t="n">
-        <v>711.4405</v>
+        <v>338.1522</v>
       </c>
       <c r="G29" t="n">
-        <v>860.5166666666667</v>
+        <v>861.25</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C30" t="n">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D30" t="n">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E30" t="n">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F30" t="n">
-        <v>17.266</v>
+        <v>711.4405</v>
       </c>
       <c r="G30" t="n">
-        <v>859.7</v>
+        <v>860.5166666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>852</v>
       </c>
       <c r="F31" t="n">
-        <v>17.1529</v>
+        <v>17.266</v>
       </c>
       <c r="G31" t="n">
-        <v>858.95</v>
+        <v>859.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>852</v>
       </c>
       <c r="F32" t="n">
-        <v>323.2738</v>
+        <v>17.1529</v>
       </c>
       <c r="G32" t="n">
-        <v>858.2166666666667</v>
+        <v>858.95</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>852</v>
       </c>
       <c r="F33" t="n">
-        <v>47.5</v>
+        <v>323.2738</v>
       </c>
       <c r="G33" t="n">
-        <v>857.5</v>
+        <v>858.2166666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C34" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D34" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E34" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F34" t="n">
-        <v>70.6281</v>
+        <v>47.5</v>
       </c>
       <c r="G34" t="n">
-        <v>856.8</v>
+        <v>857.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C35" t="n">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D35" t="n">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E35" t="n">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F35" t="n">
-        <v>700</v>
+        <v>70.6281</v>
       </c>
       <c r="G35" t="n">
-        <v>856.05</v>
+        <v>856.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C36" t="n">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="D36" t="n">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="E36" t="n">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="F36" t="n">
-        <v>1258.675</v>
+        <v>700</v>
       </c>
       <c r="G36" t="n">
-        <v>855.1166666666667</v>
+        <v>856.05</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C37" t="n">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="D37" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E37" t="n">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="F37" t="n">
-        <v>109.5316</v>
+        <v>1258.675</v>
       </c>
       <c r="G37" t="n">
-        <v>854.25</v>
+        <v>855.1166666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C38" t="n">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D38" t="n">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E38" t="n">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F38" t="n">
-        <v>312.7023</v>
+        <v>109.5316</v>
       </c>
       <c r="G38" t="n">
-        <v>854.1166666666667</v>
+        <v>854.25</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C39" t="n">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D39" t="n">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E39" t="n">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="F39" t="n">
-        <v>297.4112</v>
+        <v>312.7023</v>
       </c>
       <c r="G39" t="n">
-        <v>853.8833333333333</v>
+        <v>854.1166666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C40" t="n">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="D40" t="n">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="E40" t="n">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F40" t="n">
-        <v>1190</v>
+        <v>297.4112</v>
       </c>
       <c r="G40" t="n">
-        <v>853.8666666666667</v>
+        <v>853.8833333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C41" t="n">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="D41" t="n">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="E41" t="n">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F41" t="n">
-        <v>246.2</v>
+        <v>1190</v>
       </c>
       <c r="G41" t="n">
-        <v>853.55</v>
+        <v>853.8666666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="C42" t="n">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="D42" t="n">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="E42" t="n">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="F42" t="n">
-        <v>270</v>
+        <v>246.2</v>
       </c>
       <c r="G42" t="n">
-        <v>853.6</v>
+        <v>853.55</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C43" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="D43" t="n">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="E43" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="F43" t="n">
-        <v>675.0039</v>
+        <v>270</v>
       </c>
       <c r="G43" t="n">
-        <v>853.85</v>
+        <v>853.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="C44" t="n">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="D44" t="n">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="E44" t="n">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="F44" t="n">
-        <v>499.9999</v>
+        <v>675.0039</v>
       </c>
       <c r="G44" t="n">
-        <v>853.8166666666667</v>
+        <v>853.85</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="C45" t="n">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="D45" t="n">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="E45" t="n">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="F45" t="n">
-        <v>75.2512</v>
+        <v>499.9999</v>
       </c>
       <c r="G45" t="n">
-        <v>853.6666666666666</v>
+        <v>853.8166666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C46" t="n">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D46" t="n">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="E46" t="n">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="F46" t="n">
-        <v>112.804</v>
+        <v>75.2512</v>
       </c>
       <c r="G46" t="n">
-        <v>853.5</v>
+        <v>853.6666666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C47" t="n">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D47" t="n">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E47" t="n">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F47" t="n">
-        <v>467.0327</v>
+        <v>112.804</v>
       </c>
       <c r="G47" t="n">
-        <v>853.4833333333333</v>
+        <v>853.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C48" t="n">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="D48" t="n">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="E48" t="n">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="F48" t="n">
-        <v>526.3371</v>
+        <v>467.0327</v>
       </c>
       <c r="G48" t="n">
-        <v>853.6333333333333</v>
+        <v>853.4833333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C49" t="n">
         <v>858</v>
       </c>
       <c r="D49" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E49" t="n">
         <v>858</v>
       </c>
       <c r="F49" t="n">
-        <v>361.8196</v>
+        <v>526.3371</v>
       </c>
       <c r="G49" t="n">
-        <v>853.8</v>
+        <v>853.6333333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2116,19 +2116,19 @@
         <v>859</v>
       </c>
       <c r="C50" t="n">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="D50" t="n">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="E50" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F50" t="n">
-        <v>175</v>
+        <v>361.8196</v>
       </c>
       <c r="G50" t="n">
-        <v>853.9666666666667</v>
+        <v>853.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,19 +2148,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C51" t="n">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="D51" t="n">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="E51" t="n">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F51" t="n">
-        <v>285.11</v>
+        <v>175</v>
       </c>
       <c r="G51" t="n">
         <v>853.9666666666667</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C52" t="n">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="D52" t="n">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="E52" t="n">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="F52" t="n">
-        <v>32.573</v>
+        <v>285.11</v>
       </c>
       <c r="G52" t="n">
-        <v>854.0166666666667</v>
+        <v>853.9666666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C53" t="n">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="D53" t="n">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E53" t="n">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="F53" t="n">
-        <v>552.3137</v>
+        <v>32.573</v>
       </c>
       <c r="G53" t="n">
-        <v>853.95</v>
+        <v>854.0166666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>850</v>
+        <v>858</v>
       </c>
       <c r="C54" t="n">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="D54" t="n">
-        <v>850</v>
+        <v>858</v>
       </c>
       <c r="E54" t="n">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="F54" t="n">
-        <v>234.8932</v>
+        <v>552.3137</v>
       </c>
       <c r="G54" t="n">
-        <v>853.7833333333333</v>
+        <v>853.95</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C55" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D55" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E55" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F55" t="n">
-        <v>32.8895</v>
+        <v>234.8932</v>
       </c>
       <c r="G55" t="n">
-        <v>853.7666666666667</v>
+        <v>853.7833333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>849</v>
       </c>
       <c r="C56" t="n">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="D56" t="n">
         <v>849</v>
       </c>
       <c r="E56" t="n">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="F56" t="n">
-        <v>240.5497</v>
+        <v>32.8895</v>
       </c>
       <c r="G56" t="n">
-        <v>853.7</v>
+        <v>853.7666666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>849</v>
+      </c>
+      <c r="C57" t="n">
         <v>845</v>
       </c>
-      <c r="C57" t="n">
-        <v>843</v>
-      </c>
       <c r="D57" t="n">
+        <v>849</v>
+      </c>
+      <c r="E57" t="n">
         <v>845</v>
       </c>
-      <c r="E57" t="n">
-        <v>843</v>
-      </c>
       <c r="F57" t="n">
-        <v>939.7007</v>
+        <v>240.5497</v>
       </c>
       <c r="G57" t="n">
-        <v>853.5833333333334</v>
+        <v>853.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="C58" t="n">
         <v>843</v>
       </c>
       <c r="D58" t="n">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="E58" t="n">
         <v>843</v>
       </c>
       <c r="F58" t="n">
-        <v>25</v>
+        <v>939.7007</v>
       </c>
       <c r="G58" t="n">
-        <v>853.5166666666667</v>
+        <v>853.5833333333334</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="C59" t="n">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="D59" t="n">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="E59" t="n">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="F59" t="n">
-        <v>4.2179</v>
+        <v>25</v>
       </c>
       <c r="G59" t="n">
-        <v>853.5</v>
+        <v>853.5166666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="C60" t="n">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="D60" t="n">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="E60" t="n">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="F60" t="n">
-        <v>563.7768</v>
+        <v>4.2179</v>
       </c>
       <c r="G60" t="n">
-        <v>853.4333333333333</v>
+        <v>853.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C61" t="n">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="D61" t="n">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="E61" t="n">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="F61" t="n">
-        <v>563.6076</v>
+        <v>563.7768</v>
       </c>
       <c r="G61" t="n">
-        <v>853.1666666666666</v>
+        <v>853.4333333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C62" t="n">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D62" t="n">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E62" t="n">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F62" t="n">
-        <v>245.8712</v>
+        <v>563.6076</v>
       </c>
       <c r="G62" t="n">
-        <v>852.85</v>
+        <v>853.1666666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C63" t="n">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D63" t="n">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E63" t="n">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F63" t="n">
-        <v>37.08</v>
+        <v>245.8712</v>
       </c>
       <c r="G63" t="n">
-        <v>852.5</v>
+        <v>852.85</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C64" t="n">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D64" t="n">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="E64" t="n">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="F64" t="n">
-        <v>245.871</v>
+        <v>37.08</v>
       </c>
       <c r="G64" t="n">
-        <v>852.3166666666667</v>
+        <v>852.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C65" t="n">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D65" t="n">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E65" t="n">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F65" t="n">
-        <v>2948.3305</v>
+        <v>245.871</v>
       </c>
       <c r="G65" t="n">
-        <v>852.15</v>
+        <v>852.3166666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C66" t="n">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D66" t="n">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E66" t="n">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F66" t="n">
-        <v>509.3001</v>
+        <v>2948.3305</v>
       </c>
       <c r="G66" t="n">
-        <v>852.1</v>
+        <v>852.15</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="C67" t="n">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D67" t="n">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="E67" t="n">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F67" t="n">
-        <v>37.095</v>
+        <v>509.3001</v>
       </c>
       <c r="G67" t="n">
-        <v>852.0666666666667</v>
+        <v>852.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C68" t="n">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D68" t="n">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E68" t="n">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F68" t="n">
-        <v>346.93</v>
+        <v>37.095</v>
       </c>
       <c r="G68" t="n">
-        <v>852.0166666666667</v>
+        <v>852.0666666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C69" t="n">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="D69" t="n">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="E69" t="n">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="F69" t="n">
-        <v>335</v>
+        <v>346.93</v>
       </c>
       <c r="G69" t="n">
-        <v>852.0833333333334</v>
+        <v>852.0166666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="C70" t="n">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="D70" t="n">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E70" t="n">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="F70" t="n">
-        <v>2525.4301</v>
+        <v>335</v>
       </c>
       <c r="G70" t="n">
-        <v>851.9666666666667</v>
+        <v>852.0833333333334</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2851,19 +2851,19 @@
         <v>846</v>
       </c>
       <c r="C71" t="n">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="D71" t="n">
         <v>846</v>
       </c>
       <c r="E71" t="n">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F71" t="n">
-        <v>792.712</v>
+        <v>2525.4301</v>
       </c>
       <c r="G71" t="n">
-        <v>851.8833333333333</v>
+        <v>851.9666666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C72" t="n">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D72" t="n">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="E72" t="n">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="F72" t="n">
-        <v>293.062</v>
+        <v>792.712</v>
       </c>
       <c r="G72" t="n">
-        <v>851.8333333333334</v>
+        <v>851.8833333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C73" t="n">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D73" t="n">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E73" t="n">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F73" t="n">
         <v>293.062</v>
       </c>
       <c r="G73" t="n">
-        <v>851.8666666666667</v>
+        <v>851.8333333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C74" t="n">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D74" t="n">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E74" t="n">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F74" t="n">
-        <v>2.1335</v>
+        <v>293.062</v>
       </c>
       <c r="G74" t="n">
-        <v>851.9166666666666</v>
+        <v>851.8666666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="C75" t="n">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D75" t="n">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="E75" t="n">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>2.1335</v>
       </c>
       <c r="G75" t="n">
-        <v>852.0666666666667</v>
+        <v>851.9166666666666</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3026,19 +3026,19 @@
         <v>855</v>
       </c>
       <c r="C76" t="n">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D76" t="n">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E76" t="n">
         <v>855</v>
       </c>
       <c r="F76" t="n">
-        <v>497.9812</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>852.15</v>
+        <v>852.0666666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C77" t="n">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="D77" t="n">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="E77" t="n">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="F77" t="n">
-        <v>564</v>
+        <v>497.9812</v>
       </c>
       <c r="G77" t="n">
-        <v>852.2</v>
+        <v>852.15</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>845</v>
+        <v>854</v>
       </c>
       <c r="C78" t="n">
-        <v>844</v>
+        <v>860</v>
       </c>
       <c r="D78" t="n">
-        <v>845</v>
+        <v>860</v>
       </c>
       <c r="E78" t="n">
-        <v>844</v>
+        <v>854</v>
       </c>
       <c r="F78" t="n">
-        <v>1152.18</v>
+        <v>564</v>
       </c>
       <c r="G78" t="n">
-        <v>851.9833333333333</v>
+        <v>852.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C79" t="n">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="D79" t="n">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E79" t="n">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="F79" t="n">
-        <v>600</v>
+        <v>1152.18</v>
       </c>
       <c r="G79" t="n">
-        <v>851.8166666666667</v>
+        <v>851.9833333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="C80" t="n">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="D80" t="n">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="E80" t="n">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="F80" t="n">
-        <v>47.6644</v>
+        <v>600</v>
       </c>
       <c r="G80" t="n">
-        <v>851.6666666666666</v>
+        <v>851.8166666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C81" t="n">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D81" t="n">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E81" t="n">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="F81" t="n">
-        <v>771.4227</v>
+        <v>47.6644</v>
       </c>
       <c r="G81" t="n">
-        <v>851.5333333333333</v>
+        <v>851.6666666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C82" t="n">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D82" t="n">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E82" t="n">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F82" t="n">
-        <v>510</v>
+        <v>771.4227</v>
       </c>
       <c r="G82" t="n">
-        <v>851.4333333333333</v>
+        <v>851.5333333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C83" t="n">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D83" t="n">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="E83" t="n">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="F83" t="n">
-        <v>397.5</v>
+        <v>510</v>
       </c>
       <c r="G83" t="n">
-        <v>851.3</v>
+        <v>851.4333333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C84" t="n">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D84" t="n">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="E84" t="n">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="F84" t="n">
-        <v>427.917</v>
+        <v>397.5</v>
       </c>
       <c r="G84" t="n">
-        <v>851.2166666666667</v>
+        <v>851.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,10 +3338,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>854</v>
+      </c>
+      <c r="C85" t="n">
         <v>855</v>
-      </c>
-      <c r="C85" t="n">
-        <v>854</v>
       </c>
       <c r="D85" t="n">
         <v>855</v>
@@ -3350,10 +3350,10 @@
         <v>854</v>
       </c>
       <c r="F85" t="n">
-        <v>464.1913</v>
+        <v>427.917</v>
       </c>
       <c r="G85" t="n">
-        <v>851.25</v>
+        <v>851.2166666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C86" t="n">
         <v>854</v>
       </c>
       <c r="D86" t="n">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E86" t="n">
         <v>854</v>
       </c>
       <c r="F86" t="n">
-        <v>596.5824</v>
+        <v>464.1913</v>
       </c>
       <c r="G86" t="n">
-        <v>851.1166666666667</v>
+        <v>851.25</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3420,10 +3420,10 @@
         <v>854</v>
       </c>
       <c r="F87" t="n">
-        <v>684.99</v>
+        <v>596.5824</v>
       </c>
       <c r="G87" t="n">
-        <v>851.1666666666666</v>
+        <v>851.1166666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C88" t="n">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D88" t="n">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="E88" t="n">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F88" t="n">
-        <v>800</v>
+        <v>684.99</v>
       </c>
       <c r="G88" t="n">
-        <v>851.2166666666667</v>
+        <v>851.1666666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C89" t="n">
         <v>857</v>
       </c>
       <c r="D89" t="n">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E89" t="n">
         <v>857</v>
       </c>
       <c r="F89" t="n">
-        <v>32.8766</v>
+        <v>800</v>
       </c>
       <c r="G89" t="n">
-        <v>851.3166666666667</v>
+        <v>851.2166666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="C90" t="n">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="D90" t="n">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="E90" t="n">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="F90" t="n">
-        <v>74.8125</v>
+        <v>32.8766</v>
       </c>
       <c r="G90" t="n">
-        <v>851.3333333333334</v>
+        <v>851.3166666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="C91" t="n">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="D91" t="n">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="E91" t="n">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="F91" t="n">
-        <v>32.8766</v>
+        <v>74.8125</v>
       </c>
       <c r="G91" t="n">
-        <v>851.4333333333333</v>
+        <v>851.3333333333334</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C92" t="n">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D92" t="n">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E92" t="n">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F92" t="n">
-        <v>300</v>
+        <v>32.8766</v>
       </c>
       <c r="G92" t="n">
-        <v>851.5666666666667</v>
+        <v>851.4333333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="C93" t="n">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="D93" t="n">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="E93" t="n">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="F93" t="n">
-        <v>1125</v>
+        <v>300</v>
       </c>
       <c r="G93" t="n">
-        <v>851.7666666666667</v>
+        <v>851.5666666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C94" t="n">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D94" t="n">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E94" t="n">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="F94" t="n">
-        <v>77.97</v>
+        <v>1125</v>
       </c>
       <c r="G94" t="n">
-        <v>851.9666666666667</v>
+        <v>851.7666666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C95" t="n">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D95" t="n">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E95" t="n">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>77.97</v>
       </c>
       <c r="G95" t="n">
-        <v>852.1833333333333</v>
+        <v>851.9666666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>852.5333333333333</v>
+        <v>852.1833333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3761,19 +3761,19 @@
         <v>867</v>
       </c>
       <c r="C97" t="n">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="D97" t="n">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="E97" t="n">
         <v>867</v>
       </c>
       <c r="F97" t="n">
-        <v>1786.8021</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>852.8833333333333</v>
+        <v>852.5333333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="C98" t="n">
         <v>874</v>
@@ -3802,13 +3802,13 @@
         <v>874</v>
       </c>
       <c r="E98" t="n">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="F98" t="n">
-        <v>19.3612</v>
+        <v>1786.8021</v>
       </c>
       <c r="G98" t="n">
-        <v>853.25</v>
+        <v>852.8833333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C99" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D99" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E99" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F99" t="n">
-        <v>121.95</v>
+        <v>19.3612</v>
       </c>
       <c r="G99" t="n">
-        <v>853.6</v>
+        <v>853.25</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,28 +3863,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C100" t="n">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D100" t="n">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E100" t="n">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>121.95</v>
       </c>
       <c r="G100" t="n">
-        <v>853.9</v>
+        <v>853.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -3898,28 +3898,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="C101" t="n">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D101" t="n">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E101" t="n">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="F101" t="n">
-        <v>380.1082</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>854.3166666666667</v>
+        <v>853.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -3933,28 +3933,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>876</v>
+      </c>
+      <c r="C102" t="n">
         <v>880</v>
       </c>
-      <c r="C102" t="n">
-        <v>884</v>
-      </c>
       <c r="D102" t="n">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="E102" t="n">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="F102" t="n">
-        <v>185.5851</v>
+        <v>380.1082</v>
       </c>
       <c r="G102" t="n">
-        <v>854.7166666666667</v>
+        <v>854.3166666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -3968,28 +3968,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="C103" t="n">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D103" t="n">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E103" t="n">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>185.5851</v>
       </c>
       <c r="G103" t="n">
-        <v>855.2</v>
+        <v>854.7166666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4003,28 +4003,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="C104" t="n">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D104" t="n">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="E104" t="n">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="F104" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>855.7</v>
+        <v>855.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>869</v>
+        <v>882</v>
       </c>
       <c r="C105" t="n">
-        <v>869</v>
+        <v>884</v>
       </c>
       <c r="D105" t="n">
-        <v>869</v>
+        <v>884</v>
       </c>
       <c r="E105" t="n">
-        <v>869</v>
+        <v>882</v>
       </c>
       <c r="F105" t="n">
-        <v>474</v>
+        <v>26</v>
       </c>
       <c r="G105" t="n">
-        <v>856.0166666666667</v>
+        <v>855.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C106" t="n">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="D106" t="n">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E106" t="n">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>474</v>
       </c>
       <c r="G106" t="n">
-        <v>856.3333333333334</v>
+        <v>856.0166666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C107" t="n">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D107" t="n">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E107" t="n">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="F107" t="n">
-        <v>1315.1809</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>856.6666666666666</v>
+        <v>856.3333333333334</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="C108" t="n">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="D108" t="n">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="E108" t="n">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F108" t="n">
-        <v>351.6429</v>
+        <v>1315.1809</v>
       </c>
       <c r="G108" t="n">
-        <v>856.8833333333333</v>
+        <v>856.6666666666666</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="C109" t="n">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D109" t="n">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E109" t="n">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F109" t="n">
-        <v>1251.5649</v>
+        <v>351.6429</v>
       </c>
       <c r="G109" t="n">
-        <v>857.1333333333333</v>
+        <v>856.8833333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4216,19 +4216,19 @@
         <v>876</v>
       </c>
       <c r="C110" t="n">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D110" t="n">
         <v>876</v>
       </c>
       <c r="E110" t="n">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="F110" t="n">
-        <v>7.2541</v>
+        <v>1251.5649</v>
       </c>
       <c r="G110" t="n">
-        <v>857.3333333333334</v>
+        <v>857.1333333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="C111" t="n">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="D111" t="n">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="E111" t="n">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="F111" t="n">
-        <v>10</v>
+        <v>7.2541</v>
       </c>
       <c r="G111" t="n">
-        <v>857.7</v>
+        <v>857.3333333333334</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="C112" t="n">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="D112" t="n">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="E112" t="n">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="F112" t="n">
-        <v>47.4418</v>
+        <v>10</v>
       </c>
       <c r="G112" t="n">
-        <v>858.0333333333333</v>
+        <v>857.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C113" t="n">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D113" t="n">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E113" t="n">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="F113" t="n">
-        <v>275.2076</v>
+        <v>47.4418</v>
       </c>
       <c r="G113" t="n">
-        <v>858.4833333333333</v>
+        <v>858.0333333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C114" t="n">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="D114" t="n">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="E114" t="n">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F114" t="n">
-        <v>15.7413</v>
+        <v>275.2076</v>
       </c>
       <c r="G114" t="n">
-        <v>858.9166666666666</v>
+        <v>858.4833333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C115" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D115" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E115" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F115" t="n">
-        <v>36.6748</v>
+        <v>15.7413</v>
       </c>
       <c r="G115" t="n">
-        <v>859.35</v>
+        <v>858.9166666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4435,10 +4435,10 @@
         <v>875</v>
       </c>
       <c r="F116" t="n">
-        <v>257.919</v>
+        <v>36.6748</v>
       </c>
       <c r="G116" t="n">
-        <v>859.85</v>
+        <v>859.35</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C117" t="n">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D117" t="n">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E117" t="n">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="F117" t="n">
-        <v>316.5738</v>
+        <v>257.919</v>
       </c>
       <c r="G117" t="n">
-        <v>860.3666666666667</v>
+        <v>859.85</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="C118" t="n">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="D118" t="n">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="E118" t="n">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="F118" t="n">
-        <v>15.0525</v>
+        <v>316.5738</v>
       </c>
       <c r="G118" t="n">
-        <v>860.9666666666667</v>
+        <v>860.3666666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C119" t="n">
-        <v>894</v>
+        <v>879</v>
       </c>
       <c r="D119" t="n">
-        <v>894</v>
+        <v>879</v>
       </c>
       <c r="E119" t="n">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="F119" t="n">
-        <v>1197.6166</v>
+        <v>15.0525</v>
       </c>
       <c r="G119" t="n">
-        <v>861.7166666666667</v>
+        <v>860.9666666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,7 +4563,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="C120" t="n">
         <v>894</v>
@@ -4572,13 +4572,13 @@
         <v>894</v>
       </c>
       <c r="E120" t="n">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="F120" t="n">
-        <v>433.231</v>
+        <v>1197.6166</v>
       </c>
       <c r="G120" t="n">
-        <v>862.5666666666667</v>
+        <v>861.7166666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="C121" t="n">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="D121" t="n">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="E121" t="n">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="F121" t="n">
-        <v>292.0606</v>
+        <v>433.231</v>
       </c>
       <c r="G121" t="n">
-        <v>863.3666666666667</v>
+        <v>862.5666666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>882</v>
+        <v>890</v>
       </c>
       <c r="C122" t="n">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="D122" t="n">
-        <v>882</v>
+        <v>890</v>
       </c>
       <c r="E122" t="n">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="F122" t="n">
-        <v>1060.3203</v>
+        <v>292.0606</v>
       </c>
       <c r="G122" t="n">
-        <v>864.0333333333333</v>
+        <v>863.3666666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C123" t="n">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D123" t="n">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E123" t="n">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F123" t="n">
-        <v>859.8069</v>
+        <v>1060.3203</v>
       </c>
       <c r="G123" t="n">
-        <v>864.7333333333333</v>
+        <v>864.0333333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C124" t="n">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D124" t="n">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E124" t="n">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F124" t="n">
-        <v>430.3911</v>
+        <v>859.8069</v>
       </c>
       <c r="G124" t="n">
-        <v>865.3666666666667</v>
+        <v>864.7333333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="C125" t="n">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="D125" t="n">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="E125" t="n">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="F125" t="n">
-        <v>432.3519</v>
+        <v>430.3911</v>
       </c>
       <c r="G125" t="n">
-        <v>865.9166666666666</v>
+        <v>865.3666666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="C126" t="n">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="D126" t="n">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="E126" t="n">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="F126" t="n">
-        <v>217.333</v>
+        <v>432.3519</v>
       </c>
       <c r="G126" t="n">
-        <v>866.3666666666667</v>
+        <v>865.9166666666666</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4811,19 +4811,19 @@
         <v>873</v>
       </c>
       <c r="C127" t="n">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D127" t="n">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E127" t="n">
         <v>873</v>
       </c>
       <c r="F127" t="n">
-        <v>500</v>
+        <v>217.333</v>
       </c>
       <c r="G127" t="n">
-        <v>866.85</v>
+        <v>866.3666666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>864</v>
+        <v>873</v>
       </c>
       <c r="C128" t="n">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="D128" t="n">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="E128" t="n">
-        <v>863</v>
+        <v>873</v>
       </c>
       <c r="F128" t="n">
-        <v>1778.2435</v>
+        <v>500</v>
       </c>
       <c r="G128" t="n">
-        <v>867.2333333333333</v>
+        <v>866.85</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="C129" t="n">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D129" t="n">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E129" t="n">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F129" t="n">
-        <v>31.4401</v>
+        <v>1778.2435</v>
       </c>
       <c r="G129" t="n">
-        <v>867.5333333333333</v>
+        <v>867.2333333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4925,10 +4925,10 @@
         <v>869</v>
       </c>
       <c r="F130" t="n">
-        <v>36.1</v>
+        <v>31.4401</v>
       </c>
       <c r="G130" t="n">
-        <v>867.9833333333333</v>
+        <v>867.5333333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C131" t="n">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="D131" t="n">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="E131" t="n">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F131" t="n">
-        <v>1422.5451</v>
+        <v>36.1</v>
       </c>
       <c r="G131" t="n">
-        <v>868.45</v>
+        <v>867.9833333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="C132" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D132" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E132" t="n">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="F132" t="n">
-        <v>779.9598999999999</v>
+        <v>1422.5451</v>
       </c>
       <c r="G132" t="n">
-        <v>868.8833333333333</v>
+        <v>868.45</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C133" t="n">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="D133" t="n">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="E133" t="n">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="F133" t="n">
-        <v>251.1333</v>
+        <v>779.9598999999999</v>
       </c>
       <c r="G133" t="n">
-        <v>869.3</v>
+        <v>868.8833333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5056,19 +5056,19 @@
         <v>873</v>
       </c>
       <c r="C134" t="n">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D134" t="n">
-        <v>897</v>
+        <v>873</v>
       </c>
       <c r="E134" t="n">
         <v>873</v>
       </c>
       <c r="F134" t="n">
-        <v>678.1979</v>
+        <v>251.1333</v>
       </c>
       <c r="G134" t="n">
-        <v>869.7</v>
+        <v>869.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="C135" t="n">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="D135" t="n">
-        <v>882</v>
+        <v>897</v>
       </c>
       <c r="E135" t="n">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="F135" t="n">
-        <v>7.2541</v>
+        <v>678.1979</v>
       </c>
       <c r="G135" t="n">
-        <v>870.15</v>
+        <v>869.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C136" t="n">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D136" t="n">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="E136" t="n">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="F136" t="n">
-        <v>328.724</v>
+        <v>7.2541</v>
       </c>
       <c r="G136" t="n">
-        <v>870.5666666666667</v>
+        <v>870.15</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="C137" t="n">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="D137" t="n">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="E137" t="n">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="F137" t="n">
-        <v>515.9400000000001</v>
+        <v>328.724</v>
       </c>
       <c r="G137" t="n">
-        <v>871.05</v>
+        <v>870.5666666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="C138" t="n">
-        <v>910</v>
+        <v>889</v>
       </c>
       <c r="D138" t="n">
-        <v>910</v>
+        <v>889</v>
       </c>
       <c r="E138" t="n">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="F138" t="n">
-        <v>8110.306891098901</v>
+        <v>515.9400000000001</v>
       </c>
       <c r="G138" t="n">
-        <v>872.15</v>
+        <v>871.05</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="C139" t="n">
-        <v>888</v>
+        <v>910</v>
       </c>
       <c r="D139" t="n">
-        <v>888</v>
+        <v>910</v>
       </c>
       <c r="E139" t="n">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="F139" t="n">
-        <v>4.9475</v>
+        <v>8110.306891098901</v>
       </c>
       <c r="G139" t="n">
-        <v>872.8166666666667</v>
+        <v>872.15</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,28 +5263,28 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="C140" t="n">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="D140" t="n">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="E140" t="n">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="F140" t="n">
-        <v>785.866</v>
+        <v>4.9475</v>
       </c>
       <c r="G140" t="n">
-        <v>873.55</v>
+        <v>872.8166666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -5298,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="C141" t="n">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D141" t="n">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E141" t="n">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="F141" t="n">
-        <v>121.57</v>
+        <v>785.866</v>
       </c>
       <c r="G141" t="n">
-        <v>874.2666666666667</v>
+        <v>873.55</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,7 +5333,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="C142" t="n">
         <v>897</v>
@@ -5342,13 +5342,13 @@
         <v>897</v>
       </c>
       <c r="E142" t="n">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="F142" t="n">
-        <v>330</v>
+        <v>121.57</v>
       </c>
       <c r="G142" t="n">
-        <v>875</v>
+        <v>874.2666666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5371,19 +5371,19 @@
         <v>896</v>
       </c>
       <c r="C143" t="n">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D143" t="n">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E143" t="n">
         <v>896</v>
       </c>
       <c r="F143" t="n">
-        <v>111.6</v>
+        <v>330</v>
       </c>
       <c r="G143" t="n">
-        <v>875.75</v>
+        <v>875</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5415,10 +5415,10 @@
         <v>896</v>
       </c>
       <c r="F144" t="n">
-        <v>194.3</v>
+        <v>111.6</v>
       </c>
       <c r="G144" t="n">
-        <v>876.4333333333333</v>
+        <v>875.75</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C145" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D145" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E145" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="F145" t="n">
-        <v>308.771</v>
+        <v>194.3</v>
       </c>
       <c r="G145" t="n">
-        <v>877.1166666666667</v>
+        <v>876.4333333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5476,19 +5476,19 @@
         <v>895</v>
       </c>
       <c r="C146" t="n">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="D146" t="n">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E146" t="n">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="F146" t="n">
-        <v>1174.8254</v>
+        <v>308.771</v>
       </c>
       <c r="G146" t="n">
-        <v>877.75</v>
+        <v>877.1166666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
+        <v>895</v>
+      </c>
+      <c r="C147" t="n">
         <v>892</v>
       </c>
-      <c r="C147" t="n">
-        <v>885</v>
-      </c>
       <c r="D147" t="n">
+        <v>896</v>
+      </c>
+      <c r="E147" t="n">
         <v>892</v>
       </c>
-      <c r="E147" t="n">
-        <v>885</v>
-      </c>
       <c r="F147" t="n">
-        <v>1965</v>
+        <v>1174.8254</v>
       </c>
       <c r="G147" t="n">
-        <v>878.2666666666667</v>
+        <v>877.75</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5543,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>877</v>
+        <v>892</v>
       </c>
       <c r="C148" t="n">
-        <v>877</v>
+        <v>885</v>
       </c>
       <c r="D148" t="n">
-        <v>877</v>
+        <v>892</v>
       </c>
       <c r="E148" t="n">
-        <v>877</v>
+        <v>885</v>
       </c>
       <c r="F148" t="n">
-        <v>1</v>
+        <v>1965</v>
       </c>
       <c r="G148" t="n">
-        <v>878.6</v>
+        <v>878.2666666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="C149" t="n">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="D149" t="n">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="E149" t="n">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="F149" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G149" t="n">
-        <v>879.0166666666667</v>
+        <v>878.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5625,10 +5625,10 @@
         <v>882</v>
       </c>
       <c r="F150" t="n">
-        <v>526.9177</v>
+        <v>5</v>
       </c>
       <c r="G150" t="n">
-        <v>879.5</v>
+        <v>879.0166666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="C151" t="n">
-        <v>871</v>
+        <v>882</v>
       </c>
       <c r="D151" t="n">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="E151" t="n">
-        <v>871</v>
+        <v>882</v>
       </c>
       <c r="F151" t="n">
-        <v>3694.1399</v>
+        <v>526.9177</v>
       </c>
       <c r="G151" t="n">
-        <v>879.7166666666667</v>
+        <v>879.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
+        <v>880</v>
+      </c>
+      <c r="C152" t="n">
         <v>871</v>
       </c>
-      <c r="C152" t="n">
-        <v>867</v>
-      </c>
       <c r="D152" t="n">
+        <v>880</v>
+      </c>
+      <c r="E152" t="n">
         <v>871</v>
       </c>
-      <c r="E152" t="n">
-        <v>867</v>
-      </c>
       <c r="F152" t="n">
-        <v>500.85</v>
+        <v>3694.1399</v>
       </c>
       <c r="G152" t="n">
-        <v>879.8333333333334</v>
+        <v>879.7166666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C153" t="n">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D153" t="n">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="E153" t="n">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="F153" t="n">
-        <v>541</v>
+        <v>500.85</v>
       </c>
       <c r="G153" t="n">
-        <v>879.8666666666667</v>
+        <v>879.8333333333334</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="C154" t="n">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="D154" t="n">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="E154" t="n">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="F154" t="n">
-        <v>1</v>
+        <v>541</v>
       </c>
       <c r="G154" t="n">
-        <v>879.85</v>
+        <v>879.8666666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C155" t="n">
-        <v>849</v>
+        <v>864</v>
       </c>
       <c r="D155" t="n">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E155" t="n">
-        <v>849</v>
+        <v>864</v>
       </c>
       <c r="F155" t="n">
-        <v>3252.4724</v>
+        <v>1</v>
       </c>
       <c r="G155" t="n">
-        <v>879.55</v>
+        <v>879.85</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>851</v>
+        <v>866</v>
       </c>
       <c r="C156" t="n">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="D156" t="n">
-        <v>851</v>
+        <v>866</v>
       </c>
       <c r="E156" t="n">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="F156" t="n">
-        <v>792.7080999999999</v>
+        <v>3252.4724</v>
       </c>
       <c r="G156" t="n">
-        <v>879.1666666666666</v>
+        <v>879.55</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5861,19 +5861,19 @@
         <v>851</v>
       </c>
       <c r="C157" t="n">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="D157" t="n">
         <v>851</v>
       </c>
       <c r="E157" t="n">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="F157" t="n">
-        <v>274.037</v>
+        <v>792.7080999999999</v>
       </c>
       <c r="G157" t="n">
-        <v>878.7333333333333</v>
+        <v>879.1666666666666</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C158" t="n">
-        <v>887</v>
+        <v>848</v>
       </c>
       <c r="D158" t="n">
-        <v>887</v>
+        <v>851</v>
       </c>
       <c r="E158" t="n">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="F158" t="n">
-        <v>24</v>
+        <v>274.037</v>
       </c>
       <c r="G158" t="n">
-        <v>878.95</v>
+        <v>878.7333333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +5928,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C159" t="n">
-        <v>858</v>
+        <v>887</v>
       </c>
       <c r="D159" t="n">
-        <v>859</v>
+        <v>887</v>
       </c>
       <c r="E159" t="n">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="F159" t="n">
-        <v>288.4246</v>
+        <v>24</v>
       </c>
       <c r="G159" t="n">
-        <v>878.6666666666666</v>
+        <v>878.95</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C160" t="n">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="D160" t="n">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E160" t="n">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="F160" t="n">
-        <v>235.571</v>
+        <v>288.4246</v>
       </c>
       <c r="G160" t="n">
-        <v>878.4</v>
+        <v>878.6666666666666</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C161" t="n">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="D161" t="n">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="E161" t="n">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="F161" t="n">
-        <v>2</v>
+        <v>235.571</v>
       </c>
       <c r="G161" t="n">
-        <v>878.0666666666667</v>
+        <v>878.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C162" t="n">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="D162" t="n">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="E162" t="n">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="F162" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G162" t="n">
-        <v>877.7333333333333</v>
+        <v>878.0666666666667</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="C163" t="n">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="D163" t="n">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="E163" t="n">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="F163" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G163" t="n">
-        <v>877.3166666666667</v>
+        <v>877.7333333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="C164" t="n">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D164" t="n">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E164" t="n">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="F164" t="n">
-        <v>44.5924</v>
+        <v>1</v>
       </c>
       <c r="G164" t="n">
-        <v>876.9166666666666</v>
+        <v>877.3166666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="C165" t="n">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D165" t="n">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E165" t="n">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="F165" t="n">
-        <v>525.7905</v>
+        <v>44.5924</v>
       </c>
       <c r="G165" t="n">
-        <v>876.8166666666667</v>
+        <v>876.9166666666666</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C166" t="n">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D166" t="n">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E166" t="n">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F166" t="n">
-        <v>1</v>
+        <v>525.7905</v>
       </c>
       <c r="G166" t="n">
-        <v>876.65</v>
+        <v>876.8166666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6220,10 +6220,10 @@
         <v>862</v>
       </c>
       <c r="F167" t="n">
-        <v>288.9</v>
+        <v>1</v>
       </c>
       <c r="G167" t="n">
-        <v>876.45</v>
+        <v>876.65</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C168" t="n">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D168" t="n">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E168" t="n">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F168" t="n">
-        <v>118.5511</v>
+        <v>288.9</v>
       </c>
       <c r="G168" t="n">
-        <v>876.3333333333334</v>
+        <v>876.45</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6278,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
+        <v>865</v>
+      </c>
+      <c r="C169" t="n">
         <v>864</v>
       </c>
-      <c r="C169" t="n">
-        <v>862</v>
-      </c>
       <c r="D169" t="n">
+        <v>865</v>
+      </c>
+      <c r="E169" t="n">
         <v>864</v>
       </c>
-      <c r="E169" t="n">
-        <v>862</v>
-      </c>
       <c r="F169" t="n">
-        <v>2</v>
+        <v>118.5511</v>
       </c>
       <c r="G169" t="n">
-        <v>876.15</v>
+        <v>876.3333333333334</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6316,19 +6316,19 @@
         <v>864</v>
       </c>
       <c r="C170" t="n">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D170" t="n">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E170" t="n">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F170" t="n">
-        <v>1100.7904</v>
+        <v>2</v>
       </c>
       <c r="G170" t="n">
-        <v>875.9333333333333</v>
+        <v>876.15</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6348,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="C171" t="n">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="D171" t="n">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="E171" t="n">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="F171" t="n">
-        <v>1</v>
+        <v>1100.7904</v>
       </c>
       <c r="G171" t="n">
-        <v>875.55</v>
+        <v>875.9333333333333</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6383,22 +6383,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C172" t="n">
-        <v>851</v>
+        <v>860</v>
       </c>
       <c r="D172" t="n">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E172" t="n">
-        <v>851</v>
+        <v>860</v>
       </c>
       <c r="F172" t="n">
-        <v>4018.1589</v>
+        <v>1</v>
       </c>
       <c r="G172" t="n">
-        <v>875.0833333333334</v>
+        <v>875.55</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="C173" t="n">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="D173" t="n">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="E173" t="n">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="F173" t="n">
-        <v>401.8</v>
+        <v>4018.1589</v>
       </c>
       <c r="G173" t="n">
-        <v>874.7166666666667</v>
+        <v>875.0833333333334</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C174" t="n">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D174" t="n">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E174" t="n">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F174" t="n">
-        <v>419.8643</v>
+        <v>401.8</v>
       </c>
       <c r="G174" t="n">
-        <v>874.4</v>
+        <v>874.7166666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C175" t="n">
         <v>857</v>
       </c>
       <c r="D175" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E175" t="n">
         <v>857</v>
       </c>
       <c r="F175" t="n">
-        <v>2140</v>
+        <v>419.8643</v>
       </c>
       <c r="G175" t="n">
-        <v>874.1</v>
+        <v>874.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6535,10 +6535,10 @@
         <v>857</v>
       </c>
       <c r="F176" t="n">
-        <v>1670</v>
+        <v>2140</v>
       </c>
       <c r="G176" t="n">
-        <v>873.8</v>
+        <v>874.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C177" t="n">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="D177" t="n">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E177" t="n">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F177" t="n">
-        <v>5</v>
+        <v>1670</v>
       </c>
       <c r="G177" t="n">
-        <v>873.5833333333334</v>
+        <v>873.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,22 +6593,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="C178" t="n">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="D178" t="n">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="E178" t="n">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="F178" t="n">
-        <v>37.85</v>
+        <v>5</v>
       </c>
       <c r="G178" t="n">
-        <v>873.2166666666667</v>
+        <v>873.5833333333334</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C179" t="n">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D179" t="n">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="E179" t="n">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="F179" t="n">
-        <v>277.4205</v>
+        <v>37.85</v>
       </c>
       <c r="G179" t="n">
-        <v>872.65</v>
+        <v>873.2166666666667</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C180" t="n">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D180" t="n">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E180" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="F180" t="n">
-        <v>1437.882</v>
+        <v>277.4205</v>
       </c>
       <c r="G180" t="n">
-        <v>872.05</v>
+        <v>872.65</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6698,10 +6698,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C181" t="n">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D181" t="n">
         <v>859</v>
@@ -6710,10 +6710,10 @@
         <v>857</v>
       </c>
       <c r="F181" t="n">
-        <v>255.8909</v>
+        <v>1437.882</v>
       </c>
       <c r="G181" t="n">
-        <v>871.5166666666667</v>
+        <v>872.05</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +6733,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="C182" t="n">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="D182" t="n">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="E182" t="n">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="F182" t="n">
-        <v>1171.1909</v>
+        <v>255.8909</v>
       </c>
       <c r="G182" t="n">
-        <v>871.0666666666667</v>
+        <v>871.5166666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,22 +6768,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="C183" t="n">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="D183" t="n">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="E183" t="n">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="F183" t="n">
-        <v>1457.6155</v>
+        <v>1171.1909</v>
       </c>
       <c r="G183" t="n">
-        <v>870.5166666666667</v>
+        <v>871.0666666666667</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="C184" t="n">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="D184" t="n">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="E184" t="n">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="F184" t="n">
-        <v>31.954</v>
+        <v>1457.6155</v>
       </c>
       <c r="G184" t="n">
-        <v>869.9166666666666</v>
+        <v>870.5166666666667</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,22 +6838,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C185" t="n">
-        <v>831</v>
+        <v>846</v>
       </c>
       <c r="D185" t="n">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="E185" t="n">
-        <v>831</v>
+        <v>846</v>
       </c>
       <c r="F185" t="n">
-        <v>8555.9131</v>
+        <v>31.954</v>
       </c>
       <c r="G185" t="n">
-        <v>869.1333333333333</v>
+        <v>869.9166666666666</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,22 +6873,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>828</v>
+        <v>842</v>
       </c>
       <c r="C186" t="n">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="D186" t="n">
-        <v>828</v>
+        <v>842</v>
       </c>
       <c r="E186" t="n">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="F186" t="n">
-        <v>287.5152</v>
+        <v>8555.9131</v>
       </c>
       <c r="G186" t="n">
-        <v>868.3833333333333</v>
+        <v>869.1333333333333</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6911,19 +6911,19 @@
         <v>828</v>
       </c>
       <c r="C187" t="n">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="D187" t="n">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="E187" t="n">
         <v>828</v>
       </c>
       <c r="F187" t="n">
-        <v>1085.36</v>
+        <v>287.5152</v>
       </c>
       <c r="G187" t="n">
-        <v>867.7333333333333</v>
+        <v>868.3833333333333</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6946,19 +6946,19 @@
         <v>828</v>
       </c>
       <c r="C188" t="n">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="D188" t="n">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="E188" t="n">
         <v>828</v>
       </c>
       <c r="F188" t="n">
-        <v>16.0504</v>
+        <v>1085.36</v>
       </c>
       <c r="G188" t="n">
-        <v>867.0333333333333</v>
+        <v>867.7333333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,22 +6978,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C189" t="n">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D189" t="n">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E189" t="n">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="F189" t="n">
-        <v>120.3982</v>
+        <v>16.0504</v>
       </c>
       <c r="G189" t="n">
-        <v>866.3333333333334</v>
+        <v>867.0333333333333</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7013,31 +7013,35 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="C190" t="n">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="D190" t="n">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="E190" t="n">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="F190" t="n">
-        <v>397.59</v>
+        <v>120.3982</v>
       </c>
       <c r="G190" t="n">
-        <v>865.7</v>
+        <v>866.3333333333334</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>828</v>
+      </c>
+      <c r="K190" t="n">
+        <v>828</v>
+      </c>
       <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
@@ -7048,32 +7052,40 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C191" t="n">
+        <v>831</v>
+      </c>
+      <c r="D191" t="n">
+        <v>831</v>
+      </c>
+      <c r="E191" t="n">
+        <v>831</v>
+      </c>
+      <c r="F191" t="n">
+        <v>397.59</v>
+      </c>
+      <c r="G191" t="n">
+        <v>865.7</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>827</v>
+      </c>
+      <c r="K191" t="n">
         <v>828</v>
       </c>
-      <c r="D191" t="n">
-        <v>840</v>
-      </c>
-      <c r="E191" t="n">
-        <v>828</v>
-      </c>
-      <c r="F191" t="n">
-        <v>1740.0901</v>
-      </c>
-      <c r="G191" t="n">
-        <v>864.9333333333333</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7083,22 +7095,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="C192" t="n">
         <v>828</v>
       </c>
       <c r="D192" t="n">
-        <v>828</v>
+        <v>840</v>
       </c>
       <c r="E192" t="n">
         <v>828</v>
       </c>
       <c r="F192" t="n">
-        <v>60</v>
+        <v>1740.0901</v>
       </c>
       <c r="G192" t="n">
-        <v>864.15</v>
+        <v>864.9333333333333</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7107,8 +7119,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>828</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7118,22 +7136,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="C193" t="n">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="D193" t="n">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="E193" t="n">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="F193" t="n">
-        <v>1387.5994</v>
+        <v>60</v>
       </c>
       <c r="G193" t="n">
-        <v>863.6</v>
+        <v>864.15</v>
       </c>
       <c r="H193" t="n">
         <v>1</v>
@@ -7147,7 +7165,11 @@
       <c r="K193" t="n">
         <v>828</v>
       </c>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7157,38 +7179,36 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C194" t="n">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="D194" t="n">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="E194" t="n">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="F194" t="n">
-        <v>800</v>
+        <v>1387.5994</v>
       </c>
       <c r="G194" t="n">
-        <v>862.9333333333333</v>
+        <v>863.6</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>840</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
         <v>828</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M194" t="n">
@@ -7200,38 +7220,36 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C195" t="n">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D195" t="n">
         <v>834</v>
       </c>
       <c r="E195" t="n">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="F195" t="n">
-        <v>862.1913</v>
+        <v>800</v>
       </c>
       <c r="G195" t="n">
-        <v>862.1</v>
+        <v>862.9333333333333</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>834</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
         <v>828</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M195" t="n">
@@ -7243,22 +7261,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
+        <v>833</v>
+      </c>
+      <c r="C196" t="n">
+        <v>832</v>
+      </c>
+      <c r="D196" t="n">
+        <v>834</v>
+      </c>
+      <c r="E196" t="n">
         <v>831</v>
       </c>
-      <c r="C196" t="n">
-        <v>826</v>
-      </c>
-      <c r="D196" t="n">
-        <v>831</v>
-      </c>
-      <c r="E196" t="n">
-        <v>826</v>
-      </c>
       <c r="F196" t="n">
-        <v>577.5417</v>
+        <v>862.1913</v>
       </c>
       <c r="G196" t="n">
-        <v>861.1833333333333</v>
+        <v>862.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7267,8 +7285,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>828</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7278,22 +7302,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>823</v>
+        <v>831</v>
       </c>
       <c r="C197" t="n">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="D197" t="n">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="E197" t="n">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="F197" t="n">
-        <v>2</v>
+        <v>577.5417</v>
       </c>
       <c r="G197" t="n">
-        <v>860.4</v>
+        <v>861.1833333333333</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7302,8 +7326,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>828</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7313,22 +7343,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C198" t="n">
-        <v>826</v>
+        <v>842</v>
       </c>
       <c r="D198" t="n">
-        <v>826</v>
+        <v>842</v>
       </c>
       <c r="E198" t="n">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="F198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G198" t="n">
-        <v>859</v>
+        <v>860.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7337,8 +7367,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>828</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7348,32 +7384,40 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C199" t="n">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="D199" t="n">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E199" t="n">
-        <v>818</v>
+        <v>826</v>
       </c>
       <c r="F199" t="n">
-        <v>135.5214</v>
+        <v>1</v>
       </c>
       <c r="G199" t="n">
-        <v>857.85</v>
+        <v>859</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>842</v>
+      </c>
+      <c r="K199" t="n">
+        <v>828</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7383,32 +7427,40 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="C200" t="n">
-        <v>840</v>
+        <v>819</v>
       </c>
       <c r="D200" t="n">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="E200" t="n">
-        <v>840</v>
+        <v>818</v>
       </c>
       <c r="F200" t="n">
-        <v>1.1</v>
+        <v>135.5214</v>
       </c>
       <c r="G200" t="n">
-        <v>856.9166666666666</v>
+        <v>857.85</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>826</v>
+      </c>
+      <c r="K200" t="n">
+        <v>828</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7418,22 +7470,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>821</v>
+        <v>840</v>
       </c>
       <c r="C201" t="n">
-        <v>818</v>
+        <v>840</v>
       </c>
       <c r="D201" t="n">
-        <v>821</v>
+        <v>840</v>
       </c>
       <c r="E201" t="n">
-        <v>818</v>
+        <v>840</v>
       </c>
       <c r="F201" t="n">
-        <v>70.93000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G201" t="n">
-        <v>855.6</v>
+        <v>856.9166666666666</v>
       </c>
       <c r="H201" t="n">
         <v>1</v>
@@ -7442,12 +7494,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>840</v>
-      </c>
-      <c r="K201" t="inlineStr"/>
+        <v>819</v>
+      </c>
+      <c r="K201" t="n">
+        <v>828</v>
+      </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M201" t="n">
@@ -7462,19 +7516,19 @@
         <v>821</v>
       </c>
       <c r="C202" t="n">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D202" t="n">
         <v>821</v>
       </c>
       <c r="E202" t="n">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="F202" t="n">
-        <v>164.264</v>
+        <v>70.93000000000001</v>
       </c>
       <c r="G202" t="n">
-        <v>854.3333333333334</v>
+        <v>855.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7483,7 +7537,9 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>828</v>
+      </c>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7498,22 +7554,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C203" t="n">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D203" t="n">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="E203" t="n">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="F203" t="n">
-        <v>3043.8094</v>
+        <v>164.264</v>
       </c>
       <c r="G203" t="n">
-        <v>853.1333333333333</v>
+        <v>854.3333333333334</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7522,7 +7578,9 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>828</v>
+      </c>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7540,19 +7598,19 @@
         <v>824</v>
       </c>
       <c r="C204" t="n">
-        <v>839</v>
+        <v>824</v>
       </c>
       <c r="D204" t="n">
-        <v>839</v>
+        <v>824</v>
       </c>
       <c r="E204" t="n">
         <v>824</v>
       </c>
       <c r="F204" t="n">
-        <v>237.874</v>
+        <v>3043.8094</v>
       </c>
       <c r="G204" t="n">
-        <v>852.1833333333333</v>
+        <v>853.1333333333333</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7561,7 +7619,9 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>828</v>
+      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7576,31 +7636,33 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
+        <v>824</v>
+      </c>
+      <c r="C205" t="n">
+        <v>839</v>
+      </c>
+      <c r="D205" t="n">
+        <v>839</v>
+      </c>
+      <c r="E205" t="n">
+        <v>824</v>
+      </c>
+      <c r="F205" t="n">
+        <v>237.874</v>
+      </c>
+      <c r="G205" t="n">
+        <v>852.1833333333333</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
         <v>828</v>
       </c>
-      <c r="C205" t="n">
-        <v>828</v>
-      </c>
-      <c r="D205" t="n">
-        <v>828</v>
-      </c>
-      <c r="E205" t="n">
-        <v>828</v>
-      </c>
-      <c r="F205" t="n">
-        <v>251.1786</v>
-      </c>
-      <c r="G205" t="n">
-        <v>851.0666666666667</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7615,22 +7677,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C206" t="n">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D206" t="n">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="E206" t="n">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="F206" t="n">
-        <v>36.2781</v>
+        <v>251.1786</v>
       </c>
       <c r="G206" t="n">
-        <v>850.05</v>
+        <v>851.0666666666667</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7639,7 +7701,9 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>828</v>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7654,22 +7718,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C207" t="n">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D207" t="n">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E207" t="n">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F207" t="n">
-        <v>447.7433</v>
+        <v>36.2781</v>
       </c>
       <c r="G207" t="n">
-        <v>849.1666666666666</v>
+        <v>850.05</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7678,7 +7742,9 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>828</v>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7693,22 +7759,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C208" t="n">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D208" t="n">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E208" t="n">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="F208" t="n">
-        <v>499.9217</v>
+        <v>447.7433</v>
       </c>
       <c r="G208" t="n">
-        <v>848.4</v>
+        <v>849.1666666666666</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7717,7 +7783,9 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>828</v>
+      </c>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7732,22 +7800,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="C209" t="n">
         <v>831</v>
       </c>
       <c r="D209" t="n">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="E209" t="n">
         <v>831</v>
       </c>
       <c r="F209" t="n">
-        <v>851.629</v>
+        <v>499.9217</v>
       </c>
       <c r="G209" t="n">
-        <v>847.55</v>
+        <v>848.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7756,7 +7824,9 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>828</v>
+      </c>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7771,22 +7841,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C210" t="n">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="D210" t="n">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E210" t="n">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="F210" t="n">
-        <v>1847.8064</v>
+        <v>851.629</v>
       </c>
       <c r="G210" t="n">
-        <v>846.8333333333334</v>
+        <v>847.55</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7795,7 +7865,9 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>828</v>
+      </c>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7810,22 +7882,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="C211" t="n">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D211" t="n">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E211" t="n">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="F211" t="n">
-        <v>29.6687</v>
+        <v>1847.8064</v>
       </c>
       <c r="G211" t="n">
-        <v>846.2833333333333</v>
+        <v>846.8333333333334</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7834,7 +7906,9 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>828</v>
+      </c>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7849,22 +7923,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C212" t="n">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="D212" t="n">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="E212" t="n">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="F212" t="n">
-        <v>112.103</v>
+        <v>29.6687</v>
       </c>
       <c r="G212" t="n">
-        <v>845.8666666666667</v>
+        <v>846.2833333333333</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7873,7 +7947,9 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>828</v>
+      </c>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7883,6 +7959,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>842</v>
+      </c>
+      <c r="C213" t="n">
+        <v>842</v>
+      </c>
+      <c r="D213" t="n">
+        <v>842</v>
+      </c>
+      <c r="E213" t="n">
+        <v>842</v>
+      </c>
+      <c r="F213" t="n">
+        <v>112.103</v>
+      </c>
+      <c r="G213" t="n">
+        <v>845.8666666666667</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>828</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-31 BackTest WTC.xlsx
+++ b/BackTest/2019-10-31 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M213"/>
+  <dimension ref="A1:N223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>48.5367</v>
       </c>
       <c r="G2" t="n">
+        <v>852.6666666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>875.6</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>160</v>
       </c>
       <c r="G3" t="n">
+        <v>853.0666666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>874.7166666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>20</v>
       </c>
       <c r="G4" t="n">
+        <v>853.9333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>874.1333333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>85.1799</v>
       </c>
       <c r="G5" t="n">
+        <v>854.4</v>
+      </c>
+      <c r="H5" t="n">
         <v>873.5</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>368.9</v>
       </c>
       <c r="G6" t="n">
+        <v>854.4666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>872.8833333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>944.8141000000001</v>
       </c>
       <c r="G7" t="n">
+        <v>853.6666666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>872.15</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>897.2236</v>
       </c>
       <c r="G8" t="n">
+        <v>853.0666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>871.3666666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>325.3</v>
       </c>
       <c r="G9" t="n">
+        <v>852.6</v>
+      </c>
+      <c r="H9" t="n">
         <v>870.8166666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>83.1234</v>
       </c>
       <c r="G10" t="n">
+        <v>851.7333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>870.2666666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>34.4986</v>
       </c>
       <c r="G11" t="n">
+        <v>851.6666666666666</v>
+      </c>
+      <c r="H11" t="n">
         <v>869.75</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>44.56</v>
       </c>
       <c r="G12" t="n">
+        <v>851.8</v>
+      </c>
+      <c r="H12" t="n">
         <v>869.0833333333334</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>460.7957</v>
       </c>
       <c r="G13" t="n">
+        <v>851.9333333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>868.4666666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>112.5162</v>
       </c>
       <c r="G14" t="n">
+        <v>851.8666666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>867.8666666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>398.35</v>
       </c>
       <c r="G15" t="n">
+        <v>851.6666666666666</v>
+      </c>
+      <c r="H15" t="n">
         <v>867.3166666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>551.4419</v>
       </c>
       <c r="G16" t="n">
+        <v>851.6</v>
+      </c>
+      <c r="H16" t="n">
         <v>866.75</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>5268.4242</v>
       </c>
       <c r="G17" t="n">
+        <v>851.2</v>
+      </c>
+      <c r="H17" t="n">
         <v>866.1</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>39.1584</v>
       </c>
       <c r="G18" t="n">
+        <v>850.9333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>865.55</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>264.2124</v>
       </c>
       <c r="G19" t="n">
+        <v>850.6</v>
+      </c>
+      <c r="H19" t="n">
         <v>865.1</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>1025</v>
       </c>
       <c r="G20" t="n">
+        <v>850.8</v>
+      </c>
+      <c r="H20" t="n">
         <v>864.85</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>270</v>
       </c>
       <c r="G21" t="n">
+        <v>851.2</v>
+      </c>
+      <c r="H21" t="n">
         <v>864.5</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>590</v>
       </c>
       <c r="G22" t="n">
+        <v>852.0666666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>864.2</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>36.34</v>
       </c>
       <c r="G23" t="n">
+        <v>852.8666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>863.9166666666666</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>245.1399</v>
       </c>
       <c r="G24" t="n">
+        <v>853.4666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>863.5666666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>255.78</v>
       </c>
       <c r="G25" t="n">
+        <v>854.3333333333334</v>
+      </c>
+      <c r="H25" t="n">
         <v>863.2333333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>1980.7132</v>
       </c>
       <c r="G26" t="n">
+        <v>854.5333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>862.7666666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>46.1548</v>
       </c>
       <c r="G27" t="n">
+        <v>855.2666666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>862.5</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>4912.879</v>
       </c>
       <c r="G28" t="n">
+        <v>855.2</v>
+      </c>
+      <c r="H28" t="n">
         <v>861.9</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>338.1522</v>
       </c>
       <c r="G29" t="n">
+        <v>855.7333333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>861.25</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>711.4405</v>
       </c>
       <c r="G30" t="n">
+        <v>856</v>
+      </c>
+      <c r="H30" t="n">
         <v>860.5166666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>17.266</v>
       </c>
       <c r="G31" t="n">
+        <v>856.4</v>
+      </c>
+      <c r="H31" t="n">
         <v>859.7</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>17.1529</v>
       </c>
       <c r="G32" t="n">
+        <v>856.4666666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>858.95</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>323.2738</v>
       </c>
       <c r="G33" t="n">
+        <v>856.1333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>858.2166666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>47.5</v>
       </c>
       <c r="G34" t="n">
+        <v>855.8</v>
+      </c>
+      <c r="H34" t="n">
         <v>857.5</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>70.6281</v>
       </c>
       <c r="G35" t="n">
+        <v>855.4666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>856.8</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>700</v>
       </c>
       <c r="G36" t="n">
+        <v>855</v>
+      </c>
+      <c r="H36" t="n">
         <v>856.05</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>1258.675</v>
       </c>
       <c r="G37" t="n">
+        <v>853.9333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>855.1166666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>109.5316</v>
       </c>
       <c r="G38" t="n">
+        <v>853.5333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>854.25</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>312.7023</v>
       </c>
       <c r="G39" t="n">
+        <v>853.0666666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>854.1166666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>297.4112</v>
       </c>
       <c r="G40" t="n">
+        <v>852.6666666666666</v>
+      </c>
+      <c r="H40" t="n">
         <v>853.8833333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>1190</v>
       </c>
       <c r="G41" t="n">
+        <v>853.2</v>
+      </c>
+      <c r="H41" t="n">
         <v>853.8666666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>246.2</v>
       </c>
       <c r="G42" t="n">
+        <v>852.7333333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>853.55</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>270</v>
       </c>
       <c r="G43" t="n">
+        <v>853.3333333333334</v>
+      </c>
+      <c r="H43" t="n">
         <v>853.6</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>675.0039</v>
       </c>
       <c r="G44" t="n">
+        <v>853.5333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>853.85</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>499.9999</v>
       </c>
       <c r="G45" t="n">
+        <v>853.7333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>853.8166666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>75.2512</v>
       </c>
       <c r="G46" t="n">
+        <v>853.6</v>
+      </c>
+      <c r="H46" t="n">
         <v>853.6666666666666</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>112.804</v>
       </c>
       <c r="G47" t="n">
+        <v>853.6666666666666</v>
+      </c>
+      <c r="H47" t="n">
         <v>853.5</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>467.0327</v>
       </c>
       <c r="G48" t="n">
+        <v>853.8</v>
+      </c>
+      <c r="H48" t="n">
         <v>853.4833333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>526.3371</v>
       </c>
       <c r="G49" t="n">
+        <v>854.2</v>
+      </c>
+      <c r="H49" t="n">
         <v>853.6333333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>361.8196</v>
       </c>
       <c r="G50" t="n">
+        <v>854.5333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>853.8</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>175</v>
       </c>
       <c r="G51" t="n">
+        <v>855.2</v>
+      </c>
+      <c r="H51" t="n">
         <v>853.9666666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>285.11</v>
       </c>
       <c r="G52" t="n">
+        <v>856.2</v>
+      </c>
+      <c r="H52" t="n">
         <v>853.9666666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>32.573</v>
       </c>
       <c r="G53" t="n">
+        <v>856.6</v>
+      </c>
+      <c r="H53" t="n">
         <v>854.0166666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>552.3137</v>
       </c>
       <c r="G54" t="n">
+        <v>856.6666666666666</v>
+      </c>
+      <c r="H54" t="n">
         <v>853.95</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>234.8932</v>
       </c>
       <c r="G55" t="n">
+        <v>856.4</v>
+      </c>
+      <c r="H55" t="n">
         <v>853.7833333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>32.8895</v>
       </c>
       <c r="G56" t="n">
+        <v>855.6666666666666</v>
+      </c>
+      <c r="H56" t="n">
         <v>853.7666666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>240.5497</v>
       </c>
       <c r="G57" t="n">
+        <v>855</v>
+      </c>
+      <c r="H57" t="n">
         <v>853.7</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,27 @@
         <v>939.7007</v>
       </c>
       <c r="G58" t="n">
+        <v>853.8666666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>853.5833333333334</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>845</v>
+      </c>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2625,27 @@
         <v>25</v>
       </c>
       <c r="G59" t="n">
+        <v>852.9333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>853.5166666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>843</v>
+      </c>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2669,27 @@
         <v>4.2179</v>
       </c>
       <c r="G60" t="n">
+        <v>852.6</v>
+      </c>
+      <c r="H60" t="n">
         <v>853.5</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>843</v>
+      </c>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2713,27 @@
         <v>563.7768</v>
       </c>
       <c r="G61" t="n">
+        <v>852.1333333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>853.4333333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>849</v>
+      </c>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2757,27 @@
         <v>563.6076</v>
       </c>
       <c r="G62" t="n">
+        <v>851.3333333333334</v>
+      </c>
+      <c r="H62" t="n">
         <v>853.1666666666666</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>843</v>
+      </c>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2801,27 @@
         <v>245.8712</v>
       </c>
       <c r="G63" t="n">
+        <v>850.5333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>852.85</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>841</v>
+      </c>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2845,27 @@
         <v>37.08</v>
       </c>
       <c r="G64" t="n">
+        <v>849.4</v>
+      </c>
+      <c r="H64" t="n">
         <v>852.5</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>842</v>
+      </c>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2889,27 @@
         <v>245.871</v>
       </c>
       <c r="G65" t="n">
+        <v>848.4666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>852.3166666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>841</v>
+      </c>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2933,27 @@
         <v>2948.3305</v>
       </c>
       <c r="G66" t="n">
+        <v>847.2</v>
+      </c>
+      <c r="H66" t="n">
         <v>852.15</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>844</v>
+      </c>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2977,25 @@
         <v>509.3001</v>
       </c>
       <c r="G67" t="n">
+        <v>846.2</v>
+      </c>
+      <c r="H67" t="n">
         <v>852.1</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3019,25 @@
         <v>37.095</v>
       </c>
       <c r="G68" t="n">
+        <v>845.2666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>852.0666666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3061,25 @@
         <v>346.93</v>
       </c>
       <c r="G69" t="n">
+        <v>844.8666666666667</v>
+      </c>
+      <c r="H69" t="n">
         <v>852.0166666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3103,25 @@
         <v>335</v>
       </c>
       <c r="G70" t="n">
+        <v>844.9333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>852.0833333333334</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3145,25 @@
         <v>2525.4301</v>
       </c>
       <c r="G71" t="n">
+        <v>844.4666666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>851.9666666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3187,25 @@
         <v>792.712</v>
       </c>
       <c r="G72" t="n">
+        <v>844.5333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>851.8833333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3229,25 @@
         <v>293.062</v>
       </c>
       <c r="G73" t="n">
+        <v>844.9333333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>851.8333333333334</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3271,25 @@
         <v>293.062</v>
       </c>
       <c r="G74" t="n">
+        <v>845.2666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>851.8666666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3313,25 @@
         <v>2.1335</v>
       </c>
       <c r="G75" t="n">
+        <v>845.3333333333334</v>
+      </c>
+      <c r="H75" t="n">
         <v>851.9166666666666</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3355,25 @@
         <v>1</v>
       </c>
       <c r="G76" t="n">
+        <v>846.1333333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>852.0666666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3397,25 @@
         <v>497.9812</v>
       </c>
       <c r="G77" t="n">
+        <v>847.1333333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>852.15</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3439,25 @@
         <v>564</v>
       </c>
       <c r="G78" t="n">
+        <v>848.3333333333334</v>
+      </c>
+      <c r="H78" t="n">
         <v>852.2</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3481,25 @@
         <v>1152.18</v>
       </c>
       <c r="G79" t="n">
+        <v>848.5333333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>851.9833333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3523,25 @@
         <v>600</v>
       </c>
       <c r="G80" t="n">
+        <v>848.8</v>
+      </c>
+      <c r="H80" t="n">
         <v>851.8166666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3565,25 @@
         <v>47.6644</v>
       </c>
       <c r="G81" t="n">
+        <v>849.2666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>851.6666666666666</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3607,25 @@
         <v>771.4227</v>
       </c>
       <c r="G82" t="n">
+        <v>849.8</v>
+      </c>
+      <c r="H82" t="n">
         <v>851.5333333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3649,25 @@
         <v>510</v>
       </c>
       <c r="G83" t="n">
+        <v>850.3333333333334</v>
+      </c>
+      <c r="H83" t="n">
         <v>851.4333333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3691,25 @@
         <v>397.5</v>
       </c>
       <c r="G84" t="n">
+        <v>850.6</v>
+      </c>
+      <c r="H84" t="n">
         <v>851.3</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3733,25 @@
         <v>427.917</v>
       </c>
       <c r="G85" t="n">
+        <v>850.8666666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>851.2166666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3775,25 @@
         <v>464.1913</v>
       </c>
       <c r="G86" t="n">
+        <v>851.6666666666666</v>
+      </c>
+      <c r="H86" t="n">
         <v>851.25</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3817,25 @@
         <v>596.5824</v>
       </c>
       <c r="G87" t="n">
+        <v>852.2</v>
+      </c>
+      <c r="H87" t="n">
         <v>851.1166666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3859,25 @@
         <v>684.99</v>
       </c>
       <c r="G88" t="n">
+        <v>852.5333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>851.1666666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3901,25 @@
         <v>800</v>
       </c>
       <c r="G89" t="n">
+        <v>853.1333333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>851.2166666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3943,25 @@
         <v>32.8766</v>
       </c>
       <c r="G90" t="n">
+        <v>853.6</v>
+      </c>
+      <c r="H90" t="n">
         <v>851.3166666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3985,25 @@
         <v>74.8125</v>
       </c>
       <c r="G91" t="n">
+        <v>853.4666666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>851.3333333333334</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +4027,25 @@
         <v>32.8766</v>
       </c>
       <c r="G92" t="n">
+        <v>853.6</v>
+      </c>
+      <c r="H92" t="n">
         <v>851.4333333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4069,25 @@
         <v>300</v>
       </c>
       <c r="G93" t="n">
+        <v>853.6</v>
+      </c>
+      <c r="H93" t="n">
         <v>851.5666666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4111,25 @@
         <v>1125</v>
       </c>
       <c r="G94" t="n">
+        <v>854.9333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>851.7666666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4153,25 @@
         <v>77.97</v>
       </c>
       <c r="G95" t="n">
+        <v>856.0666666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>851.9666666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4195,25 @@
         <v>1</v>
       </c>
       <c r="G96" t="n">
+        <v>857.0666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>852.1833333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4237,25 @@
         <v>1</v>
       </c>
       <c r="G97" t="n">
+        <v>857.9333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>852.5333333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4279,25 @@
         <v>1786.8021</v>
       </c>
       <c r="G98" t="n">
+        <v>859.3333333333334</v>
+      </c>
+      <c r="H98" t="n">
         <v>852.8833333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4321,25 @@
         <v>19.3612</v>
       </c>
       <c r="G99" t="n">
+        <v>860.8666666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>853.25</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4363,25 @@
         <v>121.95</v>
       </c>
       <c r="G100" t="n">
+        <v>862.2</v>
+      </c>
+      <c r="H100" t="n">
         <v>853.6</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4405,25 @@
         <v>1</v>
       </c>
       <c r="G101" t="n">
+        <v>863.8</v>
+      </c>
+      <c r="H101" t="n">
         <v>853.9</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4447,25 @@
         <v>380.1082</v>
       </c>
       <c r="G102" t="n">
+        <v>865.5333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>854.3166666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4489,25 @@
         <v>185.5851</v>
       </c>
       <c r="G103" t="n">
+        <v>867.5333333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>854.7166666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4531,25 @@
         <v>1</v>
       </c>
       <c r="G104" t="n">
+        <v>869.4666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>855.2</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4573,25 @@
         <v>26</v>
       </c>
       <c r="G105" t="n">
+        <v>871.2666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>855.7</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4615,25 @@
         <v>474</v>
       </c>
       <c r="G106" t="n">
+        <v>872.3333333333334</v>
+      </c>
+      <c r="H106" t="n">
         <v>856.0166666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4657,25 @@
         <v>1</v>
       </c>
       <c r="G107" t="n">
+        <v>873.2666666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>856.3333333333334</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4699,25 @@
         <v>1315.1809</v>
       </c>
       <c r="G108" t="n">
+        <v>874.2</v>
+      </c>
+      <c r="H108" t="n">
         <v>856.6666666666666</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4741,25 @@
         <v>351.6429</v>
       </c>
       <c r="G109" t="n">
+        <v>874.6666666666666</v>
+      </c>
+      <c r="H109" t="n">
         <v>856.8833333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4783,25 @@
         <v>1251.5649</v>
       </c>
       <c r="G110" t="n">
+        <v>875.2</v>
+      </c>
+      <c r="H110" t="n">
         <v>857.1333333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4825,25 @@
         <v>7.2541</v>
       </c>
       <c r="G111" t="n">
+        <v>875.8</v>
+      </c>
+      <c r="H111" t="n">
         <v>857.3333333333334</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4867,25 @@
         <v>10</v>
       </c>
       <c r="G112" t="n">
+        <v>876.8666666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>857.7</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4909,25 @@
         <v>47.4418</v>
       </c>
       <c r="G113" t="n">
+        <v>877.2</v>
+      </c>
+      <c r="H113" t="n">
         <v>858.0333333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4951,25 @@
         <v>275.2076</v>
       </c>
       <c r="G114" t="n">
+        <v>877.6</v>
+      </c>
+      <c r="H114" t="n">
         <v>858.4833333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4993,25 @@
         <v>15.7413</v>
       </c>
       <c r="G115" t="n">
+        <v>877.6666666666666</v>
+      </c>
+      <c r="H115" t="n">
         <v>858.9166666666666</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,20 +5035,25 @@
         <v>36.6748</v>
       </c>
       <c r="G116" t="n">
+        <v>877.4666666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>859.35</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4473,18 +5075,21 @@
         <v>257.919</v>
       </c>
       <c r="G117" t="n">
+        <v>877.1333333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>859.85</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +5113,21 @@
         <v>316.5738</v>
       </c>
       <c r="G118" t="n">
+        <v>876.4666666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>860.3666666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +5151,21 @@
         <v>15.0525</v>
       </c>
       <c r="G119" t="n">
+        <v>876</v>
+      </c>
+      <c r="H119" t="n">
         <v>860.9666666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +5189,21 @@
         <v>1197.6166</v>
       </c>
       <c r="G120" t="n">
+        <v>876.6666666666666</v>
+      </c>
+      <c r="H120" t="n">
         <v>861.7166666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +5227,21 @@
         <v>433.231</v>
       </c>
       <c r="G121" t="n">
+        <v>878.3333333333334</v>
+      </c>
+      <c r="H121" t="n">
         <v>862.5666666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5265,21 @@
         <v>292.0606</v>
       </c>
       <c r="G122" t="n">
+        <v>879.4666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>863.3666666666667</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5303,21 @@
         <v>1060.3203</v>
       </c>
       <c r="G123" t="n">
+        <v>880</v>
+      </c>
+      <c r="H123" t="n">
         <v>864.0333333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5341,21 @@
         <v>859.8069</v>
       </c>
       <c r="G124" t="n">
+        <v>880.8</v>
+      </c>
+      <c r="H124" t="n">
         <v>864.7333333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5379,21 @@
         <v>430.3911</v>
       </c>
       <c r="G125" t="n">
+        <v>881.4</v>
+      </c>
+      <c r="H125" t="n">
         <v>865.3666666666667</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5417,21 @@
         <v>432.3519</v>
       </c>
       <c r="G126" t="n">
+        <v>881.5333333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>865.9166666666666</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5455,21 @@
         <v>217.333</v>
       </c>
       <c r="G127" t="n">
+        <v>880.8666666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>866.3666666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5493,21 @@
         <v>500</v>
       </c>
       <c r="G128" t="n">
+        <v>880.5333333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>866.85</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5531,21 @@
         <v>1778.2435</v>
       </c>
       <c r="G129" t="n">
+        <v>879.8666666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>867.2333333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5569,21 @@
         <v>31.4401</v>
       </c>
       <c r="G130" t="n">
+        <v>879.4</v>
+      </c>
+      <c r="H130" t="n">
         <v>867.5333333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5607,21 @@
         <v>36.1</v>
       </c>
       <c r="G131" t="n">
+        <v>879</v>
+      </c>
+      <c r="H131" t="n">
         <v>867.9833333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5645,21 @@
         <v>1422.5451</v>
       </c>
       <c r="G132" t="n">
+        <v>878.9333333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>868.45</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5683,21 @@
         <v>779.9598999999999</v>
       </c>
       <c r="G133" t="n">
+        <v>879</v>
+      </c>
+      <c r="H133" t="n">
         <v>868.8833333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5721,21 @@
         <v>251.1333</v>
       </c>
       <c r="G134" t="n">
+        <v>878.6</v>
+      </c>
+      <c r="H134" t="n">
         <v>869.3</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5759,21 @@
         <v>678.1979</v>
       </c>
       <c r="G135" t="n">
+        <v>877.2666666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>869.7</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5797,21 @@
         <v>7.2541</v>
       </c>
       <c r="G136" t="n">
+        <v>876.4666666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>870.15</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5835,21 @@
         <v>328.724</v>
       </c>
       <c r="G137" t="n">
+        <v>875.9333333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>870.5666666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5873,21 @@
         <v>515.9400000000001</v>
       </c>
       <c r="G138" t="n">
+        <v>876.4</v>
+      </c>
+      <c r="H138" t="n">
         <v>871.05</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5911,21 @@
         <v>8110.306891098901</v>
       </c>
       <c r="G139" t="n">
+        <v>878.2</v>
+      </c>
+      <c r="H139" t="n">
         <v>872.15</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5949,21 @@
         <v>4.9475</v>
       </c>
       <c r="G140" t="n">
+        <v>878.6</v>
+      </c>
+      <c r="H140" t="n">
         <v>872.8166666666667</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5987,21 @@
         <v>785.866</v>
       </c>
       <c r="G141" t="n">
+        <v>879.8</v>
+      </c>
+      <c r="H141" t="n">
         <v>873.55</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +6025,21 @@
         <v>121.57</v>
       </c>
       <c r="G142" t="n">
+        <v>881.4</v>
+      </c>
+      <c r="H142" t="n">
         <v>874.2666666666667</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +6063,21 @@
         <v>330</v>
       </c>
       <c r="G143" t="n">
+        <v>882.9333333333333</v>
+      </c>
+      <c r="H143" t="n">
         <v>875</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +6101,21 @@
         <v>111.6</v>
       </c>
       <c r="G144" t="n">
+        <v>884.6666666666666</v>
+      </c>
+      <c r="H144" t="n">
         <v>875.75</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +6139,21 @@
         <v>194.3</v>
       </c>
       <c r="G145" t="n">
+        <v>886.4666666666667</v>
+      </c>
+      <c r="H145" t="n">
         <v>876.4333333333333</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +6177,21 @@
         <v>308.771</v>
       </c>
       <c r="G146" t="n">
+        <v>888.2</v>
+      </c>
+      <c r="H146" t="n">
         <v>877.1166666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +6215,21 @@
         <v>1174.8254</v>
       </c>
       <c r="G147" t="n">
+        <v>889.4</v>
+      </c>
+      <c r="H147" t="n">
         <v>877.75</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6253,21 @@
         <v>1965</v>
       </c>
       <c r="G148" t="n">
+        <v>890.0666666666667</v>
+      </c>
+      <c r="H148" t="n">
         <v>878.2666666666667</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6291,21 @@
         <v>1</v>
       </c>
       <c r="G149" t="n">
+        <v>890.3333333333334</v>
+      </c>
+      <c r="H149" t="n">
         <v>878.6</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6329,21 @@
         <v>5</v>
       </c>
       <c r="G150" t="n">
+        <v>890.8666666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>879.0166666666667</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6367,21 @@
         <v>526.9177</v>
       </c>
       <c r="G151" t="n">
+        <v>890.8666666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>879.5</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6405,21 @@
         <v>3694.1399</v>
       </c>
       <c r="G152" t="n">
+        <v>890.2</v>
+      </c>
+      <c r="H152" t="n">
         <v>879.7166666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6443,21 @@
         <v>500.85</v>
       </c>
       <c r="G153" t="n">
+        <v>888.7333333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>879.8333333333334</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6481,21 @@
         <v>541</v>
       </c>
       <c r="G154" t="n">
+        <v>885.8</v>
+      </c>
+      <c r="H154" t="n">
         <v>879.8666666666667</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6519,21 @@
         <v>1</v>
       </c>
       <c r="G155" t="n">
+        <v>884.2</v>
+      </c>
+      <c r="H155" t="n">
         <v>879.85</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6557,21 @@
         <v>3252.4724</v>
       </c>
       <c r="G156" t="n">
+        <v>881.0666666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>879.55</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6595,21 @@
         <v>792.7080999999999</v>
       </c>
       <c r="G157" t="n">
+        <v>877.5333333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>879.1666666666666</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6633,21 @@
         <v>274.037</v>
       </c>
       <c r="G158" t="n">
+        <v>874.2666666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>878.7333333333333</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6671,21 @@
         <v>24</v>
       </c>
       <c r="G159" t="n">
+        <v>873.6666666666666</v>
+      </c>
+      <c r="H159" t="n">
         <v>878.95</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6709,21 @@
         <v>288.4246</v>
       </c>
       <c r="G160" t="n">
+        <v>871.1333333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>878.6666666666666</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6747,21 @@
         <v>235.571</v>
       </c>
       <c r="G161" t="n">
+        <v>868.9333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>878.4</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6785,21 @@
         <v>2</v>
       </c>
       <c r="G162" t="n">
+        <v>866.8</v>
+      </c>
+      <c r="H162" t="n">
         <v>878.0666666666667</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6823,21 @@
         <v>4</v>
       </c>
       <c r="G163" t="n">
+        <v>865.4</v>
+      </c>
+      <c r="H163" t="n">
         <v>877.7333333333333</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6861,21 @@
         <v>1</v>
       </c>
       <c r="G164" t="n">
+        <v>864.3333333333334</v>
+      </c>
+      <c r="H164" t="n">
         <v>877.3166666666667</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +6899,21 @@
         <v>44.5924</v>
       </c>
       <c r="G165" t="n">
+        <v>862.8666666666667</v>
+      </c>
+      <c r="H165" t="n">
         <v>876.9166666666666</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +6937,21 @@
         <v>525.7905</v>
       </c>
       <c r="G166" t="n">
+        <v>861.6</v>
+      </c>
+      <c r="H166" t="n">
         <v>876.8166666666667</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +6975,21 @@
         <v>1</v>
       </c>
       <c r="G167" t="n">
+        <v>861</v>
+      </c>
+      <c r="H167" t="n">
         <v>876.65</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +7013,21 @@
         <v>288.9</v>
       </c>
       <c r="G168" t="n">
+        <v>860.6666666666666</v>
+      </c>
+      <c r="H168" t="n">
         <v>876.45</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +7051,21 @@
         <v>118.5511</v>
       </c>
       <c r="G169" t="n">
+        <v>860.5333333333333</v>
+      </c>
+      <c r="H169" t="n">
         <v>876.3333333333334</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +7089,21 @@
         <v>2</v>
       </c>
       <c r="G170" t="n">
+        <v>860.4</v>
+      </c>
+      <c r="H170" t="n">
         <v>876.15</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +7127,21 @@
         <v>1100.7904</v>
       </c>
       <c r="G171" t="n">
+        <v>861.3333333333334</v>
+      </c>
+      <c r="H171" t="n">
         <v>875.9333333333333</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +7165,21 @@
         <v>1</v>
       </c>
       <c r="G172" t="n">
+        <v>862.4</v>
+      </c>
+      <c r="H172" t="n">
         <v>875.55</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +7203,21 @@
         <v>4018.1589</v>
       </c>
       <c r="G173" t="n">
+        <v>862.6</v>
+      </c>
+      <c r="H173" t="n">
         <v>875.0833333333334</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +7241,21 @@
         <v>401.8</v>
       </c>
       <c r="G174" t="n">
+        <v>860.6666666666666</v>
+      </c>
+      <c r="H174" t="n">
         <v>874.7166666666667</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7279,21 @@
         <v>419.8643</v>
       </c>
       <c r="G175" t="n">
+        <v>860.6</v>
+      </c>
+      <c r="H175" t="n">
         <v>874.4</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7317,21 @@
         <v>2140</v>
       </c>
       <c r="G176" t="n">
+        <v>860.2666666666667</v>
+      </c>
+      <c r="H176" t="n">
         <v>874.1</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7355,21 @@
         <v>1670</v>
       </c>
       <c r="G177" t="n">
+        <v>860.0666666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>873.8</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7393,21 @@
         <v>5</v>
       </c>
       <c r="G178" t="n">
+        <v>859.8666666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>873.5833333333334</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7431,21 @@
         <v>37.85</v>
       </c>
       <c r="G179" t="n">
+        <v>859.6</v>
+      </c>
+      <c r="H179" t="n">
         <v>873.2166666666667</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7469,21 @@
         <v>277.4205</v>
       </c>
       <c r="G180" t="n">
+        <v>859.6</v>
+      </c>
+      <c r="H180" t="n">
         <v>872.65</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7507,21 @@
         <v>1437.882</v>
       </c>
       <c r="G181" t="n">
+        <v>859.2666666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>872.05</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7545,21 @@
         <v>255.8909</v>
       </c>
       <c r="G182" t="n">
+        <v>858.9333333333333</v>
+      </c>
+      <c r="H182" t="n">
         <v>871.5166666666667</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7583,21 @@
         <v>1171.1909</v>
       </c>
       <c r="G183" t="n">
+        <v>858.4666666666667</v>
+      </c>
+      <c r="H183" t="n">
         <v>871.0666666666667</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7621,21 @@
         <v>1457.6155</v>
       </c>
       <c r="G184" t="n">
+        <v>857.5333333333333</v>
+      </c>
+      <c r="H184" t="n">
         <v>870.5166666666667</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7659,21 @@
         <v>31.954</v>
       </c>
       <c r="G185" t="n">
+        <v>856.4666666666667</v>
+      </c>
+      <c r="H185" t="n">
         <v>869.9166666666666</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,18 +7697,21 @@
         <v>8555.9131</v>
       </c>
       <c r="G186" t="n">
+        <v>854.3333333333334</v>
+      </c>
+      <c r="H186" t="n">
         <v>869.1333333333333</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,18 +7735,21 @@
         <v>287.5152</v>
       </c>
       <c r="G187" t="n">
+        <v>852.2</v>
+      </c>
+      <c r="H187" t="n">
         <v>868.3833333333333</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,18 +7773,21 @@
         <v>1085.36</v>
       </c>
       <c r="G188" t="n">
+        <v>851.1333333333333</v>
+      </c>
+      <c r="H188" t="n">
         <v>867.7333333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6993,18 +7811,21 @@
         <v>16.0504</v>
       </c>
       <c r="G189" t="n">
+        <v>849.1333333333333</v>
+      </c>
+      <c r="H189" t="n">
         <v>867.0333333333333</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7028,22 +7849,21 @@
         <v>120.3982</v>
       </c>
       <c r="G190" t="n">
+        <v>847.1333333333333</v>
+      </c>
+      <c r="H190" t="n">
         <v>866.3333333333334</v>
       </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>828</v>
-      </c>
-      <c r="K190" t="n">
-        <v>828</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7067,26 +7887,21 @@
         <v>397.59</v>
       </c>
       <c r="G191" t="n">
+        <v>845.4</v>
+      </c>
+      <c r="H191" t="n">
         <v>865.7</v>
       </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>827</v>
-      </c>
-      <c r="K191" t="n">
-        <v>828</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7110,24 +7925,21 @@
         <v>1740.0901</v>
       </c>
       <c r="G192" t="n">
+        <v>843.4666666666667</v>
+      </c>
+      <c r="H192" t="n">
         <v>864.9333333333333</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>828</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7151,26 +7963,21 @@
         <v>60</v>
       </c>
       <c r="G193" t="n">
+        <v>841.2666666666667</v>
+      </c>
+      <c r="H193" t="n">
         <v>864.15</v>
       </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
       <c r="J193" t="n">
-        <v>828</v>
-      </c>
-      <c r="K193" t="n">
-        <v>828</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7194,24 +8001,21 @@
         <v>1387.5994</v>
       </c>
       <c r="G194" t="n">
+        <v>840.1333333333333</v>
+      </c>
+      <c r="H194" t="n">
         <v>863.6</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>828</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7235,24 +8039,21 @@
         <v>800</v>
       </c>
       <c r="G195" t="n">
+        <v>838.4</v>
+      </c>
+      <c r="H195" t="n">
         <v>862.9333333333333</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>828</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7276,24 +8077,21 @@
         <v>862.1913</v>
       </c>
       <c r="G196" t="n">
+        <v>836.6666666666666</v>
+      </c>
+      <c r="H196" t="n">
         <v>862.1</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>828</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7317,24 +8115,21 @@
         <v>577.5417</v>
       </c>
       <c r="G197" t="n">
+        <v>834.6</v>
+      </c>
+      <c r="H197" t="n">
         <v>861.1833333333333</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>828</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7358,24 +8153,21 @@
         <v>2</v>
       </c>
       <c r="G198" t="n">
+        <v>833.7333333333333</v>
+      </c>
+      <c r="H198" t="n">
         <v>860.4</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>828</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7399,26 +8191,21 @@
         <v>1</v>
       </c>
       <c r="G199" t="n">
+        <v>832.1333333333333</v>
+      </c>
+      <c r="H199" t="n">
         <v>859</v>
       </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>842</v>
-      </c>
-      <c r="K199" t="n">
-        <v>828</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7442,26 +8229,21 @@
         <v>135.5214</v>
       </c>
       <c r="G200" t="n">
+        <v>830.3333333333334</v>
+      </c>
+      <c r="H200" t="n">
         <v>857.85</v>
       </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>826</v>
-      </c>
-      <c r="K200" t="n">
-        <v>828</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7485,26 +8267,25 @@
         <v>1.1</v>
       </c>
       <c r="G201" t="n">
+        <v>830.9333333333333</v>
+      </c>
+      <c r="H201" t="n">
         <v>856.9166666666666</v>
       </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
         <v>819</v>
       </c>
-      <c r="K201" t="n">
-        <v>828</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
+      <c r="L201" t="n">
+        <v>819</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7528,24 +8309,27 @@
         <v>70.93000000000001</v>
       </c>
       <c r="G202" t="n">
+        <v>830.2666666666667</v>
+      </c>
+      <c r="H202" t="n">
         <v>855.6</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>828</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>819</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7569,24 +8353,29 @@
         <v>164.264</v>
       </c>
       <c r="G203" t="n">
+        <v>829.3333333333334</v>
+      </c>
+      <c r="H203" t="n">
         <v>854.3333333333334</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="n">
-        <v>828</v>
-      </c>
-      <c r="L203" t="inlineStr">
+        <v>818</v>
+      </c>
+      <c r="L203" t="n">
+        <v>819</v>
+      </c>
+      <c r="M203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7610,24 +8399,29 @@
         <v>3043.8094</v>
       </c>
       <c r="G204" t="n">
+        <v>829.0666666666667</v>
+      </c>
+      <c r="H204" t="n">
         <v>853.1333333333333</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="n">
-        <v>828</v>
-      </c>
-      <c r="L204" t="inlineStr">
+        <v>821</v>
+      </c>
+      <c r="L204" t="n">
+        <v>819</v>
+      </c>
+      <c r="M204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7651,24 +8445,29 @@
         <v>237.874</v>
       </c>
       <c r="G205" t="n">
+        <v>829.8666666666667</v>
+      </c>
+      <c r="H205" t="n">
         <v>852.1833333333333</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="n">
-        <v>828</v>
-      </c>
-      <c r="L205" t="inlineStr">
+        <v>824</v>
+      </c>
+      <c r="L205" t="n">
+        <v>819</v>
+      </c>
+      <c r="M205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7692,24 +8491,29 @@
         <v>251.1786</v>
       </c>
       <c r="G206" t="n">
+        <v>829.6666666666666</v>
+      </c>
+      <c r="H206" t="n">
         <v>851.0666666666667</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="n">
-        <v>828</v>
-      </c>
-      <c r="L206" t="inlineStr">
+        <v>839</v>
+      </c>
+      <c r="L206" t="n">
+        <v>819</v>
+      </c>
+      <c r="M206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7733,24 +8537,29 @@
         <v>36.2781</v>
       </c>
       <c r="G207" t="n">
+        <v>829.8666666666667</v>
+      </c>
+      <c r="H207" t="n">
         <v>850.05</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="n">
         <v>828</v>
       </c>
-      <c r="L207" t="inlineStr">
+      <c r="L207" t="n">
+        <v>819</v>
+      </c>
+      <c r="M207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7774,24 +8583,29 @@
         <v>447.7433</v>
       </c>
       <c r="G208" t="n">
+        <v>830.1333333333333</v>
+      </c>
+      <c r="H208" t="n">
         <v>849.1666666666666</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="n">
-        <v>828</v>
-      </c>
-      <c r="L208" t="inlineStr">
+        <v>831</v>
+      </c>
+      <c r="L208" t="n">
+        <v>819</v>
+      </c>
+      <c r="M208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7815,24 +8629,29 @@
         <v>499.9217</v>
       </c>
       <c r="G209" t="n">
+        <v>829.5333333333333</v>
+      </c>
+      <c r="H209" t="n">
         <v>848.4</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="n">
-        <v>828</v>
-      </c>
-      <c r="L209" t="inlineStr">
+        <v>832</v>
+      </c>
+      <c r="L209" t="n">
+        <v>819</v>
+      </c>
+      <c r="M209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7856,24 +8675,29 @@
         <v>851.629</v>
       </c>
       <c r="G210" t="n">
+        <v>829.3333333333334</v>
+      </c>
+      <c r="H210" t="n">
         <v>847.55</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="n">
-        <v>828</v>
-      </c>
-      <c r="L210" t="inlineStr">
+        <v>831</v>
+      </c>
+      <c r="L210" t="n">
+        <v>819</v>
+      </c>
+      <c r="M210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7897,24 +8721,29 @@
         <v>1847.8064</v>
       </c>
       <c r="G211" t="n">
+        <v>829.8</v>
+      </c>
+      <c r="H211" t="n">
         <v>846.8333333333334</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="n">
-        <v>828</v>
-      </c>
-      <c r="L211" t="inlineStr">
+        <v>831</v>
+      </c>
+      <c r="L211" t="n">
+        <v>819</v>
+      </c>
+      <c r="M211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7938,24 +8767,29 @@
         <v>29.6687</v>
       </c>
       <c r="G212" t="n">
+        <v>830.6</v>
+      </c>
+      <c r="H212" t="n">
         <v>846.2833333333333</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="n">
-        <v>828</v>
-      </c>
-      <c r="L212" t="inlineStr">
+        <v>839</v>
+      </c>
+      <c r="L212" t="n">
+        <v>819</v>
+      </c>
+      <c r="M212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7979,24 +8813,471 @@
         <v>112.103</v>
       </c>
       <c r="G213" t="n">
+        <v>830.6</v>
+      </c>
+      <c r="H213" t="n">
         <v>845.8666666666667</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="n">
-        <v>828</v>
-      </c>
-      <c r="L213" t="inlineStr">
+        <v>838</v>
+      </c>
+      <c r="L213" t="n">
+        <v>819</v>
+      </c>
+      <c r="M213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
+      <c r="N213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>841</v>
+      </c>
+      <c r="C214" t="n">
+        <v>841</v>
+      </c>
+      <c r="D214" t="n">
+        <v>841</v>
+      </c>
+      <c r="E214" t="n">
+        <v>841</v>
+      </c>
+      <c r="F214" t="n">
+        <v>11.9104</v>
+      </c>
+      <c r="G214" t="n">
+        <v>831.6</v>
+      </c>
+      <c r="H214" t="n">
+        <v>845.45</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>842</v>
+      </c>
+      <c r="L214" t="n">
+        <v>819</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>851</v>
+      </c>
+      <c r="C215" t="n">
+        <v>851</v>
+      </c>
+      <c r="D215" t="n">
+        <v>851</v>
+      </c>
+      <c r="E215" t="n">
+        <v>851</v>
+      </c>
+      <c r="F215" t="n">
+        <v>16.9313</v>
+      </c>
+      <c r="G215" t="n">
+        <v>833.7333333333333</v>
+      </c>
+      <c r="H215" t="n">
+        <v>845.2333333333333</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>819</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>852</v>
+      </c>
+      <c r="C216" t="n">
+        <v>846</v>
+      </c>
+      <c r="D216" t="n">
+        <v>852</v>
+      </c>
+      <c r="E216" t="n">
+        <v>846</v>
+      </c>
+      <c r="F216" t="n">
+        <v>813.9915</v>
+      </c>
+      <c r="G216" t="n">
+        <v>834.1333333333333</v>
+      </c>
+      <c r="H216" t="n">
+        <v>845.1833333333333</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>819</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>854</v>
+      </c>
+      <c r="C217" t="n">
+        <v>854</v>
+      </c>
+      <c r="D217" t="n">
+        <v>854</v>
+      </c>
+      <c r="E217" t="n">
+        <v>854</v>
+      </c>
+      <c r="F217" t="n">
+        <v>5</v>
+      </c>
+      <c r="G217" t="n">
+        <v>836.5333333333333</v>
+      </c>
+      <c r="H217" t="n">
+        <v>845.35</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>819</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>851</v>
+      </c>
+      <c r="C218" t="n">
+        <v>850</v>
+      </c>
+      <c r="D218" t="n">
+        <v>851</v>
+      </c>
+      <c r="E218" t="n">
+        <v>850</v>
+      </c>
+      <c r="F218" t="n">
+        <v>707.95</v>
+      </c>
+      <c r="G218" t="n">
+        <v>838.4666666666667</v>
+      </c>
+      <c r="H218" t="n">
+        <v>845.3833333333333</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>819</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>847</v>
+      </c>
+      <c r="C219" t="n">
+        <v>846</v>
+      </c>
+      <c r="D219" t="n">
+        <v>847</v>
+      </c>
+      <c r="E219" t="n">
+        <v>846</v>
+      </c>
+      <c r="F219" t="n">
+        <v>278.8037</v>
+      </c>
+      <c r="G219" t="n">
+        <v>839.9333333333333</v>
+      </c>
+      <c r="H219" t="n">
+        <v>844.7</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>819</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>846</v>
+      </c>
+      <c r="C220" t="n">
+        <v>846</v>
+      </c>
+      <c r="D220" t="n">
+        <v>846</v>
+      </c>
+      <c r="E220" t="n">
+        <v>846</v>
+      </c>
+      <c r="F220" t="n">
+        <v>422.0906</v>
+      </c>
+      <c r="G220" t="n">
+        <v>840.4</v>
+      </c>
+      <c r="H220" t="n">
+        <v>844.5</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>819</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>840</v>
+      </c>
+      <c r="C221" t="n">
+        <v>840</v>
+      </c>
+      <c r="D221" t="n">
+        <v>840</v>
+      </c>
+      <c r="E221" t="n">
+        <v>840</v>
+      </c>
+      <c r="F221" t="n">
+        <v>37.5395</v>
+      </c>
+      <c r="G221" t="n">
+        <v>841.2</v>
+      </c>
+      <c r="H221" t="n">
+        <v>844.1333333333333</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>819</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>849</v>
+      </c>
+      <c r="C222" t="n">
+        <v>849</v>
+      </c>
+      <c r="D222" t="n">
+        <v>849</v>
+      </c>
+      <c r="E222" t="n">
+        <v>849</v>
+      </c>
+      <c r="F222" t="n">
+        <v>143.54</v>
+      </c>
+      <c r="G222" t="n">
+        <v>842.4</v>
+      </c>
+      <c r="H222" t="n">
+        <v>843.95</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>819</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>849</v>
+      </c>
+      <c r="C223" t="n">
+        <v>849</v>
+      </c>
+      <c r="D223" t="n">
+        <v>849</v>
+      </c>
+      <c r="E223" t="n">
+        <v>849</v>
+      </c>
+      <c r="F223" t="n">
+        <v>113.2244</v>
+      </c>
+      <c r="G223" t="n">
+        <v>843.5333333333333</v>
+      </c>
+      <c r="H223" t="n">
+        <v>843.7</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>819</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-31 BackTest WTC.xlsx
+++ b/BackTest/2019-10-31 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N281"/>
+  <dimension ref="A1:M281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>40670.41220000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>38839.05440000002</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>38874.88110000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>37949.10300000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>37951.10300000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>37951.10300000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>37949.10800000001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>38026.56840000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>38057.30200000001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>38101.99560000001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>38161.31960000001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>37800.85090000001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>37725.73960000002</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>39012.13880000002</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>40730.70490000001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>31405.08620000001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>31452.95350000001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1672,15 @@
         <v>30893.04070000002</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>30947.56730000002</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,22 +2233,15 @@
         <v>25924.95760000002</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>849</v>
-      </c>
-      <c r="K56" t="n">
-        <v>849</v>
-      </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2442,22 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>849</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2482,26 +2299,15 @@
         <v>25514.95770000002</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>847</v>
-      </c>
-      <c r="K58" t="n">
-        <v>849</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2526,26 +2332,15 @@
         <v>25301.67540000003</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>850</v>
-      </c>
-      <c r="K59" t="n">
-        <v>849</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2572,22 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>849</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2614,22 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>849</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2656,22 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>849</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2698,22 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>849</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2740,22 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>849</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2782,22 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>849</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2824,22 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>849</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2866,22 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>849</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2906,24 +2629,19 @@
         <v>23845.17110000003</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>849</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>850</v>
+      </c>
+      <c r="J68" t="n">
+        <v>850</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2950,22 +2668,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>849</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>850</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2990,24 +2705,23 @@
         <v>23924.22970000003</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
         <v>849</v>
       </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>850</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3034,22 +2748,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>849</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3076,22 +2781,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>849</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3116,26 +2812,15 @@
         <v>24670.85920000002</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>846</v>
-      </c>
-      <c r="K73" t="n">
-        <v>849</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3160,26 +2845,19 @@
         <v>24119.41730000002</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>847</v>
       </c>
       <c r="J74" t="n">
         <v>847</v>
       </c>
-      <c r="K74" t="n">
-        <v>849</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3204,26 +2882,21 @@
         <v>29387.84150000002</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>846</v>
-      </c>
-      <c r="K75" t="n">
-        <v>849</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3250,22 +2923,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>849</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>847</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3292,22 +2962,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>849</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>847</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3334,22 +3001,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>849</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>847</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3376,22 +3040,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>849</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>847</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3418,22 +3079,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>849</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>847</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3460,22 +3118,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>849</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>847</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3502,22 +3157,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>849</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>847</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3544,22 +3196,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>849</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>847</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3586,22 +3235,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>849</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>847</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3628,22 +3274,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>849</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>847</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3670,22 +3313,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>849</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>847</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3712,22 +3352,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>849</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>847</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3752,24 +3389,23 @@
         <v>24310.71420000002</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>849</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>854</v>
+      </c>
+      <c r="J88" t="n">
+        <v>847</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3796,22 +3432,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>849</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>847</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3836,24 +3469,23 @@
         <v>24327.98020000002</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>849</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>852</v>
+      </c>
+      <c r="J90" t="n">
+        <v>847</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3878,24 +3510,23 @@
         <v>24327.98020000002</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>849</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>852</v>
+      </c>
+      <c r="J91" t="n">
+        <v>847</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3920,26 +3551,23 @@
         <v>24327.98020000002</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="J92" t="n">
-        <v>852</v>
-      </c>
-      <c r="K92" t="n">
-        <v>849</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3964,24 +3592,23 @@
         <v>24398.60830000003</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>849</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>852</v>
+      </c>
+      <c r="J93" t="n">
+        <v>847</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4006,26 +3633,23 @@
         <v>25098.60830000003</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>853</v>
       </c>
       <c r="J94" t="n">
-        <v>853</v>
-      </c>
-      <c r="K94" t="n">
-        <v>849</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4050,26 +3674,23 @@
         <v>23839.93330000003</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>854</v>
       </c>
       <c r="J95" t="n">
-        <v>854</v>
-      </c>
-      <c r="K95" t="n">
-        <v>849</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4094,26 +3715,23 @@
         <v>23949.46490000002</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>846</v>
       </c>
       <c r="J96" t="n">
-        <v>846</v>
-      </c>
-      <c r="K96" t="n">
-        <v>849</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4138,26 +3756,23 @@
         <v>23636.76260000002</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>853</v>
       </c>
       <c r="J97" t="n">
-        <v>853</v>
-      </c>
-      <c r="K97" t="n">
-        <v>849</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4182,26 +3797,23 @@
         <v>23934.17380000002</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="J98" t="n">
-        <v>852</v>
-      </c>
-      <c r="K98" t="n">
-        <v>849</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4226,26 +3838,23 @@
         <v>25124.17380000002</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>854</v>
       </c>
       <c r="J99" t="n">
-        <v>854</v>
-      </c>
-      <c r="K99" t="n">
-        <v>849</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4270,26 +3879,23 @@
         <v>24877.97380000002</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>860</v>
       </c>
       <c r="J100" t="n">
-        <v>860</v>
-      </c>
-      <c r="K100" t="n">
-        <v>849</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4314,26 +3920,23 @@
         <v>25147.97380000002</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>855</v>
       </c>
       <c r="J101" t="n">
-        <v>855</v>
-      </c>
-      <c r="K101" t="n">
-        <v>849</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4358,26 +3961,23 @@
         <v>24472.96990000002</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>860</v>
       </c>
       <c r="J102" t="n">
-        <v>860</v>
-      </c>
-      <c r="K102" t="n">
-        <v>849</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4402,26 +4002,23 @@
         <v>23972.97000000002</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>857</v>
       </c>
       <c r="J103" t="n">
-        <v>857</v>
-      </c>
-      <c r="K103" t="n">
-        <v>849</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4446,26 +4043,23 @@
         <v>23897.71880000002</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>854</v>
       </c>
       <c r="J104" t="n">
-        <v>854</v>
-      </c>
-      <c r="K104" t="n">
-        <v>849</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4490,26 +4084,23 @@
         <v>24010.52280000002</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="J105" t="n">
-        <v>850</v>
-      </c>
-      <c r="K105" t="n">
-        <v>849</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4534,26 +4125,21 @@
         <v>24477.55550000002</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>853</v>
-      </c>
-      <c r="K106" t="n">
-        <v>849</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4578,26 +4164,23 @@
         <v>25003.89260000002</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>854</v>
       </c>
       <c r="J107" t="n">
-        <v>854</v>
-      </c>
-      <c r="K107" t="n">
-        <v>849</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4622,26 +4205,23 @@
         <v>25003.89260000002</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>858</v>
       </c>
       <c r="J108" t="n">
-        <v>858</v>
-      </c>
-      <c r="K108" t="n">
-        <v>849</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4666,26 +4246,23 @@
         <v>25178.89260000002</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>858</v>
       </c>
       <c r="J109" t="n">
-        <v>858</v>
-      </c>
-      <c r="K109" t="n">
-        <v>849</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4710,26 +4287,23 @@
         <v>24893.78260000002</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="J110" t="n">
-        <v>864</v>
-      </c>
-      <c r="K110" t="n">
-        <v>849</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4754,26 +4328,23 @@
         <v>24861.20960000002</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>861</v>
       </c>
       <c r="J111" t="n">
-        <v>861</v>
-      </c>
-      <c r="K111" t="n">
-        <v>849</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4798,26 +4369,23 @@
         <v>24308.89590000002</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>859</v>
       </c>
       <c r="J112" t="n">
-        <v>859</v>
-      </c>
-      <c r="K112" t="n">
-        <v>849</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4842,26 +4410,23 @@
         <v>24074.00270000003</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>853</v>
       </c>
       <c r="J113" t="n">
-        <v>853</v>
-      </c>
-      <c r="K113" t="n">
-        <v>849</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4886,26 +4451,23 @@
         <v>24041.11320000003</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="J114" t="n">
-        <v>850</v>
-      </c>
-      <c r="K114" t="n">
-        <v>849</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4930,26 +4492,23 @@
         <v>23800.56350000003</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>849</v>
       </c>
       <c r="J115" t="n">
-        <v>849</v>
-      </c>
-      <c r="K115" t="n">
-        <v>849</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4974,26 +4533,23 @@
         <v>22860.86280000002</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>845</v>
       </c>
       <c r="J116" t="n">
-        <v>845</v>
-      </c>
-      <c r="K116" t="n">
-        <v>849</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5018,26 +4574,23 @@
         <v>22860.86280000002</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>843</v>
       </c>
       <c r="J117" t="n">
-        <v>843</v>
-      </c>
-      <c r="K117" t="n">
-        <v>849</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5062,26 +4615,23 @@
         <v>22865.08070000002</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>843</v>
       </c>
       <c r="J118" t="n">
-        <v>843</v>
-      </c>
-      <c r="K118" t="n">
-        <v>849</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5106,26 +4656,23 @@
         <v>22301.30390000002</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>849</v>
       </c>
       <c r="J119" t="n">
-        <v>849</v>
-      </c>
-      <c r="K119" t="n">
-        <v>849</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5150,26 +4697,23 @@
         <v>21737.69630000003</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>843</v>
       </c>
       <c r="J120" t="n">
-        <v>843</v>
-      </c>
-      <c r="K120" t="n">
-        <v>849</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5194,26 +4738,23 @@
         <v>21983.56750000003</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>841</v>
       </c>
       <c r="J121" t="n">
-        <v>841</v>
-      </c>
-      <c r="K121" t="n">
-        <v>849</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5238,26 +4779,23 @@
         <v>21946.48750000002</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>842</v>
       </c>
       <c r="J122" t="n">
-        <v>842</v>
-      </c>
-      <c r="K122" t="n">
-        <v>849</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5282,26 +4820,23 @@
         <v>22192.35850000002</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>841</v>
       </c>
       <c r="J123" t="n">
-        <v>841</v>
-      </c>
-      <c r="K123" t="n">
-        <v>849</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5326,26 +4861,23 @@
         <v>25140.68900000002</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>844</v>
       </c>
       <c r="J124" t="n">
-        <v>844</v>
-      </c>
-      <c r="K124" t="n">
-        <v>849</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5370,26 +4902,23 @@
         <v>25649.98910000002</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>845</v>
       </c>
       <c r="J125" t="n">
-        <v>845</v>
-      </c>
-      <c r="K125" t="n">
-        <v>849</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5414,26 +4943,23 @@
         <v>25612.89410000002</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>846</v>
       </c>
       <c r="J126" t="n">
-        <v>846</v>
-      </c>
-      <c r="K126" t="n">
-        <v>849</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5458,26 +4984,23 @@
         <v>25959.82410000002</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>845</v>
       </c>
       <c r="J127" t="n">
-        <v>845</v>
-      </c>
-      <c r="K127" t="n">
-        <v>849</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5502,26 +5025,23 @@
         <v>26294.82410000002</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>847</v>
       </c>
       <c r="J128" t="n">
         <v>847</v>
       </c>
-      <c r="K128" t="n">
-        <v>849</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5546,26 +5066,23 @@
         <v>23769.39400000002</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>851</v>
       </c>
       <c r="J129" t="n">
-        <v>851</v>
-      </c>
-      <c r="K129" t="n">
-        <v>849</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5590,26 +5107,23 @@
         <v>24562.10600000002</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>842</v>
       </c>
       <c r="J130" t="n">
-        <v>842</v>
-      </c>
-      <c r="K130" t="n">
-        <v>849</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5634,26 +5148,23 @@
         <v>24855.16800000002</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>846</v>
       </c>
       <c r="J131" t="n">
-        <v>846</v>
-      </c>
-      <c r="K131" t="n">
-        <v>849</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5678,26 +5189,23 @@
         <v>24562.10600000002</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>849</v>
       </c>
       <c r="J132" t="n">
-        <v>849</v>
-      </c>
-      <c r="K132" t="n">
-        <v>849</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5722,26 +5230,23 @@
         <v>24564.23950000002</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="J133" t="n">
-        <v>848</v>
-      </c>
-      <c r="K133" t="n">
-        <v>849</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5766,26 +5271,23 @@
         <v>24565.23950000002</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="J134" t="n">
-        <v>850</v>
-      </c>
-      <c r="K134" t="n">
-        <v>849</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5810,26 +5312,23 @@
         <v>25063.22070000002</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>855</v>
       </c>
       <c r="J135" t="n">
-        <v>855</v>
-      </c>
-      <c r="K135" t="n">
-        <v>849</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5854,26 +5353,23 @@
         <v>25627.22070000002</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>856</v>
       </c>
       <c r="J136" t="n">
-        <v>856</v>
-      </c>
-      <c r="K136" t="n">
-        <v>849</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5898,26 +5394,23 @@
         <v>24475.04070000002</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>860</v>
       </c>
       <c r="J137" t="n">
-        <v>860</v>
-      </c>
-      <c r="K137" t="n">
-        <v>849</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5942,26 +5435,23 @@
         <v>25075.04070000002</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>844</v>
       </c>
       <c r="J138" t="n">
-        <v>844</v>
-      </c>
-      <c r="K138" t="n">
-        <v>849</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5986,26 +5476,23 @@
         <v>25122.70510000002</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="J139" t="n">
-        <v>848</v>
-      </c>
-      <c r="K139" t="n">
-        <v>849</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6030,26 +5517,23 @@
         <v>25894.12780000002</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="J140" t="n">
-        <v>852</v>
-      </c>
-      <c r="K140" t="n">
-        <v>849</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6074,26 +5558,23 @@
         <v>25384.12780000002</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>854</v>
       </c>
       <c r="J141" t="n">
-        <v>854</v>
-      </c>
-      <c r="K141" t="n">
-        <v>849</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6118,26 +5599,23 @@
         <v>24986.62780000002</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>853</v>
       </c>
       <c r="J142" t="n">
-        <v>853</v>
-      </c>
-      <c r="K142" t="n">
-        <v>849</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6162,26 +5640,23 @@
         <v>25414.54480000002</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>851</v>
       </c>
       <c r="J143" t="n">
-        <v>851</v>
-      </c>
-      <c r="K143" t="n">
-        <v>849</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6206,26 +5681,23 @@
         <v>24950.35350000002</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>855</v>
       </c>
       <c r="J144" t="n">
-        <v>855</v>
-      </c>
-      <c r="K144" t="n">
-        <v>849</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6250,26 +5722,23 @@
         <v>24950.35350000002</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>854</v>
       </c>
       <c r="J145" t="n">
-        <v>854</v>
-      </c>
-      <c r="K145" t="n">
-        <v>849</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6294,26 +5763,23 @@
         <v>24950.35350000002</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>854</v>
       </c>
       <c r="J146" t="n">
-        <v>854</v>
-      </c>
-      <c r="K146" t="n">
-        <v>849</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6338,26 +5804,23 @@
         <v>25750.35350000002</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>854</v>
       </c>
       <c r="J147" t="n">
-        <v>854</v>
-      </c>
-      <c r="K147" t="n">
-        <v>849</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6382,26 +5845,23 @@
         <v>25750.35350000002</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>857</v>
       </c>
       <c r="J148" t="n">
-        <v>857</v>
-      </c>
-      <c r="K148" t="n">
-        <v>849</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6426,26 +5886,23 @@
         <v>25675.54100000002</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>857</v>
       </c>
       <c r="J149" t="n">
-        <v>857</v>
-      </c>
-      <c r="K149" t="n">
-        <v>849</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6470,26 +5927,23 @@
         <v>25708.41760000002</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>853</v>
       </c>
       <c r="J150" t="n">
-        <v>853</v>
-      </c>
-      <c r="K150" t="n">
-        <v>849</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6514,26 +5968,23 @@
         <v>26008.41760000002</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>858</v>
       </c>
       <c r="J151" t="n">
-        <v>858</v>
-      </c>
-      <c r="K151" t="n">
-        <v>849</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6558,26 +6009,23 @@
         <v>27133.41760000002</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>860</v>
       </c>
       <c r="J152" t="n">
-        <v>860</v>
-      </c>
-      <c r="K152" t="n">
-        <v>849</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+        <v>847</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6602,24 +6050,23 @@
         <v>27211.38760000002</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>849</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+        <v>864</v>
+      </c>
+      <c r="J153" t="n">
+        <v>847</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6644,24 +6091,23 @@
         <v>27212.38760000002</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>849</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+        <v>865</v>
+      </c>
+      <c r="J154" t="n">
+        <v>847</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6686,24 +6132,21 @@
         <v>27212.38760000002</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>849</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>847</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1.018612750885478</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6728,24 +6171,21 @@
         <v>28999.18970000002</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>867</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>849</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6770,24 +6210,19 @@
         <v>28999.18970000002</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>849</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6812,24 +6247,19 @@
         <v>29121.13970000003</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>849</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6854,24 +6284,19 @@
         <v>29122.13970000003</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>849</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6896,24 +6321,19 @@
         <v>29502.24790000002</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>849</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6938,24 +6358,19 @@
         <v>29687.83300000002</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>849</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6980,24 +6395,19 @@
         <v>29688.83300000002</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>849</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1.038580683156655</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7022,18 +6432,19 @@
         <v>29662.83300000002</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7058,18 +6469,19 @@
         <v>29188.83300000002</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7094,18 +6506,19 @@
         <v>29189.83300000002</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7130,18 +6543,21 @@
         <v>30505.01390000002</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>872</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7166,22 +6582,21 @@
         <v>30153.37100000002</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
         <v>874</v>
       </c>
-      <c r="K167" t="n">
-        <v>874</v>
-      </c>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7206,24 +6621,21 @@
         <v>31404.93590000003</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>871</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>874</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7248,26 +6660,21 @@
         <v>31412.19000000002</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
         <v>873</v>
       </c>
-      <c r="K169" t="n">
-        <v>874</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7292,24 +6699,21 @@
         <v>31422.19000000002</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>876</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>874</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7334,24 +6738,21 @@
         <v>31374.74820000002</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="n">
-        <v>1</v>
+        <v>883</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>874</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7376,24 +6777,21 @@
         <v>31649.95580000003</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>879</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>874</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7418,24 +6816,21 @@
         <v>31634.21450000002</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
+        <v>880</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>874</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7460,24 +6855,21 @@
         <v>31597.53970000002</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>876</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>874</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7502,26 +6894,21 @@
         <v>31597.53970000002</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
-      </c>
-      <c r="J175" t="n">
         <v>875</v>
       </c>
-      <c r="K175" t="n">
-        <v>874</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7546,24 +6933,21 @@
         <v>31280.96590000002</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>875</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>874</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7588,26 +6972,21 @@
         <v>31296.01840000003</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
-      </c>
-      <c r="J177" t="n">
         <v>874</v>
       </c>
-      <c r="K177" t="n">
-        <v>874</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7632,24 +7011,21 @@
         <v>32493.63500000003</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>879</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>874</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7674,24 +7050,17 @@
         <v>32493.63500000003</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>874</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="K179" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1.017883295194508</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7716,18 +7085,15 @@
         <v>32201.57440000003</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7752,18 +7118,15 @@
         <v>31141.25410000003</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7788,18 +7151,15 @@
         <v>32001.06100000003</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7824,18 +7184,15 @@
         <v>31570.66990000003</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7860,18 +7217,15 @@
         <v>31138.31800000002</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7896,22 +7250,19 @@
         <v>30920.98500000003</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185" t="n">
-        <v>1</v>
+        <v>878</v>
       </c>
       <c r="J185" t="n">
         <v>878</v>
       </c>
-      <c r="K185" t="n">
-        <v>878</v>
-      </c>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7936,26 +7287,23 @@
         <v>31420.98500000003</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186" t="n">
-        <v>1</v>
+        <v>873</v>
       </c>
       <c r="J186" t="n">
-        <v>873</v>
-      </c>
-      <c r="K186" t="n">
         <v>878</v>
       </c>
-      <c r="L186" t="inlineStr">
+      <c r="K186" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7980,26 +7328,23 @@
         <v>29642.74150000003</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187" t="n">
-        <v>1</v>
+        <v>874</v>
       </c>
       <c r="J187" t="n">
-        <v>874</v>
-      </c>
-      <c r="K187" t="n">
         <v>878</v>
       </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -8024,26 +7369,23 @@
         <v>29611.30140000003</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188" t="n">
-        <v>1</v>
+        <v>870</v>
       </c>
       <c r="J188" t="n">
-        <v>870</v>
-      </c>
-      <c r="K188" t="n">
         <v>878</v>
       </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8068,26 +7410,23 @@
         <v>29611.30140000003</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189" t="n">
-        <v>1</v>
+        <v>869</v>
       </c>
       <c r="J189" t="n">
-        <v>869</v>
-      </c>
-      <c r="K189" t="n">
         <v>878</v>
       </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8112,26 +7451,23 @@
         <v>31033.84650000003</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190" t="n">
-        <v>1</v>
+        <v>869</v>
       </c>
       <c r="J190" t="n">
-        <v>869</v>
-      </c>
-      <c r="K190" t="n">
         <v>878</v>
       </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8156,26 +7492,23 @@
         <v>31813.80640000003</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191" t="n">
-        <v>1</v>
+        <v>874</v>
       </c>
       <c r="J191" t="n">
-        <v>874</v>
-      </c>
-      <c r="K191" t="n">
         <v>878</v>
       </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8200,26 +7533,23 @@
         <v>31562.67310000003</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192" t="n">
-        <v>1</v>
+        <v>875</v>
       </c>
       <c r="J192" t="n">
-        <v>875</v>
-      </c>
-      <c r="K192" t="n">
         <v>878</v>
       </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8244,26 +7574,23 @@
         <v>32240.87100000002</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193" t="n">
-        <v>1</v>
+        <v>873</v>
       </c>
       <c r="J193" t="n">
-        <v>873</v>
-      </c>
-      <c r="K193" t="n">
         <v>878</v>
       </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8288,26 +7615,23 @@
         <v>32248.12510000002</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>874</v>
       </c>
       <c r="J194" t="n">
-        <v>874</v>
-      </c>
-      <c r="K194" t="n">
         <v>878</v>
       </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8332,24 +7656,21 @@
         <v>31919.40110000002</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>1</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
+        <v>3</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
         <v>878</v>
       </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8374,24 +7695,21 @@
         <v>32435.34110000002</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>1</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
+        <v>3</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
         <v>878</v>
       </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8416,24 +7734,21 @@
         <v>40545.64799109892</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
+        <v>3</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
         <v>878</v>
       </c>
-      <c r="L197" t="inlineStr">
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M197" t="n">
+      <c r="L197" t="n">
         <v>1.031446469248292</v>
       </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8458,18 +7773,15 @@
         <v>40540.70049109892</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8494,18 +7806,15 @@
         <v>41326.56649109892</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8530,18 +7839,15 @@
         <v>41448.13649109892</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8566,18 +7872,15 @@
         <v>41448.13649109892</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8602,18 +7905,15 @@
         <v>41336.53649109892</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8638,18 +7938,15 @@
         <v>41336.53649109892</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8674,18 +7971,15 @@
         <v>41027.76549109892</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8710,18 +8004,15 @@
         <v>39852.94009109892</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8746,18 +8037,15 @@
         <v>37887.94009109892</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8782,18 +8070,15 @@
         <v>37886.94009109892</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8818,18 +8103,15 @@
         <v>37891.94009109892</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8854,18 +8136,15 @@
         <v>37891.94009109892</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8892,16 +8171,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>1</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8928,16 +8204,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>1</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8964,16 +8237,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>1</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8998,18 +8268,15 @@
         <v>33154.95019109892</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -9036,16 +8303,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -9070,24 +8334,15 @@
         <v>29109.76969109892</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="n">
-        <v>849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9112,24 +8367,15 @@
         <v>29383.80669109892</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="n">
-        <v>844</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9154,24 +8400,15 @@
         <v>29407.80669109892</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="n">
-        <v>848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9196,24 +8433,15 @@
         <v>29119.38209109892</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="n">
-        <v>887</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9238,24 +8466,15 @@
         <v>29354.95309109892</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="n">
-        <v>858</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9282,20 +8501,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9322,20 +8534,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9362,20 +8567,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9402,20 +8600,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9442,20 +8633,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9482,20 +8666,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9522,20 +8699,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9562,20 +8732,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9602,20 +8765,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9642,20 +8798,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9682,20 +8831,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9722,20 +8864,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9762,20 +8897,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9802,20 +8930,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9842,20 +8963,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9882,20 +8996,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9920,24 +9027,15 @@
         <v>27021.26949109892</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="n">
-        <v>857</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9964,20 +9062,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -10004,20 +9095,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -10044,20 +9128,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -10084,20 +9161,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -10124,20 +9194,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -10164,20 +9227,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -10202,24 +9258,15 @@
         <v>22906.30669109892</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="n">
-        <v>850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -10244,24 +9291,15 @@
         <v>14350.39359109892</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="n">
-        <v>846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -10286,24 +9324,15 @@
         <v>14062.87839109892</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="n">
-        <v>831</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10328,24 +9357,15 @@
         <v>15148.23839109892</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="n">
-        <v>828</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10370,24 +9390,15 @@
         <v>15132.18799109892</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="n">
-        <v>835</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10412,24 +9423,15 @@
         <v>15011.78979109892</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="n">
-        <v>828</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10454,24 +9456,15 @@
         <v>15409.37979109892</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="n">
-        <v>827</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10496,24 +9489,15 @@
         <v>13669.28969109892</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="n">
-        <v>831</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10538,24 +9522,15 @@
         <v>13669.28969109892</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="n">
-        <v>828</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10580,24 +9555,15 @@
         <v>15056.88909109892</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="n">
-        <v>828</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10622,24 +9588,15 @@
         <v>14256.88909109892</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="n">
-        <v>840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10664,24 +9621,15 @@
         <v>13394.69779109892</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="n">
-        <v>834</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10706,24 +9654,15 @@
         <v>12817.15609109892</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="n">
-        <v>832</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10748,24 +9687,15 @@
         <v>12819.15609109892</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="n">
-        <v>826</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10790,24 +9720,15 @@
         <v>12818.15609109892</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="n">
-        <v>842</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10832,24 +9753,15 @@
         <v>12682.63469109893</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="n">
-        <v>826</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10874,24 +9786,15 @@
         <v>12683.73469109893</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="n">
-        <v>819</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10916,24 +9819,15 @@
         <v>12612.80469109893</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" t="n">
-        <v>840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10958,24 +9852,15 @@
         <v>12777.06869109892</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="n">
-        <v>818</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -11000,24 +9885,15 @@
         <v>15820.87809109892</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="n">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -11042,24 +9918,21 @@
         <v>16058.75209109892</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="n">
         <v>824</v>
       </c>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -11084,24 +9957,21 @@
         <v>15807.57349109892</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="n">
         <v>839</v>
       </c>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -11126,24 +9996,21 @@
         <v>15843.85159109892</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="n">
         <v>828</v>
       </c>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -11168,24 +10035,21 @@
         <v>16291.59489109892</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="n">
         <v>831</v>
       </c>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -11210,24 +10074,21 @@
         <v>15791.67319109892</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="n">
         <v>832</v>
       </c>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -11252,24 +10113,21 @@
         <v>15791.67319109892</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="n">
         <v>831</v>
       </c>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -11294,24 +10152,21 @@
         <v>17639.47959109892</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I269" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" t="n">
         <v>831</v>
       </c>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -11336,24 +10191,21 @@
         <v>17609.81089109892</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="n">
         <v>839</v>
       </c>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -11378,24 +10230,21 @@
         <v>17721.91389109892</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I271" t="n">
-        <v>0</v>
-      </c>
-      <c r="J271" t="n">
         <v>838</v>
       </c>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -11420,24 +10269,21 @@
         <v>17710.00349109892</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I272" t="n">
-        <v>0</v>
-      </c>
-      <c r="J272" t="n">
         <v>842</v>
       </c>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -11462,24 +10308,21 @@
         <v>17726.93479109892</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I273" t="n">
-        <v>0</v>
-      </c>
-      <c r="J273" t="n">
         <v>841</v>
       </c>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -11504,24 +10347,21 @@
         <v>16912.94329109892</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I274" t="n">
-        <v>0</v>
-      </c>
-      <c r="J274" t="n">
         <v>851</v>
       </c>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -11546,24 +10386,21 @@
         <v>16917.94329109892</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I275" t="n">
-        <v>0</v>
-      </c>
-      <c r="J275" t="n">
         <v>846</v>
       </c>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11588,24 +10425,21 @@
         <v>16209.99329109892</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I276" t="n">
-        <v>0</v>
-      </c>
-      <c r="J276" t="n">
         <v>854</v>
       </c>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11630,24 +10464,21 @@
         <v>15931.18959109892</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I277" t="n">
-        <v>0</v>
-      </c>
-      <c r="J277" t="n">
         <v>850</v>
       </c>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11672,24 +10503,21 @@
         <v>15931.18959109892</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I278" t="n">
-        <v>0</v>
-      </c>
-      <c r="J278" t="n">
         <v>846</v>
       </c>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11714,24 +10542,21 @@
         <v>15893.65009109892</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I279" t="n">
-        <v>0</v>
-      </c>
-      <c r="J279" t="n">
         <v>846</v>
       </c>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11756,24 +10581,21 @@
         <v>16037.19009109892</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I280" t="n">
-        <v>0</v>
-      </c>
-      <c r="J280" t="n">
         <v>840</v>
       </c>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11798,26 +10620,23 @@
         <v>16037.19009109892</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I281" t="n">
-        <v>0</v>
-      </c>
-      <c r="J281" t="n">
         <v>849</v>
       </c>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest WTC.xlsx
+++ b/BackTest/2019-10-31 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>41472.16270000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>38654.74320000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>38125.05130000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>40325.36620000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>41325.22250000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>40842.24830000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>40670.41220000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>40670.41220000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>41170.41210000002</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>38839.05440000002</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>38874.88110000001</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>37949.10300000001</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>37951.10300000001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>37951.10300000001</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>37951.10300000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>37949.10800000001</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>38026.56840000001</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>38057.30200000001</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>38101.99560000001</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>38161.31960000001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>38101.31960000001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>37800.85090000001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>37725.73960000002</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>39012.13880000002</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>40730.70490000001</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>31405.08620000001</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>31452.95350000001</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>30893.04070000002</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>30947.56730000002</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>27975.16180000002</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>25363.16180000002</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2629,14 +2629,10 @@
         <v>23845.17110000003</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>850</v>
-      </c>
-      <c r="J68" t="n">
-        <v>850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
@@ -2669,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>850</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2705,19 +2695,11 @@
         <v>23924.22970000003</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>849</v>
-      </c>
-      <c r="J70" t="n">
-        <v>850</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2845,14 +2827,10 @@
         <v>24119.41730000002</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>847</v>
-      </c>
-      <c r="J74" t="n">
-        <v>847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
@@ -2885,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>847</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2924,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>847</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2963,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>847</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3002,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>847</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3041,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>847</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3080,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>847</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3119,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>847</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3158,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>847</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3197,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>847</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3236,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>847</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3275,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>847</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3314,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>847</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3353,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>847</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3389,19 +3289,11 @@
         <v>24310.71420000002</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>854</v>
-      </c>
-      <c r="J88" t="n">
-        <v>847</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3433,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>847</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3469,19 +3355,11 @@
         <v>24327.98020000002</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>852</v>
-      </c>
-      <c r="J90" t="n">
-        <v>847</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3510,19 +3388,11 @@
         <v>24327.98020000002</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>852</v>
-      </c>
-      <c r="J91" t="n">
-        <v>847</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3551,19 +3421,11 @@
         <v>24327.98020000002</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>852</v>
-      </c>
-      <c r="J92" t="n">
-        <v>847</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3592,19 +3454,11 @@
         <v>24398.60830000003</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>852</v>
-      </c>
-      <c r="J93" t="n">
-        <v>847</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3633,19 +3487,11 @@
         <v>25098.60830000003</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>853</v>
-      </c>
-      <c r="J94" t="n">
-        <v>847</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3674,19 +3520,11 @@
         <v>23839.93330000003</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>854</v>
-      </c>
-      <c r="J95" t="n">
-        <v>847</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3715,19 +3553,11 @@
         <v>23949.46490000002</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>846</v>
-      </c>
-      <c r="J96" t="n">
-        <v>847</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3756,19 +3586,11 @@
         <v>23636.76260000002</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>853</v>
-      </c>
-      <c r="J97" t="n">
-        <v>847</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3797,19 +3619,11 @@
         <v>23934.17380000002</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>852</v>
-      </c>
-      <c r="J98" t="n">
-        <v>847</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3838,19 +3652,11 @@
         <v>25124.17380000002</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>854</v>
-      </c>
-      <c r="J99" t="n">
-        <v>847</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3879,19 +3685,11 @@
         <v>24877.97380000002</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>860</v>
-      </c>
-      <c r="J100" t="n">
-        <v>847</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3920,19 +3718,11 @@
         <v>25147.97380000002</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>855</v>
-      </c>
-      <c r="J101" t="n">
-        <v>847</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3961,19 +3751,11 @@
         <v>24472.96990000002</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>860</v>
-      </c>
-      <c r="J102" t="n">
-        <v>847</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4002,19 +3784,11 @@
         <v>23972.97000000002</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>857</v>
-      </c>
-      <c r="J103" t="n">
-        <v>847</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4043,19 +3817,11 @@
         <v>23897.71880000002</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>854</v>
-      </c>
-      <c r="J104" t="n">
-        <v>847</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4084,19 +3850,11 @@
         <v>24010.52280000002</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>850</v>
-      </c>
-      <c r="J105" t="n">
-        <v>847</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4128,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>847</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4164,19 +3916,11 @@
         <v>25003.89260000002</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>854</v>
-      </c>
-      <c r="J107" t="n">
-        <v>847</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4205,17 +3949,15 @@
         <v>25003.89260000002</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>858</v>
       </c>
-      <c r="J108" t="n">
-        <v>847</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L108" t="n">
@@ -4246,14 +3988,12 @@
         <v>25178.89260000002</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>858</v>
       </c>
-      <c r="J109" t="n">
-        <v>847</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4287,14 +4027,10 @@
         <v>24893.78260000002</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>864</v>
-      </c>
-      <c r="J110" t="n">
-        <v>847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4328,14 +4064,10 @@
         <v>24861.20960000002</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>861</v>
-      </c>
-      <c r="J111" t="n">
-        <v>847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4369,14 +4101,12 @@
         <v>24308.89590000002</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>859</v>
       </c>
-      <c r="J112" t="n">
-        <v>847</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4410,14 +4140,12 @@
         <v>24074.00270000003</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>853</v>
       </c>
-      <c r="J113" t="n">
-        <v>847</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4451,14 +4179,12 @@
         <v>24041.11320000003</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>850</v>
       </c>
-      <c r="J114" t="n">
-        <v>847</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4492,14 +4218,12 @@
         <v>23800.56350000003</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>849</v>
       </c>
-      <c r="J115" t="n">
-        <v>847</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4533,14 +4257,12 @@
         <v>22860.86280000002</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>845</v>
       </c>
-      <c r="J116" t="n">
-        <v>847</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4574,14 +4296,12 @@
         <v>22860.86280000002</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>843</v>
       </c>
-      <c r="J117" t="n">
-        <v>847</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4615,14 +4335,12 @@
         <v>22865.08070000002</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>843</v>
       </c>
-      <c r="J118" t="n">
-        <v>847</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4656,14 +4374,12 @@
         <v>22301.30390000002</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>849</v>
       </c>
-      <c r="J119" t="n">
-        <v>847</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4697,14 +4413,12 @@
         <v>21737.69630000003</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>843</v>
       </c>
-      <c r="J120" t="n">
-        <v>847</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4738,14 +4452,12 @@
         <v>21983.56750000003</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>841</v>
       </c>
-      <c r="J121" t="n">
-        <v>847</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4779,14 +4491,12 @@
         <v>21946.48750000002</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>842</v>
       </c>
-      <c r="J122" t="n">
-        <v>847</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4820,14 +4530,12 @@
         <v>22192.35850000002</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>841</v>
       </c>
-      <c r="J123" t="n">
-        <v>847</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4861,14 +4569,12 @@
         <v>25140.68900000002</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>844</v>
       </c>
-      <c r="J124" t="n">
-        <v>847</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4902,14 +4608,12 @@
         <v>25649.98910000002</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>845</v>
       </c>
-      <c r="J125" t="n">
-        <v>847</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4943,14 +4647,12 @@
         <v>25612.89410000002</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>846</v>
       </c>
-      <c r="J126" t="n">
-        <v>847</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4984,14 +4686,12 @@
         <v>25959.82410000002</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>845</v>
       </c>
-      <c r="J127" t="n">
-        <v>847</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5025,14 +4725,12 @@
         <v>26294.82410000002</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>847</v>
       </c>
-      <c r="J128" t="n">
-        <v>847</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5066,14 +4764,12 @@
         <v>23769.39400000002</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>851</v>
       </c>
-      <c r="J129" t="n">
-        <v>847</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5107,14 +4803,12 @@
         <v>24562.10600000002</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>842</v>
       </c>
-      <c r="J130" t="n">
-        <v>847</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5148,14 +4842,12 @@
         <v>24855.16800000002</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>846</v>
       </c>
-      <c r="J131" t="n">
-        <v>847</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5189,14 +4881,12 @@
         <v>24562.10600000002</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>849</v>
       </c>
-      <c r="J132" t="n">
-        <v>847</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5230,14 +4920,10 @@
         <v>24564.23950000002</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>848</v>
-      </c>
-      <c r="J133" t="n">
-        <v>847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5271,14 +4957,10 @@
         <v>24565.23950000002</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>850</v>
-      </c>
-      <c r="J134" t="n">
-        <v>847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5312,14 +4994,10 @@
         <v>25063.22070000002</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>855</v>
-      </c>
-      <c r="J135" t="n">
-        <v>847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5353,14 +5031,10 @@
         <v>25627.22070000002</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>856</v>
-      </c>
-      <c r="J136" t="n">
-        <v>847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5394,14 +5068,10 @@
         <v>24475.04070000002</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>860</v>
-      </c>
-      <c r="J137" t="n">
-        <v>847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5435,14 +5105,12 @@
         <v>25075.04070000002</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>844</v>
       </c>
-      <c r="J138" t="n">
-        <v>847</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5476,14 +5144,12 @@
         <v>25122.70510000002</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>848</v>
       </c>
-      <c r="J139" t="n">
-        <v>847</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5517,14 +5183,12 @@
         <v>25894.12780000002</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>852</v>
       </c>
-      <c r="J140" t="n">
-        <v>847</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5558,14 +5222,12 @@
         <v>25384.12780000002</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>854</v>
       </c>
-      <c r="J141" t="n">
-        <v>847</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5599,14 +5261,12 @@
         <v>24986.62780000002</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>853</v>
       </c>
-      <c r="J142" t="n">
-        <v>847</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5640,14 +5300,12 @@
         <v>25414.54480000002</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>851</v>
       </c>
-      <c r="J143" t="n">
-        <v>847</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5681,14 +5339,12 @@
         <v>24950.35350000002</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>855</v>
       </c>
-      <c r="J144" t="n">
-        <v>847</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5722,14 +5378,12 @@
         <v>24950.35350000002</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>854</v>
       </c>
-      <c r="J145" t="n">
-        <v>847</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5763,14 +5417,12 @@
         <v>24950.35350000002</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>854</v>
       </c>
-      <c r="J146" t="n">
-        <v>847</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5804,14 +5456,12 @@
         <v>25750.35350000002</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>854</v>
       </c>
-      <c r="J147" t="n">
-        <v>847</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5845,14 +5495,12 @@
         <v>25750.35350000002</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>857</v>
       </c>
-      <c r="J148" t="n">
-        <v>847</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5886,14 +5534,12 @@
         <v>25675.54100000002</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>857</v>
       </c>
-      <c r="J149" t="n">
-        <v>847</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5927,14 +5573,12 @@
         <v>25708.41760000002</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>853</v>
       </c>
-      <c r="J150" t="n">
-        <v>847</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5968,14 +5612,12 @@
         <v>26008.41760000002</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>858</v>
       </c>
-      <c r="J151" t="n">
-        <v>847</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6009,14 +5651,12 @@
         <v>27133.41760000002</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>860</v>
       </c>
-      <c r="J152" t="n">
-        <v>847</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6050,14 +5690,10 @@
         <v>27211.38760000002</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>864</v>
-      </c>
-      <c r="J153" t="n">
-        <v>847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6091,14 +5727,10 @@
         <v>27212.38760000002</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>865</v>
-      </c>
-      <c r="J154" t="n">
-        <v>847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6132,19 +5764,17 @@
         <v>27212.38760000002</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>847</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L155" t="n">
-        <v>1.018612750885478</v>
+        <v>1</v>
       </c>
       <c r="M155" t="inlineStr"/>
     </row>
@@ -6171,15 +5801,13 @@
         <v>28999.18970000002</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>867</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L156" t="n">
@@ -6210,7 +5838,7 @@
         <v>28999.18970000002</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6247,7 +5875,7 @@
         <v>29121.13970000003</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6284,7 +5912,7 @@
         <v>29122.13970000003</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6321,7 +5949,7 @@
         <v>29502.24790000002</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6358,7 +5986,7 @@
         <v>29687.83300000002</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6395,7 +6023,7 @@
         <v>29688.83300000002</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6432,7 +6060,7 @@
         <v>29662.83300000002</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6469,7 +6097,7 @@
         <v>29188.83300000002</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6506,7 +6134,7 @@
         <v>29189.83300000002</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6543,11 +6171,9 @@
         <v>30505.01390000002</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="n">
-        <v>872</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
@@ -6582,11 +6208,9 @@
         <v>30153.37100000002</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="n">
-        <v>874</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
@@ -6621,11 +6245,9 @@
         <v>31404.93590000003</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>871</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -6660,11 +6282,9 @@
         <v>31412.19000000002</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>873</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
@@ -6699,11 +6319,9 @@
         <v>31422.19000000002</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="n">
-        <v>876</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
@@ -6738,11 +6356,9 @@
         <v>31374.74820000002</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I171" t="n">
-        <v>883</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
@@ -6777,11 +6393,9 @@
         <v>31649.95580000003</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
-      </c>
-      <c r="I172" t="n">
-        <v>879</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
@@ -6816,11 +6430,9 @@
         <v>31634.21450000002</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="n">
-        <v>880</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -6855,11 +6467,9 @@
         <v>31597.53970000002</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>876</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -6894,11 +6504,9 @@
         <v>31597.53970000002</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>875</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -6933,11 +6541,9 @@
         <v>31280.96590000002</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="n">
-        <v>875</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -6972,11 +6578,9 @@
         <v>31296.01840000003</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I177" t="n">
-        <v>874</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -7011,11 +6615,9 @@
         <v>32493.63500000003</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="n">
-        <v>879</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
@@ -7050,16 +6652,18 @@
         <v>32493.63500000003</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L179" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
       <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
@@ -7085,11 +6689,15 @@
         <v>32201.57440000003</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7118,11 +6726,15 @@
         <v>31141.25410000003</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7151,11 +6763,15 @@
         <v>32001.06100000003</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7184,11 +6800,15 @@
         <v>31570.66990000003</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7217,11 +6837,15 @@
         <v>31138.31800000002</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7250,15 +6874,15 @@
         <v>30920.98500000003</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>878</v>
-      </c>
-      <c r="J185" t="n">
-        <v>878</v>
-      </c>
-      <c r="K185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7287,17 +6911,13 @@
         <v>31420.98500000003</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>873</v>
-      </c>
-      <c r="J186" t="n">
-        <v>878</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L186" t="n">
@@ -7328,14 +6948,10 @@
         <v>29642.74150000003</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>874</v>
-      </c>
-      <c r="J187" t="n">
-        <v>878</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7369,14 +6985,10 @@
         <v>29611.30140000003</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>870</v>
-      </c>
-      <c r="J188" t="n">
-        <v>878</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7410,14 +7022,10 @@
         <v>29611.30140000003</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>869</v>
-      </c>
-      <c r="J189" t="n">
-        <v>878</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7451,14 +7059,10 @@
         <v>31033.84650000003</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>869</v>
-      </c>
-      <c r="J190" t="n">
-        <v>878</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7492,14 +7096,10 @@
         <v>31813.80640000003</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>874</v>
-      </c>
-      <c r="J191" t="n">
-        <v>878</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7533,14 +7133,10 @@
         <v>31562.67310000003</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="n">
-        <v>875</v>
-      </c>
-      <c r="J192" t="n">
-        <v>878</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7574,14 +7170,10 @@
         <v>32240.87100000002</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>873</v>
-      </c>
-      <c r="J193" t="n">
-        <v>878</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7615,14 +7207,10 @@
         <v>32248.12510000002</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>874</v>
-      </c>
-      <c r="J194" t="n">
-        <v>878</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7656,12 +7244,10 @@
         <v>31919.40110000002</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>878</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7695,12 +7281,10 @@
         <v>32435.34110000002</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>878</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7734,19 +7318,17 @@
         <v>40545.64799109892</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>878</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L197" t="n">
-        <v>1.031446469248292</v>
+        <v>1</v>
       </c>
       <c r="M197" t="inlineStr"/>
     </row>
@@ -7773,11 +7355,15 @@
         <v>40540.70049109892</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7806,11 +7392,15 @@
         <v>41326.56649109892</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7839,11 +7429,15 @@
         <v>41448.13649109892</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7872,11 +7466,15 @@
         <v>41448.13649109892</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7905,11 +7503,15 @@
         <v>41336.53649109892</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7938,11 +7540,15 @@
         <v>41336.53649109892</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7971,11 +7577,15 @@
         <v>41027.76549109892</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8004,11 +7614,15 @@
         <v>39852.94009109892</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8037,11 +7651,15 @@
         <v>37887.94009109892</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8070,11 +7688,15 @@
         <v>37886.94009109892</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8103,11 +7725,15 @@
         <v>37891.94009109892</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8136,11 +7762,15 @@
         <v>37891.94009109892</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8173,7 +7803,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8206,7 +7840,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8239,7 +7877,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8268,11 +7910,15 @@
         <v>33154.95019109892</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8305,7 +7951,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8338,7 +7988,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8371,7 +8025,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8404,7 +8062,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8437,7 +8099,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8470,7 +8136,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8503,7 +8173,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8536,7 +8210,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8569,7 +8247,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8602,7 +8284,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8635,7 +8321,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8668,7 +8358,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8701,7 +8395,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8734,7 +8432,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8767,7 +8469,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8800,7 +8506,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8833,7 +8543,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8866,7 +8580,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8899,7 +8617,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8932,7 +8654,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8965,7 +8691,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8998,7 +8728,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9031,7 +8765,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9064,7 +8802,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9097,7 +8839,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9130,7 +8876,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9163,7 +8913,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9196,7 +8950,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9229,7 +8987,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9262,7 +9024,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9295,7 +9061,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9328,7 +9098,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9361,7 +9135,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9394,7 +9172,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9427,7 +9209,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9460,7 +9246,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9493,7 +9283,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9526,7 +9320,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9559,7 +9357,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9592,7 +9394,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9625,7 +9431,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9658,7 +9468,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9691,7 +9505,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9724,7 +9542,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9757,7 +9579,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9786,11 +9612,17 @@
         <v>12683.73469109893</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>819</v>
+      </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9823,7 +9655,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9852,11 +9688,17 @@
         <v>12777.06869109892</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>818</v>
+      </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9885,11 +9727,17 @@
         <v>15820.87809109892</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>821</v>
+      </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9918,7 +9766,7 @@
         <v>16058.75209109892</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>824</v>
@@ -9926,7 +9774,7 @@
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L263" t="n">
@@ -9957,7 +9805,7 @@
         <v>15807.57349109892</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>839</v>
@@ -9996,7 +9844,7 @@
         <v>15843.85159109892</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>828</v>
@@ -10035,7 +9883,7 @@
         <v>16291.59489109892</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>831</v>
@@ -10074,7 +9922,7 @@
         <v>15791.67319109892</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>832</v>
@@ -10113,7 +9961,7 @@
         <v>15791.67319109892</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>831</v>
@@ -10152,7 +10000,7 @@
         <v>17639.47959109892</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>831</v>
@@ -10191,7 +10039,7 @@
         <v>17609.81089109892</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>839</v>
@@ -10230,7 +10078,7 @@
         <v>17721.91389109892</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>838</v>
@@ -10269,7 +10117,7 @@
         <v>17710.00349109892</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>842</v>
@@ -10308,7 +10156,7 @@
         <v>17726.93479109892</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>841</v>
@@ -10347,7 +10195,7 @@
         <v>16912.94329109892</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>851</v>
@@ -10386,7 +10234,7 @@
         <v>16917.94329109892</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>846</v>
@@ -10425,11 +10273,9 @@
         <v>16209.99329109892</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="n">
-        <v>854</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
@@ -10464,11 +10310,9 @@
         <v>15931.18959109892</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
-      </c>
-      <c r="I277" t="n">
-        <v>850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
@@ -10503,11 +10347,9 @@
         <v>15931.18959109892</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
-      </c>
-      <c r="I278" t="n">
-        <v>846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
@@ -10542,7 +10384,7 @@
         <v>15893.65009109892</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>846</v>
@@ -10581,7 +10423,7 @@
         <v>16037.19009109892</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>840</v>
@@ -10620,7 +10462,7 @@
         <v>16037.19009109892</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>849</v>
@@ -10637,6 +10479,6 @@
       <c r="M281" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest WTC.xlsx
+++ b/BackTest/2019-10-31 BackTest WTC.xlsx
@@ -715,7 +715,7 @@
         <v>41170.41210000002</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>39613.14860000001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>38101.99560000001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>38161.31960000001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>38101.31960000001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>37800.85090000001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>37725.73960000002</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>37725.73960000002</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>37879.21560000002</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>39012.13880000002</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>40730.70490000001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>31405.08620000001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>31452.95350000001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -3388,10 +3388,14 @@
         <v>24327.98020000002</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>852</v>
+      </c>
+      <c r="J91" t="n">
+        <v>852</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
@@ -3421,11 +3425,19 @@
         <v>24327.98020000002</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>852</v>
+      </c>
+      <c r="J92" t="n">
+        <v>852</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3466,19 @@
         <v>24398.60830000003</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>852</v>
+      </c>
+      <c r="J93" t="n">
+        <v>852</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,10 +3507,14 @@
         <v>25098.60830000003</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>853</v>
+      </c>
+      <c r="J94" t="n">
+        <v>853</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
@@ -3520,11 +3544,19 @@
         <v>23839.93330000003</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>854</v>
+      </c>
+      <c r="J95" t="n">
+        <v>853</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3585,19 @@
         <v>23949.46490000002</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>846</v>
+      </c>
+      <c r="J96" t="n">
+        <v>853</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3626,19 @@
         <v>23636.76260000002</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>853</v>
+      </c>
+      <c r="J97" t="n">
+        <v>853</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3667,19 @@
         <v>23934.17380000002</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>852</v>
+      </c>
+      <c r="J98" t="n">
+        <v>853</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3708,19 @@
         <v>25124.17380000002</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>854</v>
+      </c>
+      <c r="J99" t="n">
+        <v>853</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3749,19 @@
         <v>24877.97380000002</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>860</v>
+      </c>
+      <c r="J100" t="n">
+        <v>853</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3790,19 @@
         <v>25147.97380000002</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>855</v>
+      </c>
+      <c r="J101" t="n">
+        <v>853</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3831,19 @@
         <v>24472.96990000002</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>860</v>
+      </c>
+      <c r="J102" t="n">
+        <v>853</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +3872,19 @@
         <v>23972.97000000002</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>857</v>
+      </c>
+      <c r="J103" t="n">
+        <v>853</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +3913,19 @@
         <v>23897.71880000002</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>854</v>
+      </c>
+      <c r="J104" t="n">
+        <v>853</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +3954,19 @@
         <v>24010.52280000002</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>850</v>
+      </c>
+      <c r="J105" t="n">
+        <v>853</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +3995,19 @@
         <v>24477.55550000002</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>853</v>
+      </c>
+      <c r="J106" t="n">
+        <v>853</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +4036,19 @@
         <v>25003.89260000002</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>854</v>
+      </c>
+      <c r="J107" t="n">
+        <v>853</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4077,19 @@
         <v>25003.89260000002</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>858</v>
+      </c>
+      <c r="J108" t="n">
+        <v>853</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4118,19 @@
         <v>25178.89260000002</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>858</v>
+      </c>
+      <c r="J109" t="n">
+        <v>853</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4159,19 @@
         <v>24893.78260000002</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>864</v>
+      </c>
+      <c r="J110" t="n">
+        <v>853</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4200,19 @@
         <v>24861.20960000002</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>861</v>
+      </c>
+      <c r="J111" t="n">
+        <v>853</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4241,19 @@
         <v>24308.89590000002</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>859</v>
+      </c>
+      <c r="J112" t="n">
+        <v>853</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4282,19 @@
         <v>24074.00270000003</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>853</v>
+      </c>
+      <c r="J113" t="n">
+        <v>853</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4323,19 @@
         <v>24041.11320000003</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>850</v>
+      </c>
+      <c r="J114" t="n">
+        <v>853</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4364,19 @@
         <v>23800.56350000003</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>849</v>
+      </c>
+      <c r="J115" t="n">
+        <v>853</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4405,19 @@
         <v>22860.86280000002</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>845</v>
+      </c>
+      <c r="J116" t="n">
+        <v>853</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4446,19 @@
         <v>22860.86280000002</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>843</v>
+      </c>
+      <c r="J117" t="n">
+        <v>853</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4487,19 @@
         <v>22865.08070000002</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>843</v>
+      </c>
+      <c r="J118" t="n">
+        <v>853</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4528,19 @@
         <v>22301.30390000002</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>849</v>
+      </c>
+      <c r="J119" t="n">
+        <v>853</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +4569,19 @@
         <v>21737.69630000003</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>843</v>
+      </c>
+      <c r="J120" t="n">
+        <v>853</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +4610,19 @@
         <v>21983.56750000003</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>841</v>
+      </c>
+      <c r="J121" t="n">
+        <v>853</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4651,19 @@
         <v>21946.48750000002</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>842</v>
+      </c>
+      <c r="J122" t="n">
+        <v>853</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +4692,19 @@
         <v>22192.35850000002</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>841</v>
+      </c>
+      <c r="J123" t="n">
+        <v>853</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +4733,19 @@
         <v>25140.68900000002</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>844</v>
+      </c>
+      <c r="J124" t="n">
+        <v>853</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +4774,19 @@
         <v>25649.98910000002</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>845</v>
+      </c>
+      <c r="J125" t="n">
+        <v>853</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +4815,19 @@
         <v>25612.89410000002</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>846</v>
+      </c>
+      <c r="J126" t="n">
+        <v>853</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +4856,19 @@
         <v>25959.82410000002</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>845</v>
+      </c>
+      <c r="J127" t="n">
+        <v>853</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +4897,19 @@
         <v>26294.82410000002</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>847</v>
+      </c>
+      <c r="J128" t="n">
+        <v>853</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +4938,19 @@
         <v>23769.39400000002</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>851</v>
+      </c>
+      <c r="J129" t="n">
+        <v>853</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4675,11 +4979,19 @@
         <v>24562.10600000002</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>842</v>
+      </c>
+      <c r="J130" t="n">
+        <v>853</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4708,11 +5020,19 @@
         <v>24855.16800000002</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>846</v>
+      </c>
+      <c r="J131" t="n">
+        <v>853</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4741,11 +5061,19 @@
         <v>24562.10600000002</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>849</v>
+      </c>
+      <c r="J132" t="n">
+        <v>853</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4774,11 +5102,19 @@
         <v>24564.23950000002</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>848</v>
+      </c>
+      <c r="J133" t="n">
+        <v>853</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4807,11 +5143,19 @@
         <v>24565.23950000002</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>850</v>
+      </c>
+      <c r="J134" t="n">
+        <v>853</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4840,11 +5184,19 @@
         <v>25063.22070000002</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>855</v>
+      </c>
+      <c r="J135" t="n">
+        <v>853</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4873,11 +5225,19 @@
         <v>25627.22070000002</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>856</v>
+      </c>
+      <c r="J136" t="n">
+        <v>853</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4906,11 +5266,19 @@
         <v>24475.04070000002</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>860</v>
+      </c>
+      <c r="J137" t="n">
+        <v>853</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4939,11 +5307,19 @@
         <v>25075.04070000002</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>844</v>
+      </c>
+      <c r="J138" t="n">
+        <v>853</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +5348,19 @@
         <v>25122.70510000002</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>848</v>
+      </c>
+      <c r="J139" t="n">
+        <v>853</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5005,11 +5389,19 @@
         <v>25894.12780000002</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>852</v>
+      </c>
+      <c r="J140" t="n">
+        <v>853</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5038,11 +5430,19 @@
         <v>25384.12780000002</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>854</v>
+      </c>
+      <c r="J141" t="n">
+        <v>853</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +5471,19 @@
         <v>24986.62780000002</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>853</v>
+      </c>
+      <c r="J142" t="n">
+        <v>853</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +5512,19 @@
         <v>25414.54480000002</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>851</v>
+      </c>
+      <c r="J143" t="n">
+        <v>853</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +5553,19 @@
         <v>24950.35350000002</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>855</v>
+      </c>
+      <c r="J144" t="n">
+        <v>853</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5594,19 @@
         <v>24950.35350000002</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>854</v>
+      </c>
+      <c r="J145" t="n">
+        <v>853</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +5635,19 @@
         <v>24950.35350000002</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>854</v>
+      </c>
+      <c r="J146" t="n">
+        <v>853</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5676,19 @@
         <v>25750.35350000002</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>854</v>
+      </c>
+      <c r="J147" t="n">
+        <v>853</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5717,19 @@
         <v>25750.35350000002</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>857</v>
+      </c>
+      <c r="J148" t="n">
+        <v>853</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5758,19 @@
         <v>25675.54100000002</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>857</v>
+      </c>
+      <c r="J149" t="n">
+        <v>853</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5799,19 @@
         <v>25708.41760000002</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>853</v>
+      </c>
+      <c r="J150" t="n">
+        <v>853</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5840,19 @@
         <v>26008.41760000002</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>858</v>
+      </c>
+      <c r="J151" t="n">
+        <v>853</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5881,19 @@
         <v>27133.41760000002</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>860</v>
+      </c>
+      <c r="J152" t="n">
+        <v>853</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5922,19 @@
         <v>27211.38760000002</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>864</v>
+      </c>
+      <c r="J153" t="n">
+        <v>853</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5963,19 @@
         <v>27212.38760000002</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>865</v>
+      </c>
+      <c r="J154" t="n">
+        <v>853</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +6004,19 @@
         <v>27212.38760000002</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>867</v>
+      </c>
+      <c r="J155" t="n">
+        <v>853</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +6045,19 @@
         <v>28999.18970000002</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>867</v>
+      </c>
+      <c r="J156" t="n">
+        <v>853</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +6086,19 @@
         <v>28999.18970000002</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>874</v>
+      </c>
+      <c r="J157" t="n">
+        <v>853</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +6127,19 @@
         <v>29121.13970000003</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>874</v>
+      </c>
+      <c r="J158" t="n">
+        <v>853</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +6168,19 @@
         <v>29122.13970000003</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>875</v>
+      </c>
+      <c r="J159" t="n">
+        <v>853</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +6209,19 @@
         <v>29502.24790000002</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>878</v>
+      </c>
+      <c r="J160" t="n">
+        <v>853</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +6250,19 @@
         <v>29687.83300000002</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>880</v>
+      </c>
+      <c r="J161" t="n">
+        <v>853</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +6291,19 @@
         <v>29688.83300000002</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>884</v>
+      </c>
+      <c r="J162" t="n">
+        <v>853</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +6332,19 @@
         <v>29662.83300000002</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>886</v>
+      </c>
+      <c r="J163" t="n">
+        <v>853</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +6373,19 @@
         <v>29188.83300000002</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>884</v>
+      </c>
+      <c r="J164" t="n">
+        <v>853</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +6414,19 @@
         <v>29189.83300000002</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>869</v>
+      </c>
+      <c r="J165" t="n">
+        <v>853</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +6455,19 @@
         <v>30505.01390000002</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>872</v>
+      </c>
+      <c r="J166" t="n">
+        <v>853</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +6496,19 @@
         <v>30153.37100000002</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>874</v>
+      </c>
+      <c r="J167" t="n">
+        <v>853</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5929,11 +6537,19 @@
         <v>31404.93590000003</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>871</v>
+      </c>
+      <c r="J168" t="n">
+        <v>853</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5962,11 +6578,19 @@
         <v>31412.19000000002</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>873</v>
+      </c>
+      <c r="J169" t="n">
+        <v>853</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +6619,19 @@
         <v>31422.19000000002</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>876</v>
+      </c>
+      <c r="J170" t="n">
+        <v>853</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6028,11 +6660,19 @@
         <v>31374.74820000002</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>883</v>
+      </c>
+      <c r="J171" t="n">
+        <v>853</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +6701,19 @@
         <v>31649.95580000003</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>879</v>
+      </c>
+      <c r="J172" t="n">
+        <v>853</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +6742,19 @@
         <v>31634.21450000002</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>880</v>
+      </c>
+      <c r="J173" t="n">
+        <v>853</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6127,11 +6783,19 @@
         <v>31597.53970000002</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>876</v>
+      </c>
+      <c r="J174" t="n">
+        <v>853</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6824,19 @@
         <v>31597.53970000002</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>875</v>
+      </c>
+      <c r="J175" t="n">
+        <v>853</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +6865,19 @@
         <v>31280.96590000002</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>875</v>
+      </c>
+      <c r="J176" t="n">
+        <v>853</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6906,19 @@
         <v>31296.01840000003</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>874</v>
+      </c>
+      <c r="J177" t="n">
+        <v>853</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6259,11 +6947,19 @@
         <v>32493.63500000003</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>879</v>
+      </c>
+      <c r="J178" t="n">
+        <v>853</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +6988,19 @@
         <v>32493.63500000003</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>894</v>
+      </c>
+      <c r="J179" t="n">
+        <v>853</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6325,11 +7029,19 @@
         <v>32201.57440000003</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>894</v>
+      </c>
+      <c r="J180" t="n">
+        <v>853</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +7070,19 @@
         <v>31141.25410000003</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>889</v>
+      </c>
+      <c r="J181" t="n">
+        <v>853</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6391,11 +7111,19 @@
         <v>32001.06100000003</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>882</v>
+      </c>
+      <c r="J182" t="n">
+        <v>853</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +7152,19 @@
         <v>31570.66990000003</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>883</v>
+      </c>
+      <c r="J183" t="n">
+        <v>853</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6457,11 +7193,19 @@
         <v>31138.31800000002</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>882</v>
+      </c>
+      <c r="J184" t="n">
+        <v>853</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +7234,19 @@
         <v>30920.98500000003</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>878</v>
+      </c>
+      <c r="J185" t="n">
+        <v>853</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6523,11 +7275,19 @@
         <v>31420.98500000003</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>873</v>
+      </c>
+      <c r="J186" t="n">
+        <v>853</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6556,11 +7316,19 @@
         <v>29642.74150000003</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>874</v>
+      </c>
+      <c r="J187" t="n">
+        <v>853</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6589,11 +7357,19 @@
         <v>29611.30140000003</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>870</v>
+      </c>
+      <c r="J188" t="n">
+        <v>853</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6622,11 +7398,19 @@
         <v>29611.30140000003</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>869</v>
+      </c>
+      <c r="J189" t="n">
+        <v>853</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6655,11 +7439,19 @@
         <v>31033.84650000003</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>869</v>
+      </c>
+      <c r="J190" t="n">
+        <v>853</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6688,11 +7480,19 @@
         <v>31813.80640000003</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>874</v>
+      </c>
+      <c r="J191" t="n">
+        <v>853</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6721,11 +7521,19 @@
         <v>31562.67310000003</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>875</v>
+      </c>
+      <c r="J192" t="n">
+        <v>853</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6754,11 +7562,19 @@
         <v>32240.87100000002</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>873</v>
+      </c>
+      <c r="J193" t="n">
+        <v>853</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6787,11 +7603,19 @@
         <v>32248.12510000002</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>874</v>
+      </c>
+      <c r="J194" t="n">
+        <v>853</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6820,11 +7644,19 @@
         <v>31919.40110000002</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>882</v>
+      </c>
+      <c r="J195" t="n">
+        <v>853</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6853,11 +7685,19 @@
         <v>32435.34110000002</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>881</v>
+      </c>
+      <c r="J196" t="n">
+        <v>853</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6886,11 +7726,19 @@
         <v>40545.64799109892</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>889</v>
+      </c>
+      <c r="J197" t="n">
+        <v>853</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6919,13 +7767,19 @@
         <v>40540.70049109892</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>853</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L198" t="n">
-        <v>1</v>
+        <v>1.036031652989449</v>
       </c>
       <c r="M198" t="inlineStr"/>
     </row>
@@ -6952,11 +7806,17 @@
         <v>41326.56649109892</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>889</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6985,7 +7845,7 @@
         <v>41448.13649109892</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7878,7 @@
         <v>41448.13649109892</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7911,7 @@
         <v>41336.53649109892</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7944,7 @@
         <v>41336.53649109892</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7977,7 @@
         <v>41027.76549109892</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +8010,7 @@
         <v>39852.94009109892</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +8043,7 @@
         <v>37887.94009109892</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +8076,7 @@
         <v>37886.94009109892</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +8109,7 @@
         <v>37891.94009109892</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +8142,7 @@
         <v>37891.94009109892</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +8175,7 @@
         <v>34197.80019109892</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +8208,7 @@
         <v>33696.95019109892</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +8241,7 @@
         <v>33155.95019109892</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8536,10 +9396,14 @@
         <v>15132.18799109892</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>835</v>
+      </c>
+      <c r="J247" t="n">
+        <v>835</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
@@ -8569,11 +9433,19 @@
         <v>15011.78979109892</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>828</v>
+      </c>
+      <c r="J248" t="n">
+        <v>835</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8602,15 +9474,17 @@
         <v>15409.37979109892</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>827</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>827</v>
-      </c>
-      <c r="K249" t="inlineStr"/>
+        <v>835</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8639,15 +9513,17 @@
         <v>13669.28969109892</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>831</v>
+      </c>
       <c r="J250" t="n">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L250" t="n">
@@ -8678,15 +9554,17 @@
         <v>13669.28969109892</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>828</v>
+      </c>
       <c r="J251" t="n">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L251" t="n">
@@ -8723,9 +9601,13 @@
         <v>828</v>
       </c>
       <c r="J252" t="n">
-        <v>828</v>
-      </c>
-      <c r="K252" t="inlineStr"/>
+        <v>835</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8754,15 +9636,17 @@
         <v>14256.88909109892</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>840</v>
+      </c>
       <c r="J253" t="n">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L253" t="n">
@@ -8797,11 +9681,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L254" t="n">
@@ -8835,8 +9719,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>835</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8868,8 +9758,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>835</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8904,9 +9800,13 @@
         <v>842</v>
       </c>
       <c r="J257" t="n">
-        <v>842</v>
-      </c>
-      <c r="K257" t="inlineStr"/>
+        <v>835</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8941,11 +9841,11 @@
         <v>826</v>
       </c>
       <c r="J258" t="n">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L258" t="n">
@@ -8982,7 +9882,7 @@
         <v>819</v>
       </c>
       <c r="J259" t="n">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9023,7 +9923,7 @@
         <v>840</v>
       </c>
       <c r="J260" t="n">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9064,7 +9964,7 @@
         <v>818</v>
       </c>
       <c r="J261" t="n">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9105,7 +10005,7 @@
         <v>821</v>
       </c>
       <c r="J262" t="n">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9146,7 +10046,7 @@
         <v>824</v>
       </c>
       <c r="J263" t="n">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9187,7 +10087,7 @@
         <v>839</v>
       </c>
       <c r="J264" t="n">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9228,7 +10128,7 @@
         <v>828</v>
       </c>
       <c r="J265" t="n">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9269,7 +10169,7 @@
         <v>831</v>
       </c>
       <c r="J266" t="n">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9310,7 +10210,7 @@
         <v>832</v>
       </c>
       <c r="J267" t="n">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9351,7 +10251,7 @@
         <v>831</v>
       </c>
       <c r="J268" t="n">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9392,7 +10292,7 @@
         <v>831</v>
       </c>
       <c r="J269" t="n">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9433,7 +10333,7 @@
         <v>839</v>
       </c>
       <c r="J270" t="n">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9474,7 +10374,7 @@
         <v>838</v>
       </c>
       <c r="J271" t="n">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9515,7 +10415,7 @@
         <v>842</v>
       </c>
       <c r="J272" t="n">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9550,11 +10450,13 @@
         <v>17726.93479109892</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>841</v>
+      </c>
       <c r="J273" t="n">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -9589,11 +10491,13 @@
         <v>16912.94329109892</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>851</v>
+      </c>
       <c r="J274" t="n">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -9628,11 +10532,13 @@
         <v>16917.94329109892</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>846</v>
+      </c>
       <c r="J275" t="n">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9667,11 +10573,13 @@
         <v>16209.99329109892</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>854</v>
+      </c>
       <c r="J276" t="n">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -9706,11 +10614,13 @@
         <v>15931.18959109892</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>850</v>
+      </c>
       <c r="J277" t="n">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -9745,11 +10655,13 @@
         <v>15931.18959109892</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>846</v>
+      </c>
       <c r="J278" t="n">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -9784,11 +10696,13 @@
         <v>15893.65009109892</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>846</v>
+      </c>
       <c r="J279" t="n">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -9823,11 +10737,13 @@
         <v>16037.19009109892</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>840</v>
+      </c>
       <c r="J280" t="n">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -9862,11 +10778,13 @@
         <v>16037.19009109892</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>849</v>
+      </c>
       <c r="J281" t="n">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
